--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -193,6 +193,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4240,10 +4273,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4350,10 +4383,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4366,84 +4399,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>3231731618.09</v>
+        <v>1598712225</v>
       </c>
       <c r="AA2" t="n">
-        <v>3812954846</v>
+        <v>1950251131</v>
       </c>
       <c r="AB2" t="n">
-        <v>5281950979.2415</v>
+        <v>2453706483</v>
       </c>
       <c r="AC2" t="n">
-        <v>7730994673.9821</v>
+        <v>1537937967.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>8841237666.2745</v>
+        <v>2359572844.2261</v>
       </c>
       <c r="AE2" t="n">
-        <v>18576306258.0933</v>
+        <v>2281786758.9359</v>
       </c>
       <c r="AF2" t="n">
-        <v>20160233468.2214</v>
+        <v>3084333703.9281</v>
       </c>
       <c r="AG2" t="n">
-        <v>21127357776.2181</v>
+        <v>2683224382.5614</v>
       </c>
       <c r="AH2" t="n">
-        <v>23115944199.4031</v>
+        <v>3837830270.887</v>
       </c>
       <c r="AI2" t="n">
-        <v>16246412581.5096</v>
+        <v>1610368586.7903</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15810048131.7744</v>
+        <v>1526017359.7333</v>
       </c>
       <c r="AK2" t="n">
-        <v>15421728885.6504</v>
+        <v>1383479480.5873</v>
       </c>
       <c r="AL2" t="n">
-        <v>13330137081.8715</v>
+        <v>1114684443.4296</v>
       </c>
       <c r="AM2" t="n">
-        <v>11912698410.6653</v>
+        <v>891224119.6603</v>
       </c>
       <c r="AN2" t="n">
-        <v>15150245474.8841</v>
+        <v>817356909.2429</v>
       </c>
       <c r="AO2" t="n">
-        <v>14449186882.6444</v>
+        <v>653654396.8533</v>
       </c>
       <c r="AP2" t="n">
-        <v>13874270370.8504</v>
+        <v>753701756.3239</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14619395779.5578</v>
+        <v>773948199.8652</v>
       </c>
       <c r="AR2" t="n">
-        <v>17627529189.1996</v>
+        <v>944969387.8315</v>
       </c>
       <c r="AS2" t="n">
-        <v>16737538619.8948</v>
+        <v>892014219.0943</v>
       </c>
       <c r="AT2" t="n">
-        <v>19627140118.8153</v>
+        <v>3037075943.1174</v>
       </c>
       <c r="AU2" t="n">
-        <v>44824536995.1949</v>
+        <v>31132214013.3034</v>
       </c>
       <c r="AV2" t="n">
-        <v>46048669215.5635</v>
+        <v>28769042912.4651</v>
       </c>
       <c r="AW2" t="n">
-        <v>9776108630.3346</v>
+        <v>2352508496.4324</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4456,84 +4489,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>3867172348</v>
+        <v>307681077.09</v>
       </c>
       <c r="AA3" t="n">
-        <v>4793771907</v>
+        <v>348461644</v>
       </c>
       <c r="AB3" t="n">
-        <v>5982434518</v>
+        <v>427869132.3104</v>
       </c>
       <c r="AC3" t="n">
-        <v>6737871820.6396</v>
+        <v>777990920.63</v>
       </c>
       <c r="AD3" t="n">
-        <v>7454215863.1515</v>
+        <v>959844055.1201</v>
       </c>
       <c r="AE3" t="n">
-        <v>11867070482.5609</v>
+        <v>1564435272.9276</v>
       </c>
       <c r="AF3" t="n">
-        <v>13547520958.845</v>
+        <v>1929237401.8004</v>
       </c>
       <c r="AG3" t="n">
-        <v>12063425081.4161</v>
+        <v>2848479475.8697</v>
       </c>
       <c r="AH3" t="n">
-        <v>14901437616.8281</v>
+        <v>3258995428.8174</v>
       </c>
       <c r="AI3" t="n">
-        <v>18552748295.3185</v>
+        <v>2228722045.3614</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12503494324.5602</v>
+        <v>1648376844.0681</v>
       </c>
       <c r="AK3" t="n">
-        <v>14004822873.7905</v>
+        <v>1437608258.166</v>
       </c>
       <c r="AL3" t="n">
-        <v>21578178999.083</v>
+        <v>1238210053.3423</v>
       </c>
       <c r="AM3" t="n">
-        <v>14179757511.9419</v>
+        <v>1134115760.9836</v>
       </c>
       <c r="AN3" t="n">
-        <v>8748283143.6861</v>
+        <v>1291478699.4887</v>
       </c>
       <c r="AO3" t="n">
-        <v>6424190470.4862</v>
+        <v>1394911469.1191</v>
       </c>
       <c r="AP3" t="n">
-        <v>5064511735.4566</v>
+        <v>1297195047.2086</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6586632602.9288</v>
+        <v>1321412773.8037</v>
       </c>
       <c r="AR3" t="n">
-        <v>7300405322.4193</v>
+        <v>1800704927.8589</v>
       </c>
       <c r="AS3" t="n">
-        <v>6124733385.5651</v>
+        <v>1627764647.9727</v>
       </c>
       <c r="AT3" t="n">
-        <v>5270353073.0496</v>
+        <v>1522691066.091</v>
       </c>
       <c r="AU3" t="n">
-        <v>5881643425.5445</v>
+        <v>1184746287.7599</v>
       </c>
       <c r="AV3" t="n">
-        <v>12090182374.6508</v>
+        <v>1407852561.5702</v>
       </c>
       <c r="AW3" t="n">
-        <v>5315021154.0348</v>
+        <v>827953320.1192</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4546,84 +4579,84 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>13308850</v>
+        <v>527371</v>
       </c>
       <c r="AA4" t="n">
-        <v>21168463</v>
+        <v>1137225</v>
       </c>
       <c r="AB4" t="n">
-        <v>35646463</v>
+        <v>56869623</v>
       </c>
       <c r="AC4" t="n">
-        <v>26260225.0938</v>
+        <v>394357.7003</v>
       </c>
       <c r="AD4" t="n">
-        <v>21301234.4687</v>
+        <v>1783936</v>
       </c>
       <c r="AE4" t="n">
-        <v>100080424</v>
+        <v>2562659</v>
       </c>
       <c r="AF4" t="n">
-        <v>78752737</v>
+        <v>4419258</v>
       </c>
       <c r="AG4" t="n">
-        <v>14627137.9375</v>
+        <v>533453</v>
       </c>
       <c r="AH4" t="n">
-        <v>186468402.3106</v>
+        <v>51786.0605</v>
       </c>
       <c r="AI4" t="n">
-        <v>13271019.9576</v>
+        <v>55919.27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27115107.0589</v>
+        <v>72495977.7688</v>
       </c>
       <c r="AK4" t="n">
-        <v>15297739.9783</v>
+        <v>236498803.3692</v>
       </c>
       <c r="AL4" t="n">
-        <v>4202802.6717</v>
+        <v>369192415.3946</v>
       </c>
       <c r="AM4" t="n">
-        <v>26937521.885</v>
+        <v>592998959.5775</v>
       </c>
       <c r="AN4" t="n">
-        <v>5430959.5516</v>
+        <v>430518058.3499</v>
       </c>
       <c r="AO4" t="n">
-        <v>9631482.8865</v>
+        <v>342584026.9543</v>
       </c>
       <c r="AP4" t="n">
-        <v>11533251.3814</v>
+        <v>283130025.9875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>409162.7537</v>
+        <v>387828859.5314</v>
       </c>
       <c r="AR4" t="n">
-        <v>-683448.5598</v>
+        <v>524841109.6843</v>
       </c>
       <c r="AS4" t="n">
-        <v>-926041.8509</v>
+        <v>220883905.1936</v>
       </c>
       <c r="AT4" t="n">
-        <v>-286436.3467</v>
+        <v>240240368.192</v>
       </c>
       <c r="AU4" t="n">
-        <v>5160064.13</v>
+        <v>337619140.7543</v>
       </c>
       <c r="AV4" t="n">
-        <v>600000</v>
+        <v>260324530.8489</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>202941192.1578</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4636,84 +4669,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>27192491</v>
+        <v>83567523</v>
       </c>
       <c r="AA5" t="n">
-        <v>38013886</v>
+        <v>118543525</v>
       </c>
       <c r="AB5" t="n">
-        <v>26618774</v>
+        <v>189427929.9702</v>
       </c>
       <c r="AC5" t="n">
-        <v>57444974</v>
+        <v>521268776.5005</v>
       </c>
       <c r="AD5" t="n">
-        <v>36817459</v>
+        <v>789542294.4706</v>
       </c>
       <c r="AE5" t="n">
-        <v>73757462.04</v>
+        <v>673143670.9155</v>
       </c>
       <c r="AF5" t="n">
-        <v>94946462.8691</v>
+        <v>529604122.3089</v>
       </c>
       <c r="AG5" t="n">
-        <v>112141706.2403</v>
+        <v>612719391.4741</v>
       </c>
       <c r="AH5" t="n">
-        <v>56714274.0259</v>
+        <v>535206281.2442</v>
       </c>
       <c r="AI5" t="n">
-        <v>14745532.3344</v>
+        <v>695206474.6359</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46239552.4833</v>
+        <v>769139567.1986</v>
       </c>
       <c r="AK5" t="n">
-        <v>128128965.0707</v>
+        <v>531614156.6627</v>
       </c>
       <c r="AL5" t="n">
-        <v>92880505.6119</v>
+        <v>429995373.7128</v>
       </c>
       <c r="AM5" t="n">
-        <v>69908011.43</v>
+        <v>233538457.0362</v>
       </c>
       <c r="AN5" t="n">
-        <v>18500060.43</v>
+        <v>232930995.0547</v>
       </c>
       <c r="AO5" t="n">
-        <v>4335306.9007</v>
+        <v>193492630.2194</v>
       </c>
       <c r="AP5" t="n">
-        <v>41074974.6011</v>
+        <v>166735752.3894</v>
       </c>
       <c r="AQ5" t="n">
-        <v>53286671.5322</v>
+        <v>159386388.2642</v>
       </c>
       <c r="AR5" t="n">
-        <v>74120297.7227</v>
+        <v>173624331.8169</v>
       </c>
       <c r="AS5" t="n">
-        <v>18804604.8093</v>
+        <v>121950925.6734</v>
       </c>
       <c r="AT5" t="n">
-        <v>33607502.4277</v>
+        <v>131850305.6177</v>
       </c>
       <c r="AU5" t="n">
-        <v>92581.7795</v>
+        <v>85134665.0179</v>
       </c>
       <c r="AV5" t="n">
-        <v>3059.4</v>
+        <v>91051884.4207</v>
       </c>
       <c r="AW5" t="n">
-        <v>8657385.0996</v>
+        <v>30332850.7743</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -4726,84 +4759,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>980649600</v>
+        <v>2781590840</v>
       </c>
       <c r="AA6" t="n">
-        <v>1299225567</v>
+        <v>2460751560</v>
       </c>
       <c r="AB6" t="n">
-        <v>1687510321</v>
+        <v>3201470134</v>
       </c>
       <c r="AC6" t="n">
-        <v>276779001</v>
+        <v>1747103476.0938</v>
       </c>
       <c r="AD6" t="n">
-        <v>1052342495</v>
+        <v>1849361530.5703</v>
       </c>
       <c r="AE6" t="n">
-        <v>317292194</v>
+        <v>2758000915.4063</v>
       </c>
       <c r="AF6" t="n">
-        <v>308483431.79</v>
+        <v>2712414410.2207</v>
       </c>
       <c r="AG6" t="n">
-        <v>209516318.5411</v>
+        <v>2264038913.7418</v>
       </c>
       <c r="AH6" t="n">
-        <v>138082537.9982</v>
+        <v>1997100755.8897</v>
       </c>
       <c r="AI6" t="n">
-        <v>96862252.3626</v>
+        <v>1324969517.3539</v>
       </c>
       <c r="AJ6" t="n">
-        <v>163976967.5597</v>
+        <v>1388373315.7994</v>
       </c>
       <c r="AK6" t="n">
-        <v>184806659.5081</v>
+        <v>1979468909.2077</v>
       </c>
       <c r="AL6" t="n">
-        <v>235769398.9436</v>
+        <v>1100466222.0354</v>
       </c>
       <c r="AM6" t="n">
-        <v>211690145.2669</v>
+        <v>641694594.6307</v>
       </c>
       <c r="AN6" t="n">
-        <v>195038154.2248</v>
+        <v>737164223.269</v>
       </c>
       <c r="AO6" t="n">
-        <v>141905384.4047</v>
+        <v>487897792.1368</v>
       </c>
       <c r="AP6" t="n">
-        <v>287180709.8184</v>
+        <v>757439667.3672</v>
       </c>
       <c r="AQ6" t="n">
-        <v>217723841.2498</v>
+        <v>612444526.7761</v>
       </c>
       <c r="AR6" t="n">
-        <v>343471582.0598</v>
+        <v>678694027.1649</v>
       </c>
       <c r="AS6" t="n">
-        <v>231111212.2329</v>
+        <v>930236533.8815</v>
       </c>
       <c r="AT6" t="n">
-        <v>255176607.2125</v>
+        <v>859861096.1514</v>
       </c>
       <c r="AU6" t="n">
-        <v>254553066.377</v>
+        <v>719088549.6488</v>
       </c>
       <c r="AV6" t="n">
-        <v>177972090.7596</v>
+        <v>809750409.1896</v>
       </c>
       <c r="AW6" t="n">
-        <v>46341518.5704</v>
+        <v>237569076.1026</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -4816,84 +4849,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>28080419</v>
+        <v>3780359961</v>
       </c>
       <c r="AA7" t="n">
-        <v>41682083</v>
+        <v>5300158014</v>
       </c>
       <c r="AB7" t="n">
-        <v>12774421</v>
+        <v>7010990112.9609</v>
       </c>
       <c r="AC7" t="n">
-        <v>27099676</v>
+        <v>10943817668.3016</v>
       </c>
       <c r="AD7" t="n">
-        <v>23263145</v>
+        <v>12341868071.5076</v>
       </c>
       <c r="AE7" t="n">
-        <v>114122216.7656</v>
+        <v>24503506283.0343</v>
       </c>
       <c r="AF7" t="n">
-        <v>85051998.333</v>
+        <v>26356281462.5699</v>
       </c>
       <c r="AG7" t="n">
-        <v>216405827.4976</v>
+        <v>25875034762.9251</v>
       </c>
       <c r="AH7" t="n">
-        <v>253846636.0665</v>
+        <v>29467669148.8368</v>
       </c>
       <c r="AI7" t="n">
-        <v>299230424.5468</v>
+        <v>29759353101.6065</v>
       </c>
       <c r="AJ7" t="n">
-        <v>569526219.0317</v>
+        <v>23707688263.0955</v>
       </c>
       <c r="AK7" t="n">
-        <v>252099898.7514</v>
+        <v>24428408146.2979</v>
       </c>
       <c r="AL7" t="n">
-        <v>116797427.5198</v>
+        <v>31093609980.6273</v>
       </c>
       <c r="AM7" t="n">
-        <v>62256743.9662</v>
+        <v>22955523640.2174</v>
       </c>
       <c r="AN7" t="n">
-        <v>144282477.1119</v>
+        <v>20743372988.7754</v>
       </c>
       <c r="AO7" t="n">
-        <v>28738791.4791</v>
+        <v>17979832955.0767</v>
       </c>
       <c r="AP7" t="n">
-        <v>126968740.402</v>
+        <v>16147561281.0614</v>
       </c>
       <c r="AQ7" t="n">
-        <v>86231194.678</v>
+        <v>18314041463.8534</v>
       </c>
       <c r="AR7" t="n">
-        <v>38555150.4389</v>
+        <v>21260543076.6135</v>
       </c>
       <c r="AS7" t="n">
-        <v>101369600.6812</v>
+        <v>19419781149.5169</v>
       </c>
       <c r="AT7" t="n">
-        <v>323461338.0138</v>
+        <v>19717733424.0027</v>
       </c>
       <c r="AU7" t="n">
-        <v>2534817132.6056</v>
+        <v>20042000609.1472</v>
       </c>
       <c r="AV7" t="n">
-        <v>193420511.3397</v>
+        <v>27172824953.2191</v>
       </c>
       <c r="AW7" t="n">
-        <v>56866813.5565</v>
+        <v>11551690566.0096</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -4905,59 +4938,73 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
+      <c r="Z8" t="n">
+        <v>84326203</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>45661598</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51574762</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>14662460</v>
+      </c>
       <c r="AD8" t="n">
-        <v>29458</v>
+        <v>14617574</v>
       </c>
       <c r="AE8" t="n">
-        <v>1481741</v>
+        <v>4922689</v>
       </c>
       <c r="AF8" t="n">
-        <v>19688033.039</v>
+        <v>3707922.5195</v>
       </c>
       <c r="AG8" t="n">
-        <v>545671910.1715</v>
+        <v>7701327.3501</v>
       </c>
       <c r="AH8" t="n">
-        <v>419626804.6265</v>
+        <v>3283831.8687</v>
       </c>
       <c r="AI8" t="n">
-        <v>369797748.2104</v>
+        <v>218199.7002</v>
       </c>
       <c r="AJ8" t="n">
-        <v>484142.0236</v>
+        <v>9445031.8917</v>
       </c>
       <c r="AK8" t="n">
-        <v>140427.3608</v>
+        <v>9929409.5892</v>
       </c>
       <c r="AL8" t="n">
-        <v>-178790.0492</v>
+        <v>11673737.9101</v>
       </c>
       <c r="AM8" t="n">
-        <v>-611827.46</v>
+        <v>14961322.3396</v>
       </c>
       <c r="AN8" t="n">
-        <v>-149735.36</v>
+        <v>15035027.0875</v>
       </c>
       <c r="AO8" t="n">
-        <v>-4.69</v>
-      </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
+        <v>16737521.5686</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>486133.5414</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>7509851.1564</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>21232.3105</v>
+      </c>
       <c r="AS8"/>
-      <c r="AT8"/>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>10893531000</v>
@@ -4990,84 +5037,76 @@
         <v>7673714576</v>
       </c>
       <c r="Z9" t="n">
-        <v>488629874</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>218147945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9" t="n">
-        <v>364972701</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>686725255.7107</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>887382985</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>738390961.7598</v>
+        <v>143491</v>
       </c>
       <c r="AF9" t="n">
-        <v>325321191.25</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2585948.9</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>28017032.3454</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>25825990.4783</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>651915.0636</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-18286.2302</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>44800.7998</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1420336.75</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>6226366.7396</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>11122477.8166</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>709881.3695</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12892810.5501</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
+      <c r="AR9"/>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5174,10 +5213,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5190,84 +5229,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>5221605888.13716</v>
+        <v>2583087382.86583</v>
       </c>
       <c r="AA14" t="n">
-        <v>6014849104.65742</v>
+        <v>3076476576.02302</v>
       </c>
       <c r="AB14" t="n">
-        <v>8202689441.52595</v>
+        <v>3810522350.51188</v>
       </c>
       <c r="AC14" t="n">
-        <v>11780786057.1055</v>
+        <v>2343568832.30792</v>
       </c>
       <c r="AD14" t="n">
-        <v>13151158268.5808</v>
+        <v>3509815830.31446</v>
       </c>
       <c r="AE14" t="n">
-        <v>26817771952.015</v>
+        <v>3294112192.92373</v>
       </c>
       <c r="AF14" t="n">
-        <v>28186723652.1537</v>
+        <v>4312314234.88643</v>
       </c>
       <c r="AG14" t="n">
-        <v>28750466442.0774</v>
+        <v>3651377204.12119</v>
       </c>
       <c r="AH14" t="n">
-        <v>30813918194.4338</v>
+        <v>5115888280.01616</v>
       </c>
       <c r="AI14" t="n">
-        <v>21438863435.4834</v>
+        <v>2125052040.85994</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20683143158.657</v>
+        <v>1996378205.23303</v>
       </c>
       <c r="AK14" t="n">
-        <v>19776561279.8513</v>
+        <v>1774150416.60536</v>
       </c>
       <c r="AL14" t="n">
-        <v>16786641623.9979</v>
+        <v>1403722119.34307</v>
       </c>
       <c r="AM14" t="n">
-        <v>14732064324.7389</v>
+        <v>1102149202.97483</v>
       </c>
       <c r="AN14" t="n">
-        <v>18380254460.9569</v>
+        <v>991616142.603836</v>
       </c>
       <c r="AO14" t="n">
-        <v>17331042052.6082</v>
+        <v>784024176.013946</v>
       </c>
       <c r="AP14" t="n">
-        <v>16504693640.2776</v>
+        <v>896596091.308738</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17086037229.1222</v>
+        <v>904531757.379435</v>
       </c>
       <c r="AR14" t="n">
-        <v>20129078260.4918</v>
+        <v>1079071409.11636</v>
       </c>
       <c r="AS14" t="n">
-        <v>18745626456.5253</v>
+        <v>999033712.47044</v>
       </c>
       <c r="AT14" t="n">
-        <v>21692520243.2092</v>
+        <v>3356669946.68678</v>
       </c>
       <c r="AU14" t="n">
-        <v>47930321357.1871</v>
+        <v>33289290246.9536</v>
       </c>
       <c r="AV14" t="n">
-        <v>46048669215.5635</v>
+        <v>28769042912.4651</v>
       </c>
       <c r="AW14" t="n">
-        <v>9324436568.79678</v>
+        <v>2243818791.50504</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5280,84 +5319,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>6248306570.3</v>
+        <v>497129561.999658</v>
       </c>
       <c r="AA15" t="n">
-        <v>7562065596.71146</v>
+        <v>549690277.507381</v>
       </c>
       <c r="AB15" t="n">
-        <v>9290516448.99322</v>
+        <v>664466146.647462</v>
       </c>
       <c r="AC15" t="n">
-        <v>10267427381.1483</v>
+        <v>1185532389.66231</v>
       </c>
       <c r="AD15" t="n">
-        <v>11087992007.9989</v>
+        <v>1427748190.75301</v>
       </c>
       <c r="AE15" t="n">
-        <v>17131952150.1296</v>
+        <v>2258504344.19825</v>
       </c>
       <c r="AF15" t="n">
-        <v>18941260280.5742</v>
+        <v>2697333916.77554</v>
       </c>
       <c r="AG15" t="n">
-        <v>16416113252.4662</v>
+        <v>3876259135.16374</v>
       </c>
       <c r="AH15" t="n">
-        <v>19863851363.5215</v>
+        <v>4344292306.35564</v>
       </c>
       <c r="AI15" t="n">
-        <v>24482317869.2949</v>
+        <v>2941034971.65492</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16357417823.3263</v>
+        <v>2156452273.96593</v>
       </c>
       <c r="AK15" t="n">
-        <v>17959545251.4207</v>
+        <v>1843564234.90848</v>
       </c>
       <c r="AL15" t="n">
-        <v>27173400808.3605</v>
+        <v>1559277919.87645</v>
       </c>
       <c r="AM15" t="n">
-        <v>17535665940.1454</v>
+        <v>1402525755.83985</v>
       </c>
       <c r="AN15" t="n">
-        <v>10613403627.2888</v>
+        <v>1566819967.82561</v>
       </c>
       <c r="AO15" t="n">
-        <v>7705479630.25479</v>
+        <v>1673123167.92073</v>
       </c>
       <c r="AP15" t="n">
-        <v>6024692643.07542</v>
+        <v>1543130288.91559</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7697954933.64744</v>
+        <v>1544366688.5206</v>
       </c>
       <c r="AR15" t="n">
-        <v>8336416776.90857</v>
+        <v>2056245661.42448</v>
       </c>
       <c r="AS15" t="n">
-        <v>6859548873.87943</v>
+        <v>1823055871.17596</v>
       </c>
       <c r="AT15" t="n">
-        <v>5824956668.87249</v>
+        <v>1682925101.43482</v>
       </c>
       <c r="AU15" t="n">
-        <v>6289168352.70277</v>
+        <v>1266834508.63427</v>
       </c>
       <c r="AV15" t="n">
-        <v>12090182374.6508</v>
+        <v>1407852561.5702</v>
       </c>
       <c r="AW15" t="n">
-        <v>5069458563.38283</v>
+        <v>789700534.977785</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5370,84 +5409,84 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>21503508.8728704</v>
+        <v>852089.172076817</v>
       </c>
       <c r="AA16" t="n">
-        <v>33392766.4672176</v>
+        <v>1793946.44030989</v>
       </c>
       <c r="AB16" t="n">
-        <v>55357739.3707342</v>
+        <v>88316581.8764659</v>
       </c>
       <c r="AC16" t="n">
-        <v>40016337.7013611</v>
+        <v>600937.381685382</v>
       </c>
       <c r="AD16" t="n">
-        <v>31685145.9476787</v>
+        <v>2653567.92369826</v>
       </c>
       <c r="AE16" t="n">
-        <v>144481575.099121</v>
+        <v>3699594.72555729</v>
       </c>
       <c r="AF16" t="n">
-        <v>110106940.882842</v>
+        <v>6178718.32634878</v>
       </c>
       <c r="AG16" t="n">
-        <v>19904857.1463634</v>
+        <v>725931.881183436</v>
       </c>
       <c r="AH16" t="n">
-        <v>248565321.194796</v>
+        <v>69031.635398229</v>
       </c>
       <c r="AI16" t="n">
-        <v>17512517.4922847</v>
+        <v>73791.4039131541</v>
       </c>
       <c r="AJ16" t="n">
-        <v>35472734.5791196</v>
+        <v>94841247.4219721</v>
       </c>
       <c r="AK16" t="n">
-        <v>19617560.026333</v>
+        <v>303282019.293858</v>
       </c>
       <c r="AL16" t="n">
-        <v>5292589.40346198</v>
+        <v>464924008.617712</v>
       </c>
       <c r="AM16" t="n">
-        <v>33312797.1076302</v>
+        <v>733343405.149721</v>
       </c>
       <c r="AN16" t="n">
-        <v>6588831.75794458</v>
+        <v>522303844.886632</v>
       </c>
       <c r="AO16" t="n">
-        <v>11552458.7155425</v>
+        <v>410911577.64929</v>
       </c>
       <c r="AP16" t="n">
-        <v>13719840.8015922</v>
+        <v>336808654.753143</v>
       </c>
       <c r="AQ16" t="n">
-        <v>478198.288623103</v>
+        <v>453264856.660303</v>
       </c>
       <c r="AR16" t="n">
-        <v>-780437.768650167</v>
+        <v>599322097.712456</v>
       </c>
       <c r="AS16" t="n">
-        <v>-1037143.81273761</v>
+        <v>247384473.371497</v>
       </c>
       <c r="AT16" t="n">
-        <v>-316578.27944195</v>
+        <v>265521060.057299</v>
       </c>
       <c r="AU16" t="n">
-        <v>5517592.56322283</v>
+        <v>361011959.017573</v>
       </c>
       <c r="AV16" t="n">
-        <v>600000</v>
+        <v>260324530.8489</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>193564980.200781</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5460,84 +5499,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>43935724.8367777</v>
+        <v>135022558.095876</v>
       </c>
       <c r="AA17" t="n">
-        <v>59966036.1599911</v>
+        <v>186999700.758896</v>
       </c>
       <c r="AB17" t="n">
-        <v>41338046.7358143</v>
+        <v>294175104.464867</v>
       </c>
       <c r="AC17" t="n">
-        <v>87536853.5729968</v>
+        <v>794329344.821349</v>
       </c>
       <c r="AD17" t="n">
-        <v>54765209.1972334</v>
+        <v>1174427842.1481</v>
       </c>
       <c r="AE17" t="n">
-        <v>106480307.186277</v>
+        <v>971787028.41902</v>
       </c>
       <c r="AF17" t="n">
-        <v>132747952.292286</v>
+        <v>740457944.799751</v>
       </c>
       <c r="AG17" t="n">
-        <v>152604333.97158</v>
+        <v>833798929.784562</v>
       </c>
       <c r="AH17" t="n">
-        <v>75601021.7543228</v>
+        <v>713438413.98578</v>
       </c>
       <c r="AI17" t="n">
-        <v>19458292.8640196</v>
+        <v>917398631.507486</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60491864.1381131</v>
+        <v>1006209699.34838</v>
       </c>
       <c r="AK17" t="n">
-        <v>164310392.70846</v>
+        <v>681732899.367653</v>
       </c>
       <c r="AL17" t="n">
-        <v>116964420.694749</v>
+        <v>541493174.013212</v>
       </c>
       <c r="AM17" t="n">
-        <v>86453067.6172657</v>
+        <v>288809760.203223</v>
       </c>
       <c r="AN17" t="n">
-        <v>22444244.8018541</v>
+        <v>282591524.213045</v>
       </c>
       <c r="AO17" t="n">
-        <v>5199973.31457058</v>
+        <v>232084264.563714</v>
       </c>
       <c r="AP17" t="n">
-        <v>48862380.0713627</v>
+        <v>198347187.888883</v>
       </c>
       <c r="AQ17" t="n">
-        <v>62277406.490921</v>
+        <v>186278681.059131</v>
       </c>
       <c r="AR17" t="n">
-        <v>84638820.1963844</v>
+        <v>198263620.814726</v>
       </c>
       <c r="AS17" t="n">
-        <v>21060689.11463</v>
+        <v>136581999.935389</v>
       </c>
       <c r="AT17" t="n">
-        <v>37144047.5954878</v>
+        <v>145725021.901862</v>
       </c>
       <c r="AU17" t="n">
-        <v>98996.5483353664</v>
+        <v>91033441.2016758</v>
       </c>
       <c r="AV17" t="n">
-        <v>3059.4</v>
+        <v>91051884.4207</v>
       </c>
       <c r="AW17" t="n">
-        <v>8257399.87814596</v>
+        <v>28931423.9121807</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5550,84 +5589,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>1584465027.01412</v>
+        <v>4494299906.35067</v>
       </c>
       <c r="AA18" t="n">
-        <v>2049498631.38714</v>
+        <v>3881779332.62899</v>
       </c>
       <c r="AB18" t="n">
-        <v>2620645883.86629</v>
+        <v>4971773757.22134</v>
       </c>
       <c r="AC18" t="n">
-        <v>421766452.233355</v>
+        <v>2662303253.26105</v>
       </c>
       <c r="AD18" t="n">
-        <v>1565337708.01004</v>
+        <v>2750887047.98988</v>
       </c>
       <c r="AE18" t="n">
-        <v>458060369.086523</v>
+        <v>3981601001.03811</v>
       </c>
       <c r="AF18" t="n">
-        <v>431301416.069357</v>
+        <v>3792320933.75927</v>
       </c>
       <c r="AG18" t="n">
-        <v>285113356.297872</v>
+        <v>3080942515.50762</v>
       </c>
       <c r="AH18" t="n">
-        <v>184066200.941349</v>
+        <v>2662166805.17927</v>
       </c>
       <c r="AI18" t="n">
-        <v>127820008.881133</v>
+        <v>1748437717.94014</v>
       </c>
       <c r="AJ18" t="n">
-        <v>214519213.761501</v>
+        <v>1816308452.0044</v>
       </c>
       <c r="AK18" t="n">
-        <v>236992898.382963</v>
+        <v>2538437063.36531</v>
       </c>
       <c r="AL18" t="n">
-        <v>296904404.033026</v>
+        <v>1385817113.14477</v>
       </c>
       <c r="AM18" t="n">
-        <v>261790631.263964</v>
+        <v>793563785.386619</v>
       </c>
       <c r="AN18" t="n">
-        <v>236619988.117692</v>
+        <v>894326499.571225</v>
       </c>
       <c r="AO18" t="n">
-        <v>170208068.079142</v>
+        <v>585207819.760031</v>
       </c>
       <c r="AP18" t="n">
-        <v>341627307.833675</v>
+        <v>901042673.000983</v>
       </c>
       <c r="AQ18" t="n">
-        <v>254459056.540714</v>
+        <v>715778554.945524</v>
       </c>
       <c r="AR18" t="n">
-        <v>392214148.751643</v>
+        <v>775008513.167066</v>
       </c>
       <c r="AS18" t="n">
-        <v>258838802.575376</v>
+        <v>1041841753.221</v>
       </c>
       <c r="AT18" t="n">
-        <v>282029051.815049</v>
+        <v>950344987.690348</v>
       </c>
       <c r="AU18" t="n">
-        <v>272190436.126867</v>
+        <v>768912465.791565</v>
       </c>
       <c r="AV18" t="n">
-        <v>177972090.7596</v>
+        <v>809750409.1896</v>
       </c>
       <c r="AW18" t="n">
-        <v>44200465.3130193</v>
+        <v>226592999.790606</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5640,84 +5679,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>45370376.7884092</v>
+        <v>6108041187.93191</v>
       </c>
       <c r="AA19" t="n">
-        <v>65752533.0717767</v>
+        <v>8360878104.41664</v>
       </c>
       <c r="AB19" t="n">
-        <v>19838239.444122</v>
+        <v>10887828152.9386</v>
       </c>
       <c r="AC19" t="n">
-        <v>41295525.1731449</v>
+        <v>16676608901.5845</v>
       </c>
       <c r="AD19" t="n">
-        <v>34603447.3077182</v>
+        <v>18358273633.7337</v>
       </c>
       <c r="AE19" t="n">
-        <v>164753075.307686</v>
+        <v>35374602162.197</v>
       </c>
       <c r="AF19" t="n">
-        <v>118914157.261851</v>
+        <v>36849633872.2897</v>
       </c>
       <c r="AG19" t="n">
-        <v>294488716.821146</v>
+        <v>35211185729.8338</v>
       </c>
       <c r="AH19" t="n">
-        <v>338381569.457471</v>
+        <v>39280867729.225</v>
       </c>
       <c r="AI19" t="n">
-        <v>394866262.038784</v>
+        <v>39270620752.2884</v>
       </c>
       <c r="AJ19" t="n">
-        <v>745069984.775513</v>
+        <v>31015054870.1323</v>
       </c>
       <c r="AK19" t="n">
-        <v>323288597.100188</v>
+        <v>31326572672.6659</v>
       </c>
       <c r="AL19" t="n">
-        <v>147083000.447621</v>
+        <v>39156183041.133</v>
       </c>
       <c r="AM19" t="n">
-        <v>76990982.6591199</v>
+        <v>28388383489.418</v>
       </c>
       <c r="AN19" t="n">
-        <v>175043278.867678</v>
+        <v>25165828140.8242</v>
       </c>
       <c r="AO19" t="n">
-        <v>34470673.5202989</v>
+        <v>21565866894.3921</v>
       </c>
       <c r="AP19" t="n">
-        <v>151040747.09613</v>
+        <v>19208977831.4729</v>
       </c>
       <c r="AQ19" t="n">
-        <v>100780458.01593</v>
+        <v>21404057936.8289</v>
       </c>
       <c r="AR19" t="n">
-        <v>44026569.5889562</v>
+        <v>24277658590.5142</v>
       </c>
       <c r="AS19" t="n">
-        <v>113531428.459751</v>
+        <v>21749671296.5675</v>
       </c>
       <c r="AT19" t="n">
-        <v>357499441.094498</v>
+        <v>21792646756.5361</v>
       </c>
       <c r="AU19" t="n">
-        <v>2710448515.29674</v>
+        <v>21430662628.8263</v>
       </c>
       <c r="AV19" t="n">
-        <v>193420511.3397</v>
+        <v>27172824953.2191</v>
       </c>
       <c r="AW19" t="n">
-        <v>54239474.6138402</v>
+        <v>11017983741.5982</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -5729,59 +5768,73 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
+      <c r="Z20" t="n">
+        <v>136248380.170035</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>72030127.0117708</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>80093843.6137029</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>22343218.6432867</v>
+      </c>
       <c r="AD20" t="n">
-        <v>43818.1660644235</v>
+        <v>21743339.1605336</v>
       </c>
       <c r="AE20" t="n">
-        <v>2139122.36791629</v>
+        <v>7106663.1416661</v>
       </c>
       <c r="AF20" t="n">
-        <v>27526523.8073517</v>
+        <v>5184175.44843862</v>
       </c>
       <c r="AG20" t="n">
-        <v>742559581.181015</v>
+        <v>10480096.7486687</v>
       </c>
       <c r="AH20" t="n">
-        <v>559369148.775092</v>
+        <v>4377399.67243084</v>
       </c>
       <c r="AI20" t="n">
-        <v>487987325.377611</v>
+        <v>287937.632433101</v>
       </c>
       <c r="AJ20" t="n">
-        <v>633368.013795973</v>
+        <v>12356252.5000477</v>
       </c>
       <c r="AK20" t="n">
-        <v>180081.644984246</v>
+        <v>12733304.9795911</v>
       </c>
       <c r="AL20" t="n">
-        <v>-225150.308914601</v>
+        <v>14700738.147384</v>
       </c>
       <c r="AM20" t="n">
-        <v>-756628.027138834</v>
+        <v>18502202.9007977</v>
       </c>
       <c r="AN20" t="n">
-        <v>-181658.707983677</v>
+        <v>18240471.6909542</v>
       </c>
       <c r="AO20" t="n">
-        <v>-5.62540908958447</v>
-      </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
+        <v>20075779.5243323</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>578299.611771109</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>8776942.52062297</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>24245.4194866642</v>
+      </c>
       <c r="AS20"/>
-      <c r="AT20"/>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
       <c r="AU20"/>
       <c r="AV20"/>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>21651236733.6665</v>
@@ -5814,74 +5867,66 @@
         <v>12656854970.7716</v>
       </c>
       <c r="Z21" t="n">
-        <v>789493970.636724</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>344123396.332007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21" t="n">
-        <v>566790137.338196</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1046458270.7275</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1319963846.81492</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1065981586.90865</v>
+        <v>207151.45743735</v>
       </c>
       <c r="AF21" t="n">
-        <v>454842873.243877</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>3519003.07922392</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>37347145.9913048</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>34080131.8551102</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>852853.354736148</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>-23449.9487579673</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>56417.6471773755</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1756486.36794642</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>7553818.53256489</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>13340828.956973</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>844467.796242034</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15068135.8086669</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AR21"/>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -232,14 +233,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,8 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2675,88 +2688,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>3231731618.09</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>3812954846</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>5281950979.2415</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>7730994673.9821</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>8841237666.2745</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>18576306258.0933</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>20160233468.2214</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>21127357776.2181</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>23115944199.4031</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>16246412581.5096</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>15810048131.7744</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>15421728885.6504</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>13330137081.8715</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>11912698410.6653</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>15150245474.8841</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>14449186882.6444</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>13874270370.8504</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>14619395779.5578</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>17627529189.1996</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>16737538619.8948</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>19627140118.8153</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>44824536995.1949</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>9776108630.3346</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -2768,88 +2782,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>3867172348</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>4793771907</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>5982434518</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>6737871820.6396</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>7454215863.1515</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>11867070482.5609</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>13547520958.845</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>12063425081.4161</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>14901437616.8281</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>18552748295.3185</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>12503494324.5602</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>14004822873.7905</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>21578178999.083</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>14179757511.9419</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>8748283143.6861</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>6424190470.4862</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>5064511735.4566</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>6586632602.9288</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>7300405322.4193</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>6124733385.5651</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>5270353073.0496</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>5881643425.5445</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>5315021154.0348</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -2861,88 +2876,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>13308850</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>21168463</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>35646463</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>26260225.0938</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>21301234.4687</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>100080424</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>78752737</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>14627137.9375</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>186468402.3106</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>13271019.9576</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>27115107.0589</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>15297739.9783</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>4202802.6717</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>26937521.885</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>5430959.5516</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>9631482.8865</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>11533251.3814</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>409162.7537</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>-683448.5598</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>-926041.8509</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>-286436.3467</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>5160064.13</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>600000</v>
       </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -2954,88 +2970,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>27192491</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>38013886</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>26618774</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>57444974</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>36817459</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>73757462.04</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>94946462.8691</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>112141706.2403</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>56714274.0259</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>14745532.3344</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>46239552.4833</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>128128965.0707</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>92880505.6119</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>69908011.43</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>18500060.43</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>4335306.9007</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>41074974.6011</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>53286671.5322</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>74120297.7227</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>18804604.8093</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>33607502.4277</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>92581.7795</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>8657385.0996</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3047,88 +3064,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>980649600</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>1299225567</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>1687510321</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>276779001</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>1052342495</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>317292194</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>308483431.79</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>209516318.5411</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>138082537.9982</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>96862252.3626</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>163976967.5597</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>184806659.5081</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>235769398.9436</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>211690145.2669</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>195038154.2248</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>141905384.4047</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>287180709.8184</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>217723841.2498</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>343471582.0598</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>231111212.2329</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>255176607.2125</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>254553066.377</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>46341518.5704</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3140,88 +3158,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>28080419</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>41682083</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>12774421</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>27099676</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>23263145</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>114122216.7656</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>85051998.333</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>216405827.4976</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>253846636.0665</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>299230424.5468</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>569526219.0317</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>252099898.7514</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>116797427.5198</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>62256743.9662</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>144282477.1119</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>28738791.4791</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>126968740.402</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>86231194.678</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>38555150.4389</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>101369600.6812</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>323461338.0138</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>2534817132.6056</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>56866813.5565</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3233,64 +3252,65 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="n">
         <v>29458</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>1481741</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>19688033.039</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>545671910.1715</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>419626804.6265</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>369797748.2104</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>484142.0236</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>140427.3608</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-178790.0492</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-611827.46</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-149735.36</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>-4.69</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3300,108 +3320,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>488629874</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>218147945</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>364972701</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>686725255.7107</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>887382985</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>738390961.7598</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>325321191.25</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>2585948.9</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>28017032.3454</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>25825990.4783</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>651915.0636</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>-18286.2302</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>44800.7998</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>1420336.75</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>6226366.7396</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>11122477.8166</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>709881.3695</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>12892810.5501</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3526,88 +3547,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>5221605888.13716</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>6014849104.65742</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>8202689441.52595</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>11780786057.1055</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>13151158268.5808</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>26817771952.015</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>28186723652.1537</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>28750466442.0774</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>30813918194.4338</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>21438863435.4834</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>20683143158.657</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>19776561279.8513</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>16786641623.9979</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>14732064324.7389</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>18380254460.9569</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>17331042052.6082</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>16504693640.2776</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>17086037229.1222</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>20129078260.4918</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>18745626456.5253</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>21692520243.2092</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>47930321357.1871</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>9324436568.79678</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3619,88 +3641,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>6248306570.3</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>7562065596.71146</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>9290516448.99322</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>10267427381.1483</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>11087992007.9989</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>17131952150.1296</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>18941260280.5742</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>16416113252.4662</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>19863851363.5215</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>24482317869.2949</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>16357417823.3263</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>17959545251.4207</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>27173400808.3605</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>17535665940.1454</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>10613403627.2888</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>7705479630.25479</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>6024692643.07542</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>7697954933.64744</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>8336416776.90857</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>6859548873.87943</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>5824956668.87249</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>6289168352.70277</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>5069458563.38283</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -3712,88 +3735,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>21503508.8728704</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>33392766.4672176</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>55357739.3707342</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>40016337.7013611</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>31685145.9476787</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>144481575.099121</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>110106940.882842</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>19904857.1463634</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>248565321.194796</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>17512517.4922847</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>35472734.5791196</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>19617560.026333</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>5292589.40346198</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>33312797.1076302</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>6588831.75794458</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>11552458.7155425</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>13719840.8015922</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>478198.288623103</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>-780437.768650167</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>-1037143.81273761</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>-316578.27944195</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>5517592.56322283</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>600000</v>
       </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -3805,88 +3829,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>43935724.8367777</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>59966036.1599911</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>41338046.7358143</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>87536853.5729968</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>54765209.1972334</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>106480307.186277</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>132747952.292286</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>152604333.97158</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>75601021.7543228</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>19458292.8640196</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>60491864.1381131</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>164310392.70846</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>116964420.694749</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>86453067.6172657</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>22444244.8018541</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>5199973.31457058</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>48862380.0713627</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>62277406.490921</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>84638820.1963844</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>21060689.11463</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>37144047.5954878</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>98996.5483353664</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>8257399.87814596</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -3898,88 +3923,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>1584465027.01412</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>2049498631.38714</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>2620645883.86629</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>421766452.233355</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>1565337708.01004</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>458060369.086523</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>431301416.069357</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>285113356.297872</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>184066200.941349</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>127820008.881133</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>214519213.761501</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>236992898.382963</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>296904404.033026</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>261790631.263964</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>236619988.117692</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>170208068.079142</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>341627307.833675</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>254459056.540714</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>392214148.751643</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>258838802.575376</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>282029051.815049</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>272190436.126867</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>44200465.3130193</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -3991,88 +4017,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>45370376.7884092</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>65752533.0717767</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>19838239.444122</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>41295525.1731449</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>34603447.3077182</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>164753075.307686</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>118914157.261851</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>294488716.821146</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>338381569.457471</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>394866262.038784</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>745069984.775513</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>323288597.100188</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>147083000.447621</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>76990982.6591199</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>175043278.867678</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>34470673.5202989</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>151040747.09613</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>100780458.01593</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>44026569.5889562</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>113531428.459751</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>357499441.094498</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>2710448515.29674</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>54239474.6138402</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4084,64 +4111,65 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="n">
         <v>43818.1660644235</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>2139122.36791629</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>27526523.8073517</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>742559581.181015</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>559369148.775092</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>487987325.377611</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>633368.013795973</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>180081.644984246</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-225150.308914601</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-756628.027138834</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-181658.707983677</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>-5.62540908958447</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4151,108 +4179,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>789493970.636724</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>344123396.332007</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>566790137.338196</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>1046458270.7275</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>1319963846.81492</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>1065981586.90865</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>454842873.243877</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>3519003.07922392</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>37347145.9913048</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>34080131.8551102</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>852853.354736148</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>-23449.9487579673</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>56417.6471773755</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>1756486.36794642</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>7553818.53256489</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>13340828.956973</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>844467.796242034</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>15068135.8086669</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4388,88 +4417,89 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>1598712225</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>1950251131</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>2453706483</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>1537937967.2</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>2359572844.2261</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>2281786758.9359</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>3084333703.9281</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>2683224382.5614</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>3837830270.887</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>1610368586.7903</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>1526017359.7333</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>1383479480.5873</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>1114684443.4296</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>891224119.6603</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>817356909.2429</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>653654396.8533</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>753701756.3239</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>773948199.8652</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>944969387.8315</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>892014219.0943</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>3037075943.1174</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>31132214013.3034</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>28769042912.4651</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>2352508496.4324</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4478,88 +4508,89 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>307681077.09</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>348461644</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>427869132.3104</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>777990920.63</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>959844055.1201</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1564435272.9276</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>1929237401.8004</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>2848479475.8697</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>3258995428.8174</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>2228722045.3614</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1648376844.0681</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>1437608258.166</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>1238210053.3423</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>1134115760.9836</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>1291478699.4887</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>1394911469.1191</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>1297195047.2086</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>1321412773.8037</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>1800704927.8589</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>1627764647.9727</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>1522691066.091</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1184746287.7599</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>1407852561.5702</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>827953320.1192</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4568,88 +4599,89 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>527371</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>1137225</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>56869623</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>394357.7003</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>1783936</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>2562659</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>4419258</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>533453</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>51786.0605</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>55919.27</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>72495977.7688</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>236498803.3692</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>369192415.3946</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>592998959.5775</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>430518058.3499</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>342584026.9543</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>283130025.9875</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>387828859.5314</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>524841109.6843</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>220883905.1936</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>240240368.192</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>337619140.7543</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>260324530.8489</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>202941192.1578</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4658,88 +4690,89 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>83567523</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>118543525</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>189427929.9702</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>521268776.5005</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>789542294.4706</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>673143670.9155</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>529604122.3089</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>612719391.4741</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>535206281.2442</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>695206474.6359</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>769139567.1986</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>531614156.6627</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>429995373.7128</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>233538457.0362</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>232930995.0547</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>193492630.2194</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>166735752.3894</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>159386388.2642</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>173624331.8169</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>121950925.6734</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>131850305.6177</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>85134665.0179</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>91051884.4207</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>30332850.7743</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -4748,88 +4781,89 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>2781590840</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2460751560</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>3201470134</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>1747103476.0938</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>1849361530.5703</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>2758000915.4063</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>2712414410.2207</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>2264038913.7418</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>1997100755.8897</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>1324969517.3539</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>1388373315.7994</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>1979468909.2077</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>1100466222.0354</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>641694594.6307</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>737164223.269</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>487897792.1368</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>757439667.3672</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>612444526.7761</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>678694027.1649</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>930236533.8815</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>859861096.1514</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>719088549.6488</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>809750409.1896</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>237569076.1026</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -4838,88 +4872,89 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>3780359961</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>5300158014</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>7010990112.9609</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>10943817668.3016</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>12341868071.5076</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>24503506283.0343</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>26356281462.5699</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>25875034762.9251</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>29467669148.8368</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>29759353101.6065</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>23707688263.0955</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>24428408146.2979</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>31093609980.6273</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>22955523640.2174</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>20743372988.7754</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>17979832955.0767</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>16147561281.0614</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>18314041463.8534</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>21260543076.6135</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>19419781149.5169</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>19717733424.0027</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>20042000609.1472</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>27172824953.2191</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>11551690566.0096</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -4928,178 +4963,180 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>84326203</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>45661598</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>51574762</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>14662460</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>14617574</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>4922689</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>3707922.5195</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>7701327.3501</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>3283831.8687</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>218199.7002</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>9445031.8917</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>9929409.5892</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>11673737.9101</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>14961322.3396</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>15035027.0875</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>16737521.5686</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>486133.5414</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>7509851.1564</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="2" t="n">
         <v>21232.3105</v>
       </c>
-      <c r="AS8"/>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9"/>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
         <v>143491</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5218,88 +5255,89 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>2583087382.86583</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>3076476576.02302</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>3810522350.51188</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>2343568832.30792</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>3509815830.31446</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>3294112192.92373</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>4312314234.88643</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>3651377204.12119</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>5115888280.01616</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>2125052040.85994</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>1996378205.23303</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>1774150416.60536</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>1403722119.34307</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>1102149202.97483</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>991616142.603836</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>784024176.013946</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>896596091.308738</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>904531757.379435</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>1079071409.11636</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>999033712.47044</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>3356669946.68678</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>33289290246.9536</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>28769042912.4651</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>2243818791.50504</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5308,88 +5346,89 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>497129561.999658</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>549690277.507381</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>664466146.647462</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1185532389.66231</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1427748190.75301</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>2258504344.19825</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>2697333916.77554</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>3876259135.16374</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>4344292306.35564</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>2941034971.65492</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>2156452273.96593</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>1843564234.90848</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>1559277919.87645</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1402525755.83985</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1566819967.82561</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1673123167.92073</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>1543130288.91559</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>1544366688.5206</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>2056245661.42448</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>1823055871.17596</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>1682925101.43482</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>1266834508.63427</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>1407852561.5702</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>789700534.977785</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5398,88 +5437,89 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>852089.172076817</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>1793946.44030989</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>88316581.8764659</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>600937.381685382</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>2653567.92369826</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="2" t="n">
         <v>3699594.72555729</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="2" t="n">
         <v>6178718.32634878</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="2" t="n">
         <v>725931.881183436</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="2" t="n">
         <v>69031.635398229</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="2" t="n">
         <v>73791.4039131541</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>94841247.4219721</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>303282019.293858</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>464924008.617712</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>733343405.149721</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>522303844.886632</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>410911577.64929</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>336808654.753143</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>453264856.660303</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>599322097.712456</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>247384473.371497</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>265521060.057299</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>361011959.017573</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>260324530.8489</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>193564980.200781</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5488,88 +5528,89 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>135022558.095876</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>186999700.758896</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>294175104.464867</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>794329344.821349</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>1174427842.1481</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>971787028.41902</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>740457944.799751</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>833798929.784562</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>713438413.98578</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>917398631.507486</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>1006209699.34838</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>681732899.367653</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>541493174.013212</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>288809760.203223</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>282591524.213045</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>232084264.563714</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>198347187.888883</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>186278681.059131</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>198263620.814726</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>136581999.935389</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>145725021.901862</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>91033441.2016758</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>91051884.4207</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>28931423.9121807</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5578,88 +5619,89 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>4494299906.35067</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>3881779332.62899</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>4971773757.22134</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>2662303253.26105</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>2750887047.98988</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>3981601001.03811</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>3792320933.75927</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>3080942515.50762</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>2662166805.17927</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>1748437717.94014</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>1816308452.0044</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>2538437063.36531</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>1385817113.14477</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>793563785.386619</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>894326499.571225</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>585207819.760031</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>901042673.000983</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>715778554.945524</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>775008513.167066</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>1041841753.221</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>950344987.690348</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>768912465.791565</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>809750409.1896</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>226592999.790606</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5668,88 +5710,89 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>6108041187.93191</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>8360878104.41664</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>10887828152.9386</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>16676608901.5845</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>18358273633.7337</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>35374602162.197</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>36849633872.2897</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>35211185729.8338</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>39280867729.225</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>39270620752.2884</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>31015054870.1323</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>31326572672.6659</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>39156183041.133</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>28388383489.418</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>25165828140.8242</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>21565866894.3921</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>19208977831.4729</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>21404057936.8289</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>24277658590.5142</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>21749671296.5675</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>21792646756.5361</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>21430662628.8263</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>27172824953.2191</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>11017983741.5982</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -5758,178 +5801,1873 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>136248380.170035</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>72030127.0117708</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>80093843.6137029</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>22343218.6432867</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>21743339.1605336</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>7106663.1416661</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>5184175.44843862</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>10480096.7486687</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>4377399.67243084</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>287937.632433101</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>12356252.5000477</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>12733304.9795911</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>14700738.147384</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>18502202.9007977</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>18240471.6909542</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>20075779.5243323</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>578299.611771109</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>8776942.52062297</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="2" t="n">
         <v>24245.4194866642</v>
       </c>
-      <c r="AS20"/>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
         <v>207151.45743735</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>1598712225</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1950251131</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>2453706483</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1537937967.2</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>2359572844.2261</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>2281786758.9359</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>3084333703.9281</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>2683224382.5614</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>3837830270.887</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1610368586.7903</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1526017359.7333</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1383479480.5873</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1114684443.4296</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>891224119.6603</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>817356909.2429</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>653654396.8533</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>753701756.3239</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>773948199.8652</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>944969387.8315</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>892014219.0943</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>3037075943.1174</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>31132214013.3034</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>28769042912.4651</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>2352508496.4324</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>307681077.09</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>348461644</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>427869132.3104</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>777990920.63</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>959844055.1201</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>1564435272.9276</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>1929237401.8004</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>2848479475.8697</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>3258995428.8174</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>2228722045.3614</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>1648376844.0681</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>1437608258.166</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>1238210053.3423</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>1134115760.9836</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>1291478699.4887</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>1394911469.1191</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>1297195047.2086</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>1321412773.8037</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>1800704927.8589</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1627764647.9727</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1522691066.091</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1184746287.7599</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1407852561.5702</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>827953320.1192</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>527371</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1137225</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>56869623</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>394357.7003</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1783936</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>2562659</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>4419258</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>533453</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>51786.0605</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>55919.27</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>72495977.7688</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>236498803.3692</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>369192415.3946</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>592998959.5775</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>430518058.3499</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>342584026.9543</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>283130025.9875</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>387828859.5314</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>524841109.6843</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>220883905.1936</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>240240368.192</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>337619140.7543</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>260324530.8489</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>202941192.1578</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>83567523</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>118543525</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>189427929.9702</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>521268776.5005</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>789542294.4706</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>673143670.9155</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>529604122.3089</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>612719391.4741</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>535206281.2442</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>695206474.6359</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>769139567.1986</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>531614156.6627</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>429995373.7128</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>233538457.0362</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>232930995.0547</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>193492630.2194</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>166735752.3894</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>159386388.2642</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>173624331.8169</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>121950925.6734</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>131850305.6177</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>85134665.0179</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>91051884.4207</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>30332850.7743</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>2781590840</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>2460751560</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>3201470134</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1747103476.0938</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1849361530.5703</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>2758000915.4063</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>2712414410.2207</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>2264038913.7418</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1997100755.8897</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1324969517.3539</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1388373315.7994</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1979468909.2077</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1100466222.0354</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>641694594.6307</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>737164223.269</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>487897792.1368</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>757439667.3672</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>612444526.7761</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>678694027.1649</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>930236533.8815</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>859861096.1514</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>719088549.6488</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>809750409.1896</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>237569076.1026</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>3780359961</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>5300158014</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>7010990112.9609</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>10943817668.3016</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>12341868071.5076</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>24503506283.0343</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>26356281462.5699</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>25875034762.9251</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>29467669148.8368</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>29759353101.6065</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>23707688263.0955</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>24428408146.2979</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>31093609980.6273</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>22955523640.2174</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>20743372988.7754</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>17979832955.0767</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>16147561281.0614</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>18314041463.8534</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>21260543076.6135</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>19419781149.5169</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>19717733424.0027</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>20042000609.1472</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>27172824953.2191</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>11551690566.0096</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>84326203</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>45661598</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>51574762</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>14662460</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>14617574</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>4922689</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>3707922.5195</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>7701327.3501</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>3283831.8687</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>218199.7002</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>9445031.8917</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>9929409.5892</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>11673737.9101</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>14961322.3396</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>15035027.0875</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>16737521.5686</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>486133.5414</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>7509851.1564</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>21232.3105</v>
+      </c>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>10893531000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>13666534115</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>9670953302</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>10550468583</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>8625703645</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>8564693193</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>9626845429</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>9689825022</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>8560246161</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>7673714576</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>143491</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>2583087382.86583</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>3076476576.02302</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>3810522350.51188</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>2343568832.30792</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>3509815830.31446</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>3294112192.92373</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>4312314234.88643</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>3651377204.12119</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>5115888280.01616</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>2125052040.85994</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>1996378205.23303</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>1774150416.60536</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>1403722119.34307</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>1102149202.97483</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>991616142.603836</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>784024176.013946</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>896596091.308738</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>904531757.379435</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>1079071409.11636</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>999033712.47044</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>3356669946.68678</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>33289290246.9536</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>28769042912.4651</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>2243818791.50504</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>497129561.999658</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>549690277.507381</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>664466146.647462</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>1185532389.66231</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>1427748190.75301</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>2258504344.19825</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>2697333916.77554</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>3876259135.16374</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>4344292306.35564</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>2941034971.65492</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>2156452273.96593</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>1843564234.90848</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>1559277919.87645</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>1402525755.83985</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>1566819967.82561</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>1673123167.92073</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>1543130288.91559</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>1544366688.5206</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>2056245661.42448</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>1823055871.17596</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>1682925101.43482</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>1266834508.63427</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>1407852561.5702</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>789700534.977785</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>852089.172076817</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>1793946.44030989</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>88316581.8764659</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>600937.381685382</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>2653567.92369826</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>3699594.72555729</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>6178718.32634878</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>725931.881183436</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>69031.635398229</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>73791.4039131541</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>94841247.4219721</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>303282019.293858</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>464924008.617712</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>733343405.149721</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>522303844.886632</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>410911577.64929</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>336808654.753143</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>453264856.660303</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>599322097.712456</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>247384473.371497</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>265521060.057299</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>361011959.017573</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>260324530.8489</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>193564980.200781</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>135022558.095876</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>186999700.758896</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>294175104.464867</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>794329344.821349</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>1174427842.1481</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>971787028.41902</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>740457944.799751</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>833798929.784562</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>713438413.98578</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>917398631.507486</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>1006209699.34838</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>681732899.367653</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>541493174.013212</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>288809760.203223</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>282591524.213045</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>232084264.563714</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>198347187.888883</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>186278681.059131</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>198263620.814726</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>136581999.935389</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>145725021.901862</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>91033441.2016758</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>91051884.4207</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>28931423.9121807</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>4494299906.35067</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>3881779332.62899</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>4971773757.22134</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>2662303253.26105</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>2750887047.98988</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>3981601001.03811</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>3792320933.75927</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>3080942515.50762</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>2662166805.17927</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>1748437717.94014</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>1816308452.0044</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>2538437063.36531</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>1385817113.14477</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>793563785.386619</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>894326499.571225</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>585207819.760031</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>901042673.000983</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>715778554.945524</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>775008513.167066</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>1041841753.221</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>950344987.690348</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>768912465.791565</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>809750409.1896</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>226592999.790606</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>6108041187.93191</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>8360878104.41664</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>10887828152.9386</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>16676608901.5845</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>18358273633.7337</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>35374602162.197</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>36849633872.2897</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>35211185729.8338</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>39280867729.225</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>39270620752.2884</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>31015054870.1323</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>31326572672.6659</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>39156183041.133</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>28388383489.418</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>25165828140.8242</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>21565866894.3921</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>19208977831.4729</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>21404057936.8289</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>24277658590.5142</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>21749671296.5675</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>21792646756.5361</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>21430662628.8263</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>27172824953.2191</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>11017983741.5982</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>136248380.170035</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>72030127.0117708</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>80093843.6137029</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>22343218.6432867</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>21743339.1605336</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>7106663.1416661</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>5184175.44843862</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>10480096.7486687</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>4377399.67243084</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>287937.632433101</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>12356252.5000477</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>12733304.9795911</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>14700738.147384</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>18502202.9007977</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>18240471.6909542</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>20075779.5243323</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>578299.611771109</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>8776942.52062297</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>24245.4194866642</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>21651236733.6665</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>26227166146.2177</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>18106796731.9237</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>19300123614.8198</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>15442633771.9174</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>15015339183.8907</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>16566119779.7048</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>16383454141.1711</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>14295077561.1236</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>12656854970.7716</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>207151.45743735</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -228,15 +230,96 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Defense Healthcare Management System Modernization (DHMSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-9 Reaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massive Ordnance Penetrator (MOP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other UAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLDIER ENHANCEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS OF FORCES AGREEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACKWOLF HF SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER PURIFICATION ROWPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH-64E New Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ-7B Shadow Tactical Unmanned Aircraft System (RQ-7B Shadow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOTHING, SPECIAL
+PURPOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIRY FOODS AND
+EGGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRUGS AND
+BIOLOGICALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL OILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARDWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIQUID PROPELLANTS
+-PETROLEUM BASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED &amp; SURGICAL
+INSTRUMENTS,EQ &amp;
+SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISCELLANEOUS ITEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAINING AIDS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -272,11 +355,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7673,4 +7759,3007 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="n">
+        <v>12652</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>111074.8516</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5" t="n">
+        <v>742934.5078</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="n">
+        <v>75639.3281</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>742633.5</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>356810.3301</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>928939</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>2068529</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>1524336</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>5308076</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>1952916</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>1698707</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>3491019</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>3432758.5813</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>408103.4902</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>2997694.9102</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>324997.5489</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>80496.6992</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>1413080.0995</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>-1347298.85</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>18176.15</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>-923.499299999999</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>59406.4001</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>134305.6015</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>84461</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>111241</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>18623015.3965</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>714345.625</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5" t="n">
+        <v>1427200</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>475572</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>232950</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>6795025</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>9480600</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>478550</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5" t="n">
+        <v>51906.1602</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>139759.4004</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>157400.1524</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>46356.5</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>4350000</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>308700</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>1341114</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>30064928</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>9014432</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="5" t="n">
+        <v>8630701989.09</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>10221322104</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>13353523888.2415</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>15519372518.4262</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>18314158839.8947</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>31786803033.2196</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>34616507262.3475</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>34288298948.3409</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>39099729400.1141</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>35615896149.808</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>29121211362.0065</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>30006926667.1808</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>35356419146.3526</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>26465404153.2953</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>24267838725.1181</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>21069111715.4275</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>19406190257.4793</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>21576437757.6489</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>25383313632.2805</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>23212468234.1722</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>25490601137.0472</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>53499188886.3541</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>18944862279.6072</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="4" t="n">
+        <v>8630701989.09</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>10221322104</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>13353523888.2415</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>15519372518.4262</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>18314158839.8947</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>31786803033.2196</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>34616507262.3475</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>34288298948.3409</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>39099729400.1141</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>35615896149.808</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>29121211362.0065</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>30006926667.1808</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>35356419146.3526</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>26465404153.2953</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>24267838725.1181</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>21069111715.4275</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>19406190257.4793</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>21576437757.6489</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>25383313632.2805</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>23212468234.1722</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>25490601137.0472</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>53499188886.3541</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AK12" s="4" t="n">
+        <v>18944862279.6072</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5" t="n">
+        <v>13983.3803832674</v>
+      </c>
+      <c r="AI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
+        <v>111074.8516</v>
+      </c>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5" t="n">
+        <v>708609.729566217</v>
+      </c>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5" t="n">
+        <v>83598.9169109284</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>794088.789125212</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>356810.3301</v>
+      </c>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>1500914.65670252</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>3263057.21051487</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>2367241.73731984</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>8088649.69747116</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>2904922.18065957</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>2452346.35488657</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>4880915.09319704</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>4671356.04181004</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>544008.388902862</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>3955776.17388379</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>425170.801131324</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>103227.58987391</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>1779491.76896082</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>-1666162.66429415</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>22051.2771673806</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>-1107.688988581</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>70669.2609927968</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>156966.16617476</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>96446.9870230631</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>124587.149879475</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>20582730.649123</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>763840.915300943</v>
+      </c>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5" t="n">
+        <v>1361261.04713009</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>768395.971228824</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>367473.29971658</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>10552441.7097882</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>14446901.725191</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>711833.232742544</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5" t="n">
+        <v>58133.6068581317</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>154466.397243959</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>168306.030400514</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>46356.5</v>
+      </c>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>7028425.71649589</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>498775.866363743</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>2115576.67686672</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>46689806.1786352</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>13736537.0559265</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="5" t="n">
+        <v>13944884554.3753</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>16123901957.5999</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>20737566447.6486</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>23649014789.1835</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>27241932696.6099</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>45889167791.7459</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>48398542881.1923</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>46660098186.999</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>52120555957.6808</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>46998950067.1134</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>38097175829.8049</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>38480369383.5963</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>44524338622.5066</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>32728943764.5373</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>29441704540.3383</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>25271294787.5131</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>23085410357.691</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>25216898451.7483</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>28985497691.1817</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>25997386385.985</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>28172998094.9636</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>57206019014.6902</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>18069578940.9147</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>498775.866363743</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>2115576.67686672</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>46689806.1786352</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <v>13736537.0559265</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="4" t="n">
+        <v>13944884554.3753</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>16123901957.5999</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>20737566447.6486</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>23649014789.1835</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>27241932696.6099</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>45889167791.7459</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>48398542881.1923</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>46660098186.999</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>52120555957.6808</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>46998950067.1134</v>
+      </c>
+      <c r="X27" s="4" t="n">
+        <v>38097175829.8049</v>
+      </c>
+      <c r="Y27" s="4" t="n">
+        <v>38480369383.5963</v>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>44524338622.5066</v>
+      </c>
+      <c r="AA27" s="4" t="n">
+        <v>32728943764.5373</v>
+      </c>
+      <c r="AB27" s="4" t="n">
+        <v>29441704540.3383</v>
+      </c>
+      <c r="AC27" s="4" t="n">
+        <v>25271294787.5131</v>
+      </c>
+      <c r="AD27" s="4" t="n">
+        <v>23085410357.691</v>
+      </c>
+      <c r="AE27" s="4" t="n">
+        <v>25216898451.7483</v>
+      </c>
+      <c r="AF27" s="4" t="n">
+        <v>28985497691.1817</v>
+      </c>
+      <c r="AG27" s="4" t="n">
+        <v>25997386385.985</v>
+      </c>
+      <c r="AH27" s="4" t="n">
+        <v>28172998094.9636</v>
+      </c>
+      <c r="AI27" s="4" t="n">
+        <v>57206019014.6902</v>
+      </c>
+      <c r="AJ27" s="4" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AK27" s="4" t="n">
+        <v>18069578940.9147</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>459097932</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>548411023</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>832797665</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>1219515147</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>725862200.8403</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>1230990068.2002</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>1042720953.7099</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>1318035621.8528</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>1351809825.1366</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>1768009026.3895</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>1587083382.298</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>1410585786.8818</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>890549532.2677</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>567809741.7066</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>736507122.3047</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>674159625.7648</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>710567941.8812</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>937113034.6959</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>1028457434.8177</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>1205698262.4414</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>1020157057.1304</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>932020538.0158</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>741919247.7764</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>366673514.9359</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>352897325</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>448113569</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>579764400</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>773839454</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>1419422640</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>2082441094</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>623763409</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>2832145616.4917</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>2179114331.2079</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>3085627793.682</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>3590845387.3924</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>2940000773.9181</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>3459631431.9175</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>2594877340.071</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>1677379606.3216</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>886083634.1166</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>926958912.4214</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>885005816.8274</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>129361428.5928</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>118961459.0804</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>120588082.29</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>132967240.9077</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>157429127.7033</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>124227948.1281</v>
+      </c>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>736757613</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>849744241</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1249078193</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>1588906421</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>1806736603</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>2690517886.7539</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>2880898231.9418</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>3133140506.9743</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>1987659287.4977</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>1946761137.4897</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>2104321873.9524</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>2907585252.1852</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>2457362421.743</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>2906697573.0363</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>3870494777.6554</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>4534180988.1847</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>5063758801.5356</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>5236042702.1013</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>5142518414.2291</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>5288320490.5081</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>6889985973.0751</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>35363822553.1787</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>29068842595.8633</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>4953344795.2403</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>437090158</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>497848036</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>825355303</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>960277521.96</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>808838395.6021</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>1741767167.6412</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>2795401495.8985</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>1154956802.8551</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>910139498.5583</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>2004699077.9879</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>1064878984.6433</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>3947450253.9542</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>3552665575.1199</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>1962273046.4232</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>2931394294.9802</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>1709229091.1199</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>989853667.3922</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>1426188632.0583</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>1699196784.6141</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>1678508999.0201</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>1226763985.7226</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>1331638642.9258</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>2375656105.9127</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>1094586304.6162</v>
+      </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>31133452</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>39672103</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>44209783</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>93684907</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>169879169.8262</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>180485318.9699</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>277976089.9111</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>182271265.2974</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>193897219.0126</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>200746794.8601</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>247891394.4015</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>239976623.4756</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>199484452.6684</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>185795368.1603</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>206086707.8428</v>
+      </c>
+      <c r="AC6" s="6" t="n">
+        <v>261480763.3258</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>284702677.6265</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>268883049.551</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>298999574.4432</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>360706148.1876</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>276805301.0146</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>238593902.1989</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>264713957.6649</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>190061477.6331</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2996201351</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>3558080529</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>4440797189</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>4561426670.6396</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>5606871996.0494</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>7702181463.3514</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>10143111001.6907</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>11094113431.2974</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>13373223167.5188</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>16646154967.3648</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>11191475647.4348</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>9953957979.879</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>18043760088.266</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>12216659607.5609</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>9435329257.8295</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>7166662750.8959</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>4814168603.3955</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>6037416151.6929</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>7781369529.4628</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>5837423459.2227</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>4679148729.4954</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>5521919289.2933</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>11285455838.6019</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>5541663643.9273</v>
+      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>103504171</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>100810898</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>112304027.1104</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>198883811.7908</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>236306378.9521</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>522574159.3837</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>610113509.0499</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>812821209.8059</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>799679061.5584</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>867836250.7221</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>1139844157.3288</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>1146690570.3966</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>999071000.1631</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>911268876.3629</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>981552477.4816</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>1150447194.5467</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>1203776456.9095</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>1159742980.4968</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>1343633873.3998</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>1144902755.0278</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>2999051371.0285</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>1911056459.6524</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>5673187536.0425</v>
+      </c>
+      <c r="AK8" s="6" t="n">
+        <v>441436102.494</v>
+      </c>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1199911177</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1445565407</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1921751259.5</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>956012972.294</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>2268977283.9856</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>7916223216.629</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>6404530376.8275</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>5994458608.6737</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>7944111297.3159</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>1712287969.6769</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>807778407.7217</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>359795096.3429</v>
+      </c>
+      <c r="Z9" s="6" t="n">
+        <v>170981063.079</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>116738076.03</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>75093172.1998</v>
+      </c>
+      <c r="AC9" s="6" t="n">
+        <v>73264816.5093</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>43458376.9399</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>38845236.0897</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>39343269.6616</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>22623644.6857</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>19046291.4674</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>19810437.2907</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>17131920.0082</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <v>9055497.1334</v>
+      </c>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>2202498474</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>2575232743</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>3239533144.1111</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>4857983384.9919</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>4802594341.9691</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>7114870673.0403</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>9241534057.7949</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>7101009301.0523</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>9716408861.5842</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>6692747335.2876</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>6532579618.0269</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>6092005201.7781</v>
+      </c>
+      <c r="Z10" s="6" t="n">
+        <v>4723367948.0541</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>4305239214.8198</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>3500893435.9963</v>
+      </c>
+      <c r="AC10" s="6" t="n">
+        <v>3992114771.4397</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>4515561336.087</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>4994386075.8346</v>
+      </c>
+      <c r="AF10" s="6" t="n">
+        <v>7058496564.1468</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>6783385996.925</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>7523523218.4488</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>7121238530.5632</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>8261130437.3622</v>
+      </c>
+      <c r="AK10" s="6" t="n">
+        <v>5860038077.0355</v>
+      </c>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>117673547.09</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>161486148</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>146317213.52</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>332645335.7499</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>471101295.6699</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>606450692.25</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>599949155.5232</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>668779342.6216</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>644094954.2139</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>694023491.2576</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>854837506.3556</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>1008959625.0685</v>
+      </c>
+      <c r="Z11" s="6" t="n">
+        <v>860958713.1734</v>
+      </c>
+      <c r="AA11" s="6" t="n">
+        <v>696698010.2743</v>
+      </c>
+      <c r="AB11" s="6" t="n">
+        <v>853126048.6562</v>
+      </c>
+      <c r="AC11" s="6" t="n">
+        <v>621487156.0248</v>
+      </c>
+      <c r="AD11" s="6" t="n">
+        <v>853442889.6906</v>
+      </c>
+      <c r="AE11" s="6" t="n">
+        <v>592948383.9025</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>862021219.9126</v>
+      </c>
+      <c r="AG11" s="6" t="n">
+        <v>772100166.2336</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>754382193.4994</v>
+      </c>
+      <c r="AI11" s="6" t="n">
+        <v>927735671.605</v>
+      </c>
+      <c r="AJ11" s="6" t="n">
+        <v>665380484.7782</v>
+      </c>
+      <c r="AK11" s="6" t="n">
+        <v>365945052.9712</v>
+      </c>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>741778324.519284</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>865105851.997233</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>1293306325.72511</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>1858343931.93373</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>1079705019.22426</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>1777124605.15694</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>1457864434.69814</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>1793605206.90367</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>1801983817.18133</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>2333075309.96756</v>
+      </c>
+      <c r="X16" s="6" t="n">
+        <v>2076266468.46336</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>1808911080.04838</v>
+      </c>
+      <c r="Z16" s="6" t="n">
+        <v>1121469025.77074</v>
+      </c>
+      <c r="AA16" s="6" t="n">
+        <v>702192681.344632</v>
+      </c>
+      <c r="AB16" s="6" t="n">
+        <v>893529305.694044</v>
+      </c>
+      <c r="AC16" s="6" t="n">
+        <v>808619122.944172</v>
+      </c>
+      <c r="AD16" s="6" t="n">
+        <v>845284535.898296</v>
+      </c>
+      <c r="AE16" s="6" t="n">
+        <v>1095226399.24002</v>
+      </c>
+      <c r="AF16" s="6" t="n">
+        <v>1174407369.90606</v>
+      </c>
+      <c r="AG16" s="6" t="n">
+        <v>1350352029.6672</v>
+      </c>
+      <c r="AH16" s="6" t="n">
+        <v>1127509024.70195</v>
+      </c>
+      <c r="AI16" s="6" t="n">
+        <v>996597999.514963</v>
+      </c>
+      <c r="AJ16" s="6" t="n">
+        <v>741919247.7764</v>
+      </c>
+      <c r="AK16" s="6" t="n">
+        <v>349732604.327714</v>
+      </c>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>570186812.485657</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>706888911.132018</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>900354308.690602</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>1179206225.66224</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>2111361835.66849</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>3006325885.59233</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>872105318.696959</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>3854031742.56259</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>2904793771.73321</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>4071812934.06089</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>4697643459.96995</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>3770206693.38199</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>4356713861.38245</v>
+      </c>
+      <c r="AA17" s="6" t="n">
+        <v>3209004255.03162</v>
+      </c>
+      <c r="AB17" s="6" t="n">
+        <v>2034994353.25464</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>1062810859.16664</v>
+      </c>
+      <c r="AD17" s="6" t="n">
+        <v>1102701075.99917</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>1034327448.43303</v>
+      </c>
+      <c r="AF17" s="6" t="n">
+        <v>147719302.693251</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>133233871.794849</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>133277665.535079</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>142180221.233914</v>
+      </c>
+      <c r="AJ17" s="6" t="n">
+        <v>157429127.7033</v>
+      </c>
+      <c r="AK17" s="6" t="n">
+        <v>118488415.605157</v>
+      </c>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>1190401414.72031</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>1340452114.85482</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1939775765.7404</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>2421236516.11839</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>2687483349.34233</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>3884178809.14015</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>4027884025.33742</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>4263630689.5638</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>2649581178.90518</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>2568957667.34676</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>2752932199.07269</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>3728637582.89363</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>3094556497.11052</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>3594622657.4657</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>4695678299.14356</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>5438512354.95848</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>6023796960.39335</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>6119488239.48471</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>5872300905.30561</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>5922787259.74802</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>7615024873.29164</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>37814096765.218</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>29068842595.8633</v>
+      </c>
+      <c r="AK18" s="6" t="n">
+        <v>4724492238.48457</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>706219702.738955</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>785343895.884691</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>1281748591.76708</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>1463307700.84869</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>1203130393.70543</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>2514510368.54855</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>3908348064.81333</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>1571684786.8176</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>1213230305.98173</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>2645412920.95073</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>1393104201.98896</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>5062142670.60092</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>4473871757.89488</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>2426682162.68504</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>3556363040.87975</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>2050130674.91857</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>1177520049.15067</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>1666820738.04804</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>1940332345.52405</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>1879888280.71452</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>1355857370.60167</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>1423904681.80238</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>2375656105.9127</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>1044014643.49503</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>50303253.9494461</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>62581835.57032</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>68656282.8113049</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>142760652.760654</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>252691753.490761</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>260558480.118333</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>388648040.241255</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>248037826.20592</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>258468051.023274</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>264906673.921042</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>324298392.735499</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>307741916.297917</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>251210771.197385</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>229767364.254395</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>250024076.3393</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>313632465.408196</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>338679465.456033</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>314250045.910397</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>341431051.920113</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>403981903.674873</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>305933750.884602</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>255125499.845864</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>264713957.6649</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>181280329.359533</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>4841052557.96969</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>5612790696.06759</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>6896406338.74253</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>6950876826.08649</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>8340106192.71024</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>11119290517.0372</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>14181436302.7314</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>15097057535.0484</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>17826717400.1256</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>21966365884.2072</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>14640998625.8871</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>12764785415.811</v>
+      </c>
+      <c r="Z21" s="6" t="n">
+        <v>22722507074.8179</v>
+      </c>
+      <c r="AA21" s="6" t="n">
+        <v>15107963701.2296</v>
+      </c>
+      <c r="AB21" s="6" t="n">
+        <v>11446926914.1096</v>
+      </c>
+      <c r="AC21" s="6" t="n">
+        <v>8596036200.61326</v>
+      </c>
+      <c r="AD21" s="6" t="n">
+        <v>5726886950.29485</v>
+      </c>
+      <c r="AE21" s="6" t="n">
+        <v>7056072541.64158</v>
+      </c>
+      <c r="AF21" s="6" t="n">
+        <v>8885635335.00381</v>
+      </c>
+      <c r="AG21" s="6" t="n">
+        <v>6537768910.96035</v>
+      </c>
+      <c r="AH21" s="6" t="n">
+        <v>5171539405.18626</v>
+      </c>
+      <c r="AI21" s="6" t="n">
+        <v>5904519796.21451</v>
+      </c>
+      <c r="AJ21" s="6" t="n">
+        <v>11285455838.6019</v>
+      </c>
+      <c r="AK21" s="6" t="n">
+        <v>5285629802.95349</v>
+      </c>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>167234799.361147</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>159026887.037783</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>174404317.84386</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>303066776.751796</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>351500853.927819</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>754416644.496389</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>853020918.787628</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>1106100874.67911</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>1065984801.31729</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>1145201918.90044</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>1491175718.63738</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>1470496369.28691</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>1258130110.26534</v>
+      </c>
+      <c r="AA22" s="6" t="n">
+        <v>1126937931.34993</v>
+      </c>
+      <c r="AB22" s="6" t="n">
+        <v>1190817952.937</v>
+      </c>
+      <c r="AC22" s="6" t="n">
+        <v>1379901088.54796</v>
+      </c>
+      <c r="AD22" s="6" t="n">
+        <v>1432000465.72628</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>1355419337.41812</v>
+      </c>
+      <c r="AF22" s="6" t="n">
+        <v>1534310968.98614</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>1282262575.29213</v>
+      </c>
+      <c r="AH22" s="6" t="n">
+        <v>3314644017.55067</v>
+      </c>
+      <c r="AI22" s="6" t="n">
+        <v>2043468965.50625</v>
+      </c>
+      <c r="AJ22" s="6" t="n">
+        <v>5673187536.0425</v>
+      </c>
+      <c r="AK22" s="6" t="n">
+        <v>421041039.183021</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>1938732545.73279</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>2280346383.62924</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>2984414059.78431</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>1456809216.58325</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>3375056807.18601</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>11428292901.4648</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>8954396690.79323</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>8157360844.29321</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>10589625651.0816</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>2259545469.4967</v>
+      </c>
+      <c r="X23" s="6" t="n">
+        <v>1056758101.43816</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>461395075.98504</v>
+      </c>
+      <c r="Z23" s="6" t="n">
+        <v>215316452.694302</v>
+      </c>
+      <c r="AA23" s="6" t="n">
+        <v>144366354.786629</v>
+      </c>
+      <c r="AB23" s="6" t="n">
+        <v>91102920.781113</v>
+      </c>
+      <c r="AC23" s="6" t="n">
+        <v>87877305.9143186</v>
+      </c>
+      <c r="AD23" s="6" t="n">
+        <v>51697651.7196694</v>
+      </c>
+      <c r="AE23" s="6" t="n">
+        <v>45399355.7607024</v>
+      </c>
+      <c r="AF23" s="6" t="n">
+        <v>44926531.9910634</v>
+      </c>
+      <c r="AG23" s="6" t="n">
+        <v>25337918.674565</v>
+      </c>
+      <c r="AH23" s="6" t="n">
+        <v>21050548.4096771</v>
+      </c>
+      <c r="AI23" s="6" t="n">
+        <v>21183054.8449712</v>
+      </c>
+      <c r="AJ23" s="6" t="n">
+        <v>17131920.0082</v>
+      </c>
+      <c r="AK23" s="6" t="n">
+        <v>8637118.4908181</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>3558642969.01254</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>4062370781.74883</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>5030884311.70738</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>7402781316.11805</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>7143759807.74196</v>
+      </c>
+      <c r="S24" s="6" t="n">
+        <v>10271416530.6434</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>12920910217.6143</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>9663173775.78526</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>12952126256.3118</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>8831789504.88611</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>8546101713.84791</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>7812283245.50825</v>
+      </c>
+      <c r="Z24" s="6" t="n">
+        <v>5948137255.84962</v>
+      </c>
+      <c r="AA24" s="6" t="n">
+        <v>5324155691.65504</v>
+      </c>
+      <c r="AB24" s="6" t="n">
+        <v>4247278521.06291</v>
+      </c>
+      <c r="AC24" s="6" t="n">
+        <v>4788332350.08983</v>
+      </c>
+      <c r="AD24" s="6" t="n">
+        <v>5371666723.64843</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>5837058365.13721</v>
+      </c>
+      <c r="AF24" s="6" t="n">
+        <v>8060178384.39755</v>
+      </c>
+      <c r="AG24" s="6" t="n">
+        <v>7597223396.85211</v>
+      </c>
+      <c r="AH24" s="6" t="n">
+        <v>8315229764.93153</v>
+      </c>
+      <c r="AI24" s="6" t="n">
+        <v>7614652021.22815</v>
+      </c>
+      <c r="AJ24" s="6" t="n">
+        <v>8261130437.3622</v>
+      </c>
+      <c r="AK24" s="6" t="n">
+        <v>5589294821.30573</v>
+      </c>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>190128686.096241</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>254740706.864478</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>227225634.461748</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>506897714.79885</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>700753439.026028</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>875505395.90272</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>838809782.571795</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>910086261.181248</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>858588732.408656</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>915837559.54981</v>
+      </c>
+      <c r="X25" s="6" t="n">
+        <v>1118322118.5651</v>
+      </c>
+      <c r="Y25" s="6" t="n">
+        <v>1293872561.37212</v>
+      </c>
+      <c r="Z25" s="6" t="n">
+        <v>1084205307.2924</v>
+      </c>
+      <c r="AA25" s="6" t="n">
+        <v>861584802.070496</v>
+      </c>
+      <c r="AB25" s="6" t="n">
+        <v>1035011207.41356</v>
+      </c>
+      <c r="AC25" s="6" t="n">
+        <v>745441257.262667</v>
+      </c>
+      <c r="AD25" s="6" t="n">
+        <v>1015247148.66524</v>
+      </c>
+      <c r="AE25" s="6" t="n">
+        <v>692992946.84068</v>
+      </c>
+      <c r="AF25" s="6" t="n">
+        <v>984351942.441074</v>
+      </c>
+      <c r="AG25" s="6" t="n">
+        <v>864732959.36312</v>
+      </c>
+      <c r="AH25" s="6" t="n">
+        <v>833766453.214175</v>
+      </c>
+      <c r="AI25" s="6" t="n">
+        <v>992016245.015986</v>
+      </c>
+      <c r="AJ25" s="6" t="n">
+        <v>665380484.7782</v>
+      </c>
+      <c r="AK25" s="6" t="n">
+        <v>349037798.486303</v>
+      </c>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -308,18 +310,110 @@
   <si>
     <t xml:space="preserve">TRAINING AIDS</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR CARGO MATERIALS HAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR TRAFFIC CNTL COMM CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSM ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-11 GULFSTREAM II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBT FEEDING CLOTHING &amp; EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCS II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAMS Inc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECON APP PWR DR LT WT M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMLSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Enterprise Office Solution (DEOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICBM FUZE MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTH TRAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE ARRESTING BARRIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODERNIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QM-107 GD MSL TGT SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOTE SENSING CHEM AGENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,14 +449,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8294,81 +8390,93 @@
       <c r="AM11" s="5"/>
     </row>
     <row r="12">
-      <c r="M12"/>
-      <c r="N12" s="4" t="n">
+      <c r="M12" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>8630701989.09</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <v>10221322104</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <v>13353523888.2415</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>15519372518.4262</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>18314158839.8947</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>31786803033.2196</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>34616507262.3475</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>34288298948.3409</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>39099729400.1141</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>35615896149.808</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>29121211362.0065</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>30006926667.1808</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>35356419146.3526</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>26465404153.2953</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>24267838725.1181</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>21069111715.4275</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>19406190257.4793</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>21576437757.6489</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>25383313632.2805</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>23212468234.1722</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="5" t="n">
         <v>25490601137.0472</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="5" t="n">
         <v>53499188886.3541</v>
       </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>58510333010.0319</v>
       </c>
-      <c r="AK12" s="4" t="n">
+      <c r="AK12" s="5" t="n">
         <v>18944862279.6072</v>
       </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Sum(A2:A11)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(B2:B11)</f>
+      </c>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -8892,46 +9000,48 @@
       <c r="AM25" s="5"/>
     </row>
     <row r="26">
-      <c r="M26" t="s">
-        <v>80</v>
-      </c>
-      <c r="N26" s="4" t="n">
+      <c r="M26" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N26" s="5" t="n">
         <v>498775.866363743</v>
       </c>
-      <c r="O26" s="4" t="n">
+      <c r="O26" s="5" t="n">
         <v>2115576.67686672</v>
       </c>
-      <c r="P26" s="4" t="n">
+      <c r="P26" s="5" t="n">
         <v>46689806.1786352</v>
       </c>
-      <c r="Q26" s="4" t="n">
+      <c r="Q26" s="5" t="n">
         <v>13736537.0559265</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
     </row>
     <row r="27">
-      <c r="M27"/>
+      <c r="M27" t="str">
+        <f>Sum(A16:A25)</f>
+      </c>
       <c r="N27" s="4" t="n">
         <v>13944884554.3753</v>
       </c>
@@ -9006,6 +9116,51 @@
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="str">
+        <f>Sum(B16:B25)</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="str">
+        <f>Sum(C16:C25)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="str">
+        <f>Sum(D16:D25)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="str">
+        <f>Sum(E16:E25)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="str">
+        <f>Sum(F16:F25)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="str">
+        <f>Sum(G16:G25)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="str">
+        <f>Sum(H16:H25)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="str">
+        <f>Sum(I16:I25)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="str">
+        <f>Sum(J16:J25)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10762,4 +10917,3362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2190</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="n">
+        <v>13983.3803832674</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7" t="n">
+        <v>111074.8516</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7" t="n">
+        <v>708609.729566217</v>
+      </c>
+      <c r="AM3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1757</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7" t="n">
+        <v>799329.398977802</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="n">
+        <v>487</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>55298.3609533499</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1856</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7" t="n">
+        <v>4327865.4329112</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="n">
+        <v>3901248.853076</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2058</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7" t="n">
+        <v>77802.7985282455</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7" t="n">
+        <v>1707799.69467415</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <v>-1677108.60673748</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1962</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7" t="n">
+        <v>9174.62783588944</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7" t="n">
+        <v>23975.9503369154</v>
+      </c>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="n">
+        <v>717</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7" t="n">
+        <v>6205788.95455901</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1344</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7" t="n">
+        <v>93339.3278750279</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>546649.960059199</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>67602.6130440033</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="n">
+        <v>590</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>290042.932694163</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="n">
+        <v>9038.26119123441</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1958</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7" t="n">
+        <v>5246.33959227448</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="n">
+        <v>133742.777104634</v>
+      </c>
+      <c r="V12" s="7" t="n">
+        <v>57131.1777564738</v>
+      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1994</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7" t="n">
+        <v>33099.4350544525</v>
+      </c>
+      <c r="X13" s="7" t="n">
+        <v>2782.5213324569</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2101</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7" t="n">
+        <v>38624.2795784285</v>
+      </c>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7" t="n">
+        <v>763840.915300943</v>
+      </c>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" t="n">
+        <v>607</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>361033.263890872</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>2384044.35633512</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>1634710.85632622</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>511892.34523462</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1968</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="n">
+        <v>348555.081173606</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7" t="n">
+        <v>-12855.9315021982</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1959</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7" t="n">
+        <v>2457781.43201866</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>1901963.10375731</v>
+      </c>
+      <c r="U17" s="7" t="n">
+        <v>3910686.45097292</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7" t="n">
+        <v>6725.06456798476</v>
+      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7" t="n">
+        <v>-1877.30677258486</v>
+      </c>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1970</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7" t="n">
+        <v>17476.6847917365</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2251</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7" t="n">
+        <v>124587.149879475</v>
+      </c>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2237</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7" t="n">
+        <v>83598.9169109284</v>
+      </c>
+      <c r="AJ20" s="7" t="n">
+        <v>794088.789125212</v>
+      </c>
+      <c r="AK20" s="7" t="n">
+        <v>356810.3301</v>
+      </c>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2238</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7" t="n">
+        <v>6140.66245727424</v>
+      </c>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1973</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7" t="n">
+        <v>11283.4640512505</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" t="n">
+        <v>763</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7" t="n">
+        <v>528019.45814266</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1777</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7" t="n">
+        <v>532444.352867856</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1778</v>
+      </c>
+      <c r="O25" s="7" t="n">
+        <v>70313.3403058548</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1805</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7" t="n">
+        <v>479574.195213963</v>
+      </c>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2243</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7" t="n">
+        <v>19111.9168823449</v>
+      </c>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7" t="n">
+        <v>10775.424775193</v>
+      </c>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2258</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7" t="n">
+        <v>20077903.8745695</v>
+      </c>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1979</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="n">
+        <v>740631.142508558</v>
+      </c>
+      <c r="V30" s="7" t="n">
+        <v>277184.803306485</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7" t="n">
+        <v>11946.4212670092</v>
+      </c>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="n">
+        <v>154</v>
+      </c>
+      <c r="O31" s="7" t="n">
+        <v>234280.85721653</v>
+      </c>
+      <c r="P31" s="7" t="n">
+        <v>350993.396037082</v>
+      </c>
+      <c r="Q31" s="7" t="n">
+        <v>723492.619802389</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>39194.6458318712</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" t="n">
+        <v>583</v>
+      </c>
+      <c r="O32" s="7" t="n">
+        <v>489945.901641755</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2233</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7" t="n">
+        <v>1361261.04713009</v>
+      </c>
+      <c r="AM33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="M34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" t="n">
+        <v>601</v>
+      </c>
+      <c r="O34" s="7" t="n">
+        <v>768395.971228824</v>
+      </c>
+      <c r="P34" s="7" t="n">
+        <v>367473.29971658</v>
+      </c>
+      <c r="Q34" s="7" t="n">
+        <v>10552441.7097882</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>14446901.725191</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>711833.232742544</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="M35" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1961</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7" t="n">
+        <v>3733.29107005308</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7" t="n">
+        <v>43502.9697078658</v>
+      </c>
+      <c r="X35" s="7" t="n">
+        <v>64600.7309775302</v>
+      </c>
+      <c r="Y35" s="7" t="n">
+        <v>403818.22258565</v>
+      </c>
+      <c r="Z35" s="7" t="n">
+        <v>103227.58987391</v>
+      </c>
+      <c r="AA35" s="7" t="n">
+        <v>47716.1239497558</v>
+      </c>
+      <c r="AB35" s="7" t="n">
+        <v>10945.9424433318</v>
+      </c>
+      <c r="AC35" s="7" t="n">
+        <v>22051.2771673806</v>
+      </c>
+      <c r="AD35" s="7" t="n">
+        <v>-5359.89841657856</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>-7034.75945414301</v>
+      </c>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7" t="n">
+        <v>58133.6068581317</v>
+      </c>
+      <c r="AI36" s="7" t="n">
+        <v>154466.397243959</v>
+      </c>
+      <c r="AJ36" s="7" t="n">
+        <v>168306.030400514</v>
+      </c>
+      <c r="AK36" s="7" t="n">
+        <v>46356.5</v>
+      </c>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="M37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1952</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7" t="n">
+        <v>382878.121044313</v>
+      </c>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="M38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" t="n">
+        <v>482</v>
+      </c>
+      <c r="O38" s="7" t="n">
+        <v>7028425.71649589</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="M39" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" t="n">
+        <v>604</v>
+      </c>
+      <c r="O39" s="7" t="n">
+        <v>498775.866363743</v>
+      </c>
+      <c r="P39" s="7" t="n">
+        <v>2115576.67686672</v>
+      </c>
+      <c r="Q39" s="7" t="n">
+        <v>46689806.1786352</v>
+      </c>
+      <c r="R39" s="7" t="n">
+        <v>13736537.0559265</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="M40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7" t="n">
+        <v>4252.20942799756</v>
+      </c>
+      <c r="AE40" s="7" t="n">
+        <v>77704.0204469398</v>
+      </c>
+      <c r="AF40" s="7" t="n">
+        <v>118341.886596331</v>
+      </c>
+      <c r="AG40" s="7" t="n">
+        <v>96446.9870230631</v>
+      </c>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" s="7" t="n">
+        <v>13944884554.3753</v>
+      </c>
+      <c r="P41" s="7" t="n">
+        <v>16123901957.5999</v>
+      </c>
+      <c r="Q41" s="7" t="n">
+        <v>20737566447.6486</v>
+      </c>
+      <c r="R41" s="7" t="n">
+        <v>23649014789.1835</v>
+      </c>
+      <c r="S41" s="7" t="n">
+        <v>27241932696.6099</v>
+      </c>
+      <c r="T41" s="7" t="n">
+        <v>45889167791.7459</v>
+      </c>
+      <c r="U41" s="7" t="n">
+        <v>48398542881.1923</v>
+      </c>
+      <c r="V41" s="7" t="n">
+        <v>46660098186.999</v>
+      </c>
+      <c r="W41" s="7" t="n">
+        <v>52120555957.6808</v>
+      </c>
+      <c r="X41" s="7" t="n">
+        <v>46998950067.1134</v>
+      </c>
+      <c r="Y41" s="7" t="n">
+        <v>38097175829.8049</v>
+      </c>
+      <c r="Z41" s="7" t="n">
+        <v>38480369383.5963</v>
+      </c>
+      <c r="AA41" s="7" t="n">
+        <v>44524338622.5066</v>
+      </c>
+      <c r="AB41" s="7" t="n">
+        <v>32728943764.5373</v>
+      </c>
+      <c r="AC41" s="7" t="n">
+        <v>29441704540.3383</v>
+      </c>
+      <c r="AD41" s="7" t="n">
+        <v>25271294787.5131</v>
+      </c>
+      <c r="AE41" s="7" t="n">
+        <v>23085410357.691</v>
+      </c>
+      <c r="AF41" s="7" t="n">
+        <v>25216898451.7483</v>
+      </c>
+      <c r="AG41" s="7" t="n">
+        <v>28985497691.1817</v>
+      </c>
+      <c r="AH41" s="7" t="n">
+        <v>25997386385.985</v>
+      </c>
+      <c r="AI41" s="7" t="n">
+        <v>28172998094.9636</v>
+      </c>
+      <c r="AJ41" s="7" t="n">
+        <v>57206019014.6902</v>
+      </c>
+      <c r="AK41" s="7" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AL41" s="7" t="n">
+        <v>18069578940.9147</v>
+      </c>
+      <c r="AM41" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="n">
+        <v>13983.3803832674</v>
+      </c>
+      <c r="AL2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="8" t="n">
+        <v>111074.8516</v>
+      </c>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="n">
+        <v>708609.729566217</v>
+      </c>
+      <c r="AO3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1757</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8" t="n">
+        <v>799329.398977802</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>55298.3609533499</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1856</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8" t="n">
+        <v>4327865.4329112</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8" t="n">
+        <v>3901248.853076</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2058</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="n">
+        <v>77802.7985282455</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8" t="n">
+        <v>1707799.69467415</v>
+      </c>
+      <c r="AD7" s="8" t="n">
+        <v>-1677108.60673748</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1962</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8" t="n">
+        <v>9174.62783588944</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8" t="n">
+        <v>23975.9503369154</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="n">
+        <v>717</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8" t="n">
+        <v>6205788.95455901</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1344</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8" t="n">
+        <v>93339.3278750279</v>
+      </c>
+      <c r="V10" s="8" t="n">
+        <v>546649.960059199</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>67602.6130440033</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="n">
+        <v>590</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>290042.932694163</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8" t="n">
+        <v>9038.26119123441</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="O12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1958</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8" t="n">
+        <v>5246.33959227448</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="n">
+        <v>133742.777104634</v>
+      </c>
+      <c r="X12" s="8" t="n">
+        <v>57131.1777564738</v>
+      </c>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1994</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8" t="n">
+        <v>33099.4350544525</v>
+      </c>
+      <c r="Z13" s="8" t="n">
+        <v>2782.5213324569</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2101</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8" t="n">
+        <v>38624.2795784285</v>
+      </c>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8" t="n">
+        <v>763840.915300943</v>
+      </c>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" t="n">
+        <v>607</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <v>361033.263890872</v>
+      </c>
+      <c r="R15" s="8" t="n">
+        <v>2384044.35633512</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <v>1634710.85632622</v>
+      </c>
+      <c r="T15" s="8" t="n">
+        <v>511892.34523462</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1968</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8" t="n">
+        <v>348555.081173606</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8" t="n">
+        <v>-12855.9315021982</v>
+      </c>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1959</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8" t="n">
+        <v>2457781.43201866</v>
+      </c>
+      <c r="V17" s="8" t="n">
+        <v>1901963.10375731</v>
+      </c>
+      <c r="W17" s="8" t="n">
+        <v>3910686.45097292</v>
+      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="n">
+        <v>6725.06456798476</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8" t="n">
+        <v>-1877.30677258486</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8" t="n">
+        <v>17476.6847917365</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="O19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2251</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8" t="n">
+        <v>124587.149879475</v>
+      </c>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2237</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8" t="n">
+        <v>83598.9169109284</v>
+      </c>
+      <c r="AL20" s="8" t="n">
+        <v>794088.789125212</v>
+      </c>
+      <c r="AM20" s="8" t="n">
+        <v>356810.3301</v>
+      </c>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2238</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8" t="n">
+        <v>6140.66245727424</v>
+      </c>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1973</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8" t="n">
+        <v>11283.4640512505</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="O23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" t="n">
+        <v>763</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="n">
+        <v>528019.45814266</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1777</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8" t="n">
+        <v>532444.352867856</v>
+      </c>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="O25" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1778</v>
+      </c>
+      <c r="Q25" s="8" t="n">
+        <v>70313.3403058548</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1805</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8" t="n">
+        <v>479574.195213963</v>
+      </c>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2243</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8" t="n">
+        <v>19111.9168823449</v>
+      </c>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8" t="n">
+        <v>10775.424775193</v>
+      </c>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2258</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8" t="n">
+        <v>20077903.8745695</v>
+      </c>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8" t="n">
+        <v>740631.142508558</v>
+      </c>
+      <c r="X30" s="8" t="n">
+        <v>277184.803306485</v>
+      </c>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8" t="n">
+        <v>11946.4212670092</v>
+      </c>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q31" s="8" t="n">
+        <v>234280.85721653</v>
+      </c>
+      <c r="R31" s="8" t="n">
+        <v>350993.396037082</v>
+      </c>
+      <c r="S31" s="8" t="n">
+        <v>723492.619802389</v>
+      </c>
+      <c r="T31" s="8" t="n">
+        <v>39194.6458318712</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="O32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v>489945.901641755</v>
+      </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2233</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8" t="n">
+        <v>1361261.04713009</v>
+      </c>
+      <c r="AO33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>601</v>
+      </c>
+      <c r="Q34" s="8" t="n">
+        <v>768395.971228824</v>
+      </c>
+      <c r="R34" s="8" t="n">
+        <v>367473.29971658</v>
+      </c>
+      <c r="S34" s="8" t="n">
+        <v>10552441.7097882</v>
+      </c>
+      <c r="T34" s="8" t="n">
+        <v>14446901.725191</v>
+      </c>
+      <c r="U34" s="8" t="n">
+        <v>711833.232742544</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1961</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8" t="n">
+        <v>3733.29107005308</v>
+      </c>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8" t="n">
+        <v>43502.9697078658</v>
+      </c>
+      <c r="Z35" s="8" t="n">
+        <v>64600.7309775302</v>
+      </c>
+      <c r="AA35" s="8" t="n">
+        <v>403818.22258565</v>
+      </c>
+      <c r="AB35" s="8" t="n">
+        <v>103227.58987391</v>
+      </c>
+      <c r="AC35" s="8" t="n">
+        <v>47716.1239497558</v>
+      </c>
+      <c r="AD35" s="8" t="n">
+        <v>10945.9424433318</v>
+      </c>
+      <c r="AE35" s="8" t="n">
+        <v>22051.2771673806</v>
+      </c>
+      <c r="AF35" s="8" t="n">
+        <v>-5359.89841657856</v>
+      </c>
+      <c r="AG35" s="8" t="n">
+        <v>-7034.75945414301</v>
+      </c>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2202</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8" t="n">
+        <v>58133.6068581317</v>
+      </c>
+      <c r="AK36" s="8" t="n">
+        <v>154466.397243959</v>
+      </c>
+      <c r="AL36" s="8" t="n">
+        <v>168306.030400514</v>
+      </c>
+      <c r="AM36" s="8" t="n">
+        <v>46356.5</v>
+      </c>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1952</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8" t="n">
+        <v>382878.121044313</v>
+      </c>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v>7028425.71649589</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="n">
+        <v>604</v>
+      </c>
+      <c r="Q39" s="8" t="n">
+        <v>498775.866363743</v>
+      </c>
+      <c r="R39" s="8" t="n">
+        <v>2115576.67686672</v>
+      </c>
+      <c r="S39" s="8" t="n">
+        <v>46689806.1786352</v>
+      </c>
+      <c r="T39" s="8" t="n">
+        <v>13736537.0559265</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8" t="n">
+        <v>4252.20942799756</v>
+      </c>
+      <c r="AG40" s="8" t="n">
+        <v>77704.0204469398</v>
+      </c>
+      <c r="AH40" s="8" t="n">
+        <v>118341.886596331</v>
+      </c>
+      <c r="AI40" s="8" t="n">
+        <v>96446.9870230631</v>
+      </c>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" s="8" t="n">
+        <v>13944884554.3753</v>
+      </c>
+      <c r="R41" s="8" t="n">
+        <v>16123901957.5999</v>
+      </c>
+      <c r="S41" s="8" t="n">
+        <v>20737566447.6486</v>
+      </c>
+      <c r="T41" s="8" t="n">
+        <v>23649014789.1835</v>
+      </c>
+      <c r="U41" s="8" t="n">
+        <v>27241932696.6099</v>
+      </c>
+      <c r="V41" s="8" t="n">
+        <v>45889167791.7459</v>
+      </c>
+      <c r="W41" s="8" t="n">
+        <v>48398542881.1923</v>
+      </c>
+      <c r="X41" s="8" t="n">
+        <v>46660098186.999</v>
+      </c>
+      <c r="Y41" s="8" t="n">
+        <v>52120555957.6808</v>
+      </c>
+      <c r="Z41" s="8" t="n">
+        <v>46998950067.1134</v>
+      </c>
+      <c r="AA41" s="8" t="n">
+        <v>38097175829.8049</v>
+      </c>
+      <c r="AB41" s="8" t="n">
+        <v>38480369383.5963</v>
+      </c>
+      <c r="AC41" s="8" t="n">
+        <v>44524338622.5066</v>
+      </c>
+      <c r="AD41" s="8" t="n">
+        <v>32728943764.5373</v>
+      </c>
+      <c r="AE41" s="8" t="n">
+        <v>29441704540.3383</v>
+      </c>
+      <c r="AF41" s="8" t="n">
+        <v>25271294787.5131</v>
+      </c>
+      <c r="AG41" s="8" t="n">
+        <v>23085410357.691</v>
+      </c>
+      <c r="AH41" s="8" t="n">
+        <v>25216898451.7483</v>
+      </c>
+      <c r="AI41" s="8" t="n">
+        <v>28985497691.1817</v>
+      </c>
+      <c r="AJ41" s="8" t="n">
+        <v>25997386385.985</v>
+      </c>
+      <c r="AK41" s="8" t="n">
+        <v>28172998094.9636</v>
+      </c>
+      <c r="AL41" s="8" t="n">
+        <v>57206019014.6902</v>
+      </c>
+      <c r="AM41" s="8" t="n">
+        <v>58510333010.0319</v>
+      </c>
+      <c r="AN41" s="8" t="n">
+        <v>18069578940.9147</v>
+      </c>
+      <c r="AO41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="P42" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="P43" t="str">
+        <f>Sum(A2:A41)</f>
+      </c>
+    </row>
+    <row r="44">
+      <c r="P44" t="str">
+        <f>Sum(B2:B41)</f>
+      </c>
+    </row>
+    <row r="45">
+      <c r="P45" t="str">
+        <f>Sum(C2:C41)</f>
+      </c>
+    </row>
+    <row r="46">
+      <c r="P46" t="str">
+        <f>Sum(D2:D41)</f>
+      </c>
+    </row>
+    <row r="47">
+      <c r="P47" t="str">
+        <f>Sum(E2:E41)</f>
+      </c>
+    </row>
+    <row r="48">
+      <c r="P48" t="str">
+        <f>Sum(F2:F41)</f>
+      </c>
+    </row>
+    <row r="49">
+      <c r="P49" t="str">
+        <f>Sum(G2:G41)</f>
+      </c>
+    </row>
+    <row r="50">
+      <c r="P50" t="str">
+        <f>Sum(H2:H41)</f>
+      </c>
+    </row>
+    <row r="51">
+      <c r="P51" t="str">
+        <f>Sum(I2:I41)</f>
+      </c>
+    </row>
+    <row r="52">
+      <c r="P52" t="str">
+        <f>Sum(J2:J41)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -413,7 +413,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -421,7 +421,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -460,7 +460,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -469,7 +469,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1609,11 +1609,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
@@ -1724,556 +1733,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="11" t="n">
         <v>1889147000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="11" t="n">
         <v>2224991000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="11" t="n">
         <v>2347889913</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="11" t="n">
         <v>2333415353</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="11" t="n">
         <v>1316857899</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="11" t="n">
         <v>2541714943</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="11" t="n">
         <v>3024844467</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="11" t="n">
         <v>2710793834</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="11" t="n">
         <v>2233217471</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="11" t="n">
         <v>1338477701</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="11" t="n">
         <v>934362095</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="11" t="n">
         <v>1229718881</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="11" t="n">
         <v>1613606872</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="11" t="n">
         <v>256256382.2</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="11" t="n">
         <v>965003610.1391</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="11" t="n">
         <v>491944855.9602</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="11" t="n">
         <v>432108874.0595</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="11" t="n">
         <v>341197386.9397</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="11" t="n">
         <v>407518458.1065</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="11" t="n">
         <v>479236674.7835</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="11" t="n">
         <v>333341094.7275</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>379786063.4437</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="11" t="n">
         <v>222564038.064</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="11" t="n">
         <v>210614199.3949</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="11" t="n">
         <v>230213218.6151</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="11" t="n">
         <v>222216341.3382</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="11" t="n">
         <v>324146923.1634</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="11" t="n">
         <v>289789774.7107</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>312878649.3838</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="11" t="n">
         <v>318310661.2567</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="11" t="n">
         <v>590992119.8512</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="11" t="n">
         <v>1464155576.5723</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="11" t="n">
         <v>748292262.3522</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="11" t="n">
         <v>162344918.7376</v>
       </c>
+      <c r="AW2" s="11"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="11" t="n">
         <v>590341000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="11" t="n">
         <v>923833000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="11" t="n">
         <v>506926160</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="11" t="n">
         <v>400062592</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="11" t="n">
         <v>403456065</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="11" t="n">
         <v>355629574</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="11" t="n">
         <v>427423612</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="11" t="n">
         <v>397867969</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="11" t="n">
         <v>468050906</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="11" t="n">
         <v>557552113</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="11" t="n">
         <v>554428929</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="11" t="n">
         <v>561231563</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="11" t="n">
         <v>809979038.3111</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="11" t="n">
         <v>1485296497.2066</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="11" t="n">
         <v>1778521057.0106</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="11" t="n">
         <v>8163691613.762</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="11" t="n">
         <v>7672705938.5842</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="11" t="n">
         <v>8669795984.5413</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="11" t="n">
         <v>10848137077.8156</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="11" t="n">
         <v>5075474772.317</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="11" t="n">
         <v>4420076841.5801</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>4126748952.4405</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="11" t="n">
         <v>2777847440.1066</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="11" t="n">
         <v>2250642026.7699</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="11" t="n">
         <v>2228264178.4254</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="11" t="n">
         <v>1473711588.7223</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="11" t="n">
         <v>1542345445.8659</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="11" t="n">
         <v>1542435044.1626</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>1753128965.5719</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="11" t="n">
         <v>1939421856.5435</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="11" t="n">
         <v>3618715402.02</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="11" t="n">
         <v>31358164698.0982</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="11" t="n">
         <v>30228663110.2515</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="11" t="n">
         <v>2516687193.1465</v>
       </c>
+      <c r="AW3" s="11"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="11" t="n">
         <v>7895537000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="11" t="n">
         <v>9984736000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="11" t="n">
         <v>5631751068</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="11" t="n">
         <v>6686941724</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="11" t="n">
         <v>5662783369</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="11" t="n">
         <v>5295928289</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="11" t="n">
         <v>5748884997</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="11" t="n">
         <v>6065228099</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="11" t="n">
         <v>5318326033</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="11" t="n">
         <v>5068748837</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="11" t="n">
         <v>6585223450</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="11" t="n">
         <v>7774887487</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="11" t="n">
         <v>10211590447</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="11" t="n">
         <v>12512582120.8095</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="11" t="n">
         <v>13572791804.9392</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="11" t="n">
         <v>20780953526.0112</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="11" t="n">
         <v>24185177235.4957</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="11" t="n">
         <v>23316711150.8062</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="11" t="n">
         <v>26551940297.6589</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="11" t="n">
         <v>28430072451.6079</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="11" t="n">
         <v>22844697482.3154</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>23916994664.6706</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="11" t="n">
         <v>31059933062.3093</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="11" t="n">
         <v>22844295036.0963</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="11" t="n">
         <v>20749522875.1983</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="11" t="n">
         <v>18450716508.7696</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="11" t="n">
         <v>16592360264.4304</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="11" t="n">
         <v>18920284137.9659</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>22258279666.5481</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="11" t="n">
         <v>19973308684.8079</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="11" t="n">
         <v>20367951909.0919</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="11" t="n">
         <v>19630956220.1732</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="11" t="n">
         <v>26485005082.3797</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="11" t="n">
         <v>12008914079.0683</v>
       </c>
+      <c r="AW4" s="11"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="11" t="n">
         <v>429563000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="11" t="n">
         <v>434814115</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="11" t="n">
         <v>330980559</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="11" t="n">
         <v>337122503</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="11" t="n">
         <v>378625920</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="11" t="n">
         <v>331712362</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="11" t="n">
         <v>345727989</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="11" t="n">
         <v>443321365</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="11" t="n">
         <v>370740199</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="11" t="n">
         <v>388959077</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="11" t="n">
         <v>374593742</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="11" t="n">
         <v>476084505</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="11" t="n">
         <v>502905326.9304</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="11" t="n">
         <v>837821122.2101</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="11" t="n">
         <v>1214805406.1661</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="11" t="n">
         <v>1632008527.4902</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="11" t="n">
         <v>1735556623.755</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="11" t="n">
         <v>1907301540.6384</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="11" t="n">
         <v>1185544805.4371</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="11" t="n">
         <v>1590143499.7894</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="11" t="n">
         <v>1496508140.2991</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>1552807381.6479</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="11" t="n">
         <v>1252099033.891</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="11" t="n">
         <v>1133149360.9472</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="11" t="n">
         <v>1002054811.4853</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="11" t="n">
         <v>729866377.4363</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="11" t="n">
         <v>796482792.1449</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="11" t="n">
         <v>688345371.5456</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>926092699.603</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="11" t="n">
         <v>861686485.1605</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="11" t="n">
         <v>815195008.1399</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="11" t="n">
         <v>977604993.676</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="11" t="n">
         <v>891394362.9641</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="11" t="n">
         <v>443531158.9718</v>
       </c>
+      <c r="AW5" s="11"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="11" t="n">
         <v>88943000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="11" t="n">
         <v>98160000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="11" t="n">
         <v>853405602</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="11" t="n">
         <v>792926411</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="11" t="n">
         <v>863980392</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="11" t="n">
         <v>39708025</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="11" t="n">
         <v>79964364</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="11" t="n">
         <v>72613755</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="11" t="n">
         <v>169911552</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="11" t="n">
         <v>319976848</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="11" t="n">
         <v>188156984.09</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="11" t="n">
         <v>183042261</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="11" t="n">
         <v>253826493</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="11" t="n">
         <v>451219504</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="11" t="n">
         <v>785468427.6397</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="11" t="n">
         <v>719903216.996</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="11" t="n">
         <v>594449609.4531</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="11" t="n">
         <v>56725643.9966</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="11" t="n">
         <v>106996864.5862</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="11" t="n">
         <v>43966446.2204</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="11" t="n">
         <v>26912800.6333</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>30670101.6773</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="11" t="n">
         <v>45388652.0812</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="11" t="n">
         <v>25356231.237</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="11" t="n">
         <v>57801817.544</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="11" t="n">
         <v>192599975.6618</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="11" t="n">
         <v>150914238.2748</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="11" t="n">
         <v>135717734.8656</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>133018112.1737</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="11" t="n">
         <v>119903693.5638</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="11" t="n">
         <v>116597764.0692</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="11" t="n">
         <v>69921777.1118</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="11" t="n">
         <v>157492433.7661</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="11" t="n">
         <v>71518151.6717</v>
       </c>
+      <c r="AW6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
@@ -2384,554 +2549,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="11" t="n">
         <v>3754739296.34899</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="11" t="n">
         <v>4269934728.13199</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="11" t="n">
         <v>4395922932.93703</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="11" t="n">
         <v>4268550197.87309</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="11" t="n">
         <v>2357576274.45287</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="11" t="n">
         <v>4456051269.77588</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="11" t="n">
         <v>5205229077.88129</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="11" t="n">
         <v>4583381677.65403</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="11" t="n">
         <v>3729333988.5768</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="11" t="n">
         <v>2207655494.00972</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="11" t="n">
         <v>1509676914.25678</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="11" t="n">
         <v>1939853423.15884</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="11" t="n">
         <v>2505876352.0802</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="11" t="n">
         <v>390493298.957491</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="11" t="n">
         <v>1435422922.18899</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="11" t="n">
         <v>710198506.463559</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="11" t="n">
         <v>604146447.012002</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="11" t="n">
         <v>464307185.367801</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="11" t="n">
         <v>543228531.895304</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="11" t="n">
         <v>632403588.940737</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="11" t="n">
         <v>436086059.033302</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>487031150.179051</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="11" t="n">
         <v>280274893.080519</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="11" t="n">
         <v>260460042.404092</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="11" t="n">
         <v>279294322.02509</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="11" t="n">
         <v>266536849.98254</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="11" t="n">
         <v>385601946.498798</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="11" t="n">
         <v>338684235.243799</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>357279727.174825</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="11" t="n">
         <v>356500014.043592</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="11" t="n">
         <v>653182707.508132</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="11" t="n">
         <v>1565603395.06799</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="11" t="n">
         <v>748292262.3522</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="11" t="n">
         <v>154844320.401482</v>
       </c>
+      <c r="AW11" s="11"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="11" t="n">
         <v>1173321372.52737</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="11" t="n">
         <v>1772909018.37102</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>949111080.426413</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="11" t="n">
         <v>731840241.835943</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="11" t="n">
         <v>722309102.106174</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="11" t="n">
         <v>623478104.480953</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="11" t="n">
         <v>735521392.265836</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="11" t="n">
         <v>672710973.578238</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="11" t="n">
         <v>781615841.1784</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="11" t="n">
         <v>919614114.259477</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>895807481.046638</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>885329960.767134</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>1257869777.95199</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>2263351742.28574</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>2645513307.93552</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>11785551817.6044</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>10727477055.0656</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>11798005276.0687</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>14460737817.7719</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>6697626935.67115</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>5782467031.38943</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>5292072254.00264</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>3498143280.6588</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>2783299128.9908</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>2703326667.1217</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>1767639779.66405</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>1834758757.8354</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>1802680697.98861</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>2001918123.0659</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>2172104183.89545</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>3999515805.02956</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="11" t="n">
         <v>33530896511.2694</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="11" t="n">
         <v>30228663110.2515</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="11" t="n">
         <v>2400412166.36875</v>
       </c>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>42</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="11" t="n">
         <v>15692629022.3458</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="11" t="n">
         <v>19161502674.6759</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="11" t="n">
         <v>10544252324.3269</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="11" t="n">
         <v>12232518476.5963</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="11" t="n">
         <v>10138105051.6223</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="11" t="n">
         <v>9284647769.74025</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="11" t="n">
         <v>9892827111.68895</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="11" t="n">
         <v>10255023820.3578</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="11" t="n">
         <v>8881273003.97593</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="11" t="n">
         <v>8360282139.47691</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="11" t="n">
         <v>10639943412.6096</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="11" t="n">
         <v>12264707275.2653</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="11" t="n">
         <v>15858251140.5327</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="11" t="n">
         <v>19067152313.9587</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="11" t="n">
         <v>20189247242.4018</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="11" t="n">
         <v>30000521355.7021</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="11" t="n">
         <v>33814137534.1631</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="11" t="n">
         <v>31729775610.4391</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="11" t="n">
         <v>35394155184.7439</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="11" t="n">
         <v>37516494037.8662</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="11" t="n">
         <v>29886066411.9882</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>30670744773.3598</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="11" t="n">
         <v>39113773697.9032</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="11" t="n">
         <v>28250830527.5134</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="11" t="n">
         <v>25173289173.5544</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="11" t="n">
         <v>22130667027.2449</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="11" t="n">
         <v>19738106265.3137</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="11" t="n">
         <v>22112588238.3515</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>25416985474.4234</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="11" t="n">
         <v>22369608352.1649</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="11" t="n">
         <v>22511288268.4895</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="11" t="n">
         <v>20991137962.7331</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="11" t="n">
         <v>26485005082.3797</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="11" t="n">
         <v>11454082787.3933</v>
       </c>
+      <c r="AW13" s="11"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="11" t="n">
         <v>853770022.320953</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="11" t="n">
         <v>834442876.362411</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="11" t="n">
         <v>619690481.06065</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="11" t="n">
         <v>616703033.618945</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="11" t="n">
         <v>677855588.338533</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="11" t="n">
         <v>581547232.887498</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="11" t="n">
         <v>594937492.163039</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="11" t="n">
         <v>749563097.041328</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="11" t="n">
         <v>619113025.496488</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="11" t="n">
         <v>641540492.338765</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="11" t="n">
         <v>605242365.40488</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="11" t="n">
         <v>751012423.250847</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="11" t="n">
         <v>780994793.6873</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="11" t="n">
         <v>1276703944.46117</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="11" t="n">
         <v>1806997930.04771</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="11" t="n">
         <v>2356056791.15609</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="11" t="n">
         <v>2426542084.12612</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="11" t="n">
         <v>2595488253.66002</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="11" t="n">
         <v>1580349923.64786</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="11" t="n">
         <v>2098362894.80954</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="11" t="n">
         <v>1957773426.48912</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>1991293619.97405</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="11" t="n">
         <v>1576768313.07809</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="11" t="n">
         <v>1401330638.91429</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="11" t="n">
         <v>1215691352.95261</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="11" t="n">
         <v>875436450.706236</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="11" t="n">
         <v>947487984.789697</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="11" t="n">
         <v>804485686.143577</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>1057515901.7862</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="11" t="n">
         <v>965067405.685035</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="11" t="n">
         <v>900978650.439534</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="11" t="n">
         <v>1045340892.47379</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="11" t="n">
         <v>891394362.9641</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="11" t="n">
         <v>423039300.656372</v>
       </c>
+      <c r="AW14" s="11"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="11" t="n">
         <v>176777020.123457</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="11" t="n">
         <v>188376848.676438</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="11" t="n">
         <v>1597819913.17271</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="11" t="n">
         <v>1450511664.89554</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="11" t="n">
         <v>1546787755.39751</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="11" t="n">
         <v>69614807.0061302</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="11" t="n">
         <v>137604705.705711</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="11" t="n">
         <v>122774572.53972</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="11" t="n">
         <v>283741701.896006</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="11" t="n">
         <v>527762730.686772</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="11" t="n">
         <v>304010893.268153</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="11" t="n">
         <v>288744982.344939</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="11" t="n">
         <v>394183873.02217</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="11" t="n">
         <v>687585577.999012</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="11" t="n">
         <v>1168368049.44932</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="11" t="n">
         <v>1039291667.17465</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="11" t="n">
         <v>831120675.918614</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="11" t="n">
         <v>77193217.5051856</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="11" t="n">
         <v>142628508.010727</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="11" t="n">
         <v>58018385.9995937</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="11" t="n">
         <v>35208071.7060072</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>39330813.6706238</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="11" t="n">
         <v>57157929.5549494</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="11" t="n">
         <v>31357264.0504357</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="11" t="n">
         <v>70125075.9616918</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="11" t="n">
         <v>231013572.226362</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="11" t="n">
         <v>179526072.514382</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="11" t="n">
         <v>158616560.186998</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>151894911.718417</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="11" t="n">
         <v>134289150.952758</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="11" t="n">
         <v>128867442.840507</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="11" t="n">
         <v>74766488.8807093</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="11" t="n">
         <v>157492433.7661</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="11" t="n">
         <v>68213897.1646768</v>
       </c>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3085,89 +3328,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>3231731618.09</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="2" t="n">
         <v>3812954846</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="2" t="n">
         <v>5281950979.2415</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="2" t="n">
         <v>7730994673.9821</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="2" t="n">
         <v>8841237666.2745</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="2" t="n">
         <v>18576306258.0933</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="2" t="n">
         <v>20160233468.2214</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="2" t="n">
         <v>21127357776.2181</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="2" t="n">
         <v>23115944199.4031</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="2" t="n">
         <v>16246412581.5096</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>15810048131.7744</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="2" t="n">
         <v>15421728885.6504</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="2" t="n">
         <v>13330137081.8715</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="2" t="n">
         <v>11912698410.6653</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="2" t="n">
         <v>15150245474.8841</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="2" t="n">
         <v>14449186882.6444</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="2" t="n">
         <v>13874270370.8504</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>14619395779.5578</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="2" t="n">
         <v>17627529189.1996</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="2" t="n">
         <v>16737538619.8948</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="2" t="n">
         <v>19627140118.8153</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="2" t="n">
         <v>44824536995.1949</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="2" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="2" t="n">
         <v>9776108630.3346</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3185,89 +3428,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>3867172348</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="2" t="n">
         <v>4793771907</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="2" t="n">
         <v>5982434518</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="2" t="n">
         <v>6737871820.6396</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="2" t="n">
         <v>7454215863.1515</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="2" t="n">
         <v>11867070482.5609</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="2" t="n">
         <v>13547520958.845</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="2" t="n">
         <v>12063425081.4161</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="2" t="n">
         <v>14901437616.8281</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="2" t="n">
         <v>18552748295.3185</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>12503494324.5602</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="2" t="n">
         <v>14004822873.7905</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="2" t="n">
         <v>21578178999.083</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="2" t="n">
         <v>14179757511.9419</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="2" t="n">
         <v>8748283143.6861</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="2" t="n">
         <v>6424190470.4862</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="2" t="n">
         <v>5064511735.4566</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>6586632602.9288</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="2" t="n">
         <v>7300405322.4193</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="2" t="n">
         <v>6124733385.5651</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="2" t="n">
         <v>5270353073.0496</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="2" t="n">
         <v>5881643425.5445</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="2" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="2" t="n">
         <v>5315021154.0348</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3285,89 +3528,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>13308850</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="2" t="n">
         <v>21168463</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="2" t="n">
         <v>35646463</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="2" t="n">
         <v>26260225.0938</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="2" t="n">
         <v>21301234.4687</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="2" t="n">
         <v>100080424</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="2" t="n">
         <v>78752737</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="2" t="n">
         <v>14627137.9375</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="2" t="n">
         <v>186468402.3106</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="2" t="n">
         <v>13271019.9576</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>27115107.0589</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="2" t="n">
         <v>15297739.9783</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="2" t="n">
         <v>4202802.6717</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="2" t="n">
         <v>26937521.885</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="2" t="n">
         <v>5430959.5516</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="2" t="n">
         <v>9631482.8865</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="2" t="n">
         <v>11533251.3814</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>409162.7537</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="2" t="n">
         <v>-683448.5598</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="2" t="n">
         <v>-926041.8509</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="2" t="n">
         <v>-286436.3467</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="2" t="n">
         <v>5160064.13</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="2" t="n">
         <v>600000</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3385,89 +3628,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>27192491</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="2" t="n">
         <v>38013886</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="2" t="n">
         <v>26618774</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="2" t="n">
         <v>57444974</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="2" t="n">
         <v>36817459</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="2" t="n">
         <v>73757462.04</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="2" t="n">
         <v>94946462.8691</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="2" t="n">
         <v>112141706.2403</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="2" t="n">
         <v>56714274.0259</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="2" t="n">
         <v>14745532.3344</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>46239552.4833</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="2" t="n">
         <v>128128965.0707</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="2" t="n">
         <v>92880505.6119</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="2" t="n">
         <v>69908011.43</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="2" t="n">
         <v>18500060.43</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="2" t="n">
         <v>4335306.9007</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="2" t="n">
         <v>41074974.6011</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>53286671.5322</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="2" t="n">
         <v>74120297.7227</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="2" t="n">
         <v>18804604.8093</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="2" t="n">
         <v>33607502.4277</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="2" t="n">
         <v>92581.7795</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="2" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="2" t="n">
         <v>8657385.0996</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3485,89 +3728,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>980649600</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="2" t="n">
         <v>1299225567</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="2" t="n">
         <v>1687510321</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="2" t="n">
         <v>276779001</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="2" t="n">
         <v>1052342495</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="2" t="n">
         <v>317292194</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="2" t="n">
         <v>308483431.79</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="2" t="n">
         <v>209516318.5411</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="2" t="n">
         <v>138082537.9982</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="2" t="n">
         <v>96862252.3626</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>163976967.5597</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="2" t="n">
         <v>184806659.5081</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="2" t="n">
         <v>235769398.9436</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="2" t="n">
         <v>211690145.2669</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="2" t="n">
         <v>195038154.2248</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="2" t="n">
         <v>141905384.4047</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="2" t="n">
         <v>287180709.8184</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>217723841.2498</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="2" t="n">
         <v>343471582.0598</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="2" t="n">
         <v>231111212.2329</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="2" t="n">
         <v>255176607.2125</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="2" t="n">
         <v>254553066.377</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="2" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="2" t="n">
         <v>46341518.5704</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3585,89 +3828,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>28080419</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="2" t="n">
         <v>41682083</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="2" t="n">
         <v>12774421</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="2" t="n">
         <v>27099676</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="2" t="n">
         <v>23263145</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="2" t="n">
         <v>114122216.7656</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="2" t="n">
         <v>85051998.333</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="2" t="n">
         <v>216405827.4976</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="2" t="n">
         <v>253846636.0665</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="2" t="n">
         <v>299230424.5468</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>569526219.0317</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="2" t="n">
         <v>252099898.7514</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="2" t="n">
         <v>116797427.5198</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="2" t="n">
         <v>62256743.9662</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="2" t="n">
         <v>144282477.1119</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="2" t="n">
         <v>28738791.4791</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="2" t="n">
         <v>126968740.402</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>86231194.678</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="2" t="n">
         <v>38555150.4389</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="2" t="n">
         <v>101369600.6812</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="2" t="n">
         <v>323461338.0138</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="2" t="n">
         <v>2534817132.6056</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="2" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="2" t="n">
         <v>56866813.5565</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3685,65 +3928,65 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2" t="n">
         <v>29458</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="2" t="n">
         <v>1481741</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="2" t="n">
         <v>19688033.039</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="2" t="n">
         <v>545671910.1715</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="2" t="n">
         <v>419626804.6265</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="2" t="n">
         <v>369797748.2104</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>484142.0236</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="2" t="n">
         <v>140427.3608</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-178790.0492</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-611827.46</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-149735.36</v>
       </c>
-      <c r="AO8" s="11" t="n">
+      <c r="AO8" s="2" t="n">
         <v>-4.69</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3759,109 +4002,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="2" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="2" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="2" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="2" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="2" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="2" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="2" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="2" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="2" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="2" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="2" t="n">
         <v>488629874</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="2" t="n">
         <v>218147945</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="2" t="n">
         <v>364972701</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="2" t="n">
         <v>686725255.7107</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="2" t="n">
         <v>887382985</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="2" t="n">
         <v>738390961.7598</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="2" t="n">
         <v>325321191.25</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="2" t="n">
         <v>2585948.9</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="2" t="n">
         <v>28017032.3454</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="2" t="n">
         <v>25825990.4783</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>651915.0636</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="2" t="n">
         <v>-18286.2302</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="2" t="n">
         <v>44800.7998</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="2" t="n">
         <v>1420336.75</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="2" t="n">
         <v>6226366.7396</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="2" t="n">
         <v>11122477.8166</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="2" t="n">
         <v>709881.3695</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>12892810.5501</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3876,107 +4119,107 @@
       <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4113,89 +4356,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>5221605888.13716</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="2" t="n">
         <v>6014849104.65742</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="2" t="n">
         <v>8202689441.52595</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="2" t="n">
         <v>11780786057.1055</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="2" t="n">
         <v>13151158268.5808</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="2" t="n">
         <v>26817771952.015</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="2" t="n">
         <v>28186723652.1537</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="2" t="n">
         <v>28750466442.0774</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="2" t="n">
         <v>30813918194.4338</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="2" t="n">
         <v>21438863435.4834</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>20683143158.657</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="2" t="n">
         <v>19776561279.8513</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="2" t="n">
         <v>16786641623.9979</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="2" t="n">
         <v>14732064324.7389</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="2" t="n">
         <v>18380254460.9569</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="2" t="n">
         <v>17331042052.6082</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="2" t="n">
         <v>16504693640.2776</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>17086037229.1222</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="2" t="n">
         <v>20129078260.4918</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="2" t="n">
         <v>18745626456.5253</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="2" t="n">
         <v>21692520243.2092</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="2" t="n">
         <v>47930321357.1871</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="2" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="2" t="n">
         <v>9324436568.79678</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4213,89 +4456,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>6248306570.3</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="2" t="n">
         <v>7562065596.71146</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="2" t="n">
         <v>9290516448.99322</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="2" t="n">
         <v>10267427381.1483</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="2" t="n">
         <v>11087992007.9989</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="2" t="n">
         <v>17131952150.1296</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="2" t="n">
         <v>18941260280.5742</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="2" t="n">
         <v>16416113252.4662</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="2" t="n">
         <v>19863851363.5215</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="2" t="n">
         <v>24482317869.2949</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>16357417823.3263</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="2" t="n">
         <v>17959545251.4207</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="2" t="n">
         <v>27173400808.3605</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="2" t="n">
         <v>17535665940.1454</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="2" t="n">
         <v>10613403627.2888</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="2" t="n">
         <v>7705479630.25479</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="2" t="n">
         <v>6024692643.07542</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>7697954933.64744</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="2" t="n">
         <v>8336416776.90857</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="2" t="n">
         <v>6859548873.87943</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="2" t="n">
         <v>5824956668.87249</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="2" t="n">
         <v>6289168352.70277</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="2" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="2" t="n">
         <v>5069458563.38283</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4313,89 +4556,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>21503508.8728704</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="2" t="n">
         <v>33392766.4672176</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="2" t="n">
         <v>55357739.3707342</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="2" t="n">
         <v>40016337.7013611</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="2" t="n">
         <v>31685145.9476787</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="2" t="n">
         <v>144481575.099121</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="2" t="n">
         <v>110106940.882842</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="2" t="n">
         <v>19904857.1463634</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="2" t="n">
         <v>248565321.194796</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="2" t="n">
         <v>17512517.4922847</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>35472734.5791196</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="2" t="n">
         <v>19617560.026333</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="2" t="n">
         <v>5292589.40346198</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="2" t="n">
         <v>33312797.1076302</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="2" t="n">
         <v>6588831.75794458</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="2" t="n">
         <v>11552458.7155425</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="2" t="n">
         <v>13719840.8015922</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>478198.288623103</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="2" t="n">
         <v>-780437.768650167</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="2" t="n">
         <v>-1037143.81273761</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="2" t="n">
         <v>-316578.27944195</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="2" t="n">
         <v>5517592.56322283</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="2" t="n">
         <v>600000</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4413,89 +4656,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>43935724.8367777</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="2" t="n">
         <v>59966036.1599911</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="2" t="n">
         <v>41338046.7358143</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="2" t="n">
         <v>87536853.5729968</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="2" t="n">
         <v>54765209.1972334</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="2" t="n">
         <v>106480307.186277</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="2" t="n">
         <v>132747952.292286</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="2" t="n">
         <v>152604333.97158</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="2" t="n">
         <v>75601021.7543228</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="2" t="n">
         <v>19458292.8640196</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>60491864.1381131</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="2" t="n">
         <v>164310392.70846</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="2" t="n">
         <v>116964420.694749</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="2" t="n">
         <v>86453067.6172657</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="2" t="n">
         <v>22444244.8018541</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="2" t="n">
         <v>5199973.31457058</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="2" t="n">
         <v>48862380.0713627</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>62277406.490921</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="2" t="n">
         <v>84638820.1963844</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="2" t="n">
         <v>21060689.11463</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="2" t="n">
         <v>37144047.5954878</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="2" t="n">
         <v>98996.5483353664</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="2" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="2" t="n">
         <v>8257399.87814596</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4513,89 +4756,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>1584465027.01412</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="2" t="n">
         <v>2049498631.38714</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="2" t="n">
         <v>2620645883.86629</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="2" t="n">
         <v>421766452.233355</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="2" t="n">
         <v>1565337708.01004</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="2" t="n">
         <v>458060369.086523</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="2" t="n">
         <v>431301416.069357</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="2" t="n">
         <v>285113356.297872</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="2" t="n">
         <v>184066200.941349</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="2" t="n">
         <v>127820008.881133</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>214519213.761501</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="2" t="n">
         <v>236992898.382963</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="2" t="n">
         <v>296904404.033026</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="2" t="n">
         <v>261790631.263964</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="2" t="n">
         <v>236619988.117692</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="2" t="n">
         <v>170208068.079142</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="2" t="n">
         <v>341627307.833675</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>254459056.540714</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="2" t="n">
         <v>392214148.751643</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="2" t="n">
         <v>258838802.575376</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="2" t="n">
         <v>282029051.815049</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="2" t="n">
         <v>272190436.126867</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="2" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="2" t="n">
         <v>44200465.3130193</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4613,89 +4856,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>45370376.7884092</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="2" t="n">
         <v>65752533.0717767</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="2" t="n">
         <v>19838239.444122</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="2" t="n">
         <v>41295525.1731449</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="2" t="n">
         <v>34603447.3077182</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="2" t="n">
         <v>164753075.307686</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="2" t="n">
         <v>118914157.261851</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="2" t="n">
         <v>294488716.821146</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="2" t="n">
         <v>338381569.457471</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="2" t="n">
         <v>394866262.038784</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>745069984.775513</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="2" t="n">
         <v>323288597.100188</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="2" t="n">
         <v>147083000.447621</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="2" t="n">
         <v>76990982.6591199</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="2" t="n">
         <v>175043278.867678</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="2" t="n">
         <v>34470673.5202989</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="2" t="n">
         <v>151040747.09613</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>100780458.01593</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="2" t="n">
         <v>44026569.5889562</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="2" t="n">
         <v>113531428.459751</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="2" t="n">
         <v>357499441.094498</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="2" t="n">
         <v>2710448515.29674</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="2" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="2" t="n">
         <v>54239474.6138402</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4713,65 +4956,65 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2" t="n">
         <v>43818.1660644235</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="2" t="n">
         <v>2139122.36791629</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="2" t="n">
         <v>27526523.8073517</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="2" t="n">
         <v>742559581.181015</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="2" t="n">
         <v>559369148.775092</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="2" t="n">
         <v>487987325.377611</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>633368.013795973</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="2" t="n">
         <v>180081.644984246</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-225150.308914601</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-756628.027138834</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-181658.707983677</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="2" t="n">
         <v>-5.62540908958447</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4787,109 +5030,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="2" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="2" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="2" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="2" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="2" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="2" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="2" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="2" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="2" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="2" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="2" t="n">
         <v>789493970.636724</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="2" t="n">
         <v>344123396.332007</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="2" t="n">
         <v>566790137.338196</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="2" t="n">
         <v>1046458270.7275</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="2" t="n">
         <v>1319963846.81492</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="2" t="n">
         <v>1065981586.90865</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="2" t="n">
         <v>454842873.243877</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="2" t="n">
         <v>3519003.07922392</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="2" t="n">
         <v>37347145.9913048</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="2" t="n">
         <v>34080131.8551102</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>852853.354736148</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="2" t="n">
         <v>-23449.9487579673</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="2" t="n">
         <v>56417.6471773755</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="2" t="n">
         <v>1756486.36794642</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="2" t="n">
         <v>7553818.53256489</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="2" t="n">
         <v>13340828.956973</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="2" t="n">
         <v>844467.796242034</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>15068135.8086669</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -4898,41 +5141,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -406,6 +407,24 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +433,7 @@
   <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -422,7 +441,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -462,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -471,7 +490,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,6 +1626,1492 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>30111000</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>13597000</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>13953771</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>18674971</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>42598531</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>45034796</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>38378094</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>140240126</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>104833252</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>120269918</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>141621032</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>167387698</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>194914548</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>237972736.0938</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>241431334.4687</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>331749108</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>404721717.5</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>469941277.8006</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>482143127.9571</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>528644654.4707</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>396200149.9131</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>501762224.2915</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>507418922.0973</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>394639030.7921</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>396679796.2526</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>301457763.5519</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>399023693.5743</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>394228159.2218</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>429151483.6875</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>402214113.6291</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>338949686.6452</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>649316901.6449</v>
+      </c>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>2386958000</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>3052712759</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>1785408612</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>2036876584</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>1953315555</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>1586935646</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>1743108770</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>2647311646</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>2270709689</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>1940590999</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>3133656618</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>4062921511</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>5169493214</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>6228573372.4502</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>7634483501.0547</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>11742663745.0583</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>14279347084.8851</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>15015419478.4793</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>16952180190.0343</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>19104333637.2515</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>15191581860.7486</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>13502128191.8373</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>19189440407.5008</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>12093074783.4167</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>13408759456.7059</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>11643235519.9765</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>10383241927.8079</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>11689270480.4705</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>13020552578.0978</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>11275509790.0348</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>13498424312.4525</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>40683543570.2329</v>
+      </c>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>1514879000</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>5061698635</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>2779829427</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>3157075187</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>3089117240</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>2523714645</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>2593563710</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>2433131791</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>2130508612</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>2453757306</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>2563949881</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>2513692582</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>3563182403.5504</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>4640874065.7626</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>4895682262.3031</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>7234220100.7696</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>8114091212.4568</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>7216050188.7755</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>7586750187.9684</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>7961068076.951</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>7128085345.8921</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>9454266224.1367</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>9323941716.9613</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>8964332856.345</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>5514468423.9351</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>4402268896.9698</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>4138831671.977</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>4640103344.2329</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>5684913156.6925</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>5609980227.5824</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>5147249085.2793</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>5515797498.7466</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>49845405279.3271</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>11863760347.607</v>
+      </c>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>1006760000</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>3161122535</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>1950037131</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>2368032827</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>2157678428</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>1908689506</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>2275561588</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>1883768354</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>1800449147</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>1796077489</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>1918370553.09</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>2272684343</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>2934764489.7609</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>4071480478.1196</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>4282550881.0214</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>6364720590.1493</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>5945017942.8345</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>5855269353.1367</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>6325647361.5496</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>6024291082.1388</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>5417815454.5495</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>5703934233.6115</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>5731674007.7387</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>4484391983.9015</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>4747438138.7546</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>4658892052.807</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>4388412075.616</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>4701329502.2627</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>6249653182.7191</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>5906922462.5278</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>6160395685.7298</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>6413309738.5881</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>8665441972.3865</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>3339235153.9889</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>5954823000</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>2377403186</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>3141724361</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>2969809014</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>1382993891</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>2500318600</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>2976233267</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>2585373105</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>2253745461</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>1363018864</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>879167116</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>1208278563</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>1529553521.9302</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>364274974</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>1262442327.0468</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>6115148196.2424</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>5876820323.6711</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>5735051408.7301</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>7753416636.0949</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>2000556393.9062</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>987853548.4521</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>844916290.003</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>605357172.154</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>527618199.99</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>200511085.6199</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>63256558.623</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>96740294.9042</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>151640577.0625</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>-872307.916400002</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>18004787.5583</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>364433433.0654</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>238835556.419</v>
+      </c>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="12" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="12" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="12" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="12" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="12" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="12" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="12" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="12" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="12" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="12" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="12" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="12" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="12" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="12" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="12" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="12" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="12" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="12" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="12" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>59846563.0003195</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>26093724.6480596</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>26125459.1197912</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>34162392.5011195</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>76264330.4857793</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>78953527.2051542</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>66041997.5380048</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>237116528.715069</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>175064996.980152</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>198370540.680975</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>228821357.081721</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>264050267.078869</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>302695634.84457</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>362631978.104967</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>359124119.319196</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>478931161.018745</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>565855510.809417</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>639504053.477134</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>642704393.760483</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>697602655.123667</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>518320017.234147</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>643451292.017498</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>638992648.47521</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>488037838.805418</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>481251317.460856</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>361582781.068372</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>474674605.699799</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>460743871.142103</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>490053013.55817</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>450469791.339063</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>374617641.412355</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>694306508.10357</v>
+      </c>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>4744154373.0237</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>5858398629.32737</v>
+      </c>
+      <c r="N12" s="12" t="n">
+        <v>3342796703.83936</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>3726087571.37815</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>3497029111.86147</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>2782163523.05204</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>2999585781.8477</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>4476046662.46874</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>3791943655.88874</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>3200767840.48579</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>5063143163.36063</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>6409165804.40715</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>8028046373.61612</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>9491338881.49797</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>11356136393.0109</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>16952351778.0596</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>19964451842.747</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>20433237246.3383</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>22597523557.2037</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>25210193193.1172</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>19874048441.436</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>17314898191.6508</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>24165262300.555</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>14955130185.5902</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>16267486307.637</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>13965450517.3238</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>12351801026.6979</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>13661529766.4949</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>14868318697.7766</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>12628290182.3837</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>14918874623.4404</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>43502408457.2121</v>
+      </c>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>3010869832.0003</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>9713802341.18916</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>5204637517.34791</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>5775282954.5941</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>5530459679.48233</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>4424493737.73234</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>4463070212.67077</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>4113913618.33345</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>3557816595.50127</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>4047172988.76941</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>4142650868.83379</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>3965292584.59168</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>5533500555.89328</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>7071941812.44436</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>7282226164.98913</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>10443715893.6588</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>11344593159.3205</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>9819723365.04226</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>10113257656.1463</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>10505473158.8307</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>9325158812.12973</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>12123989257.2383</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>11741639801.9291</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>11085912168.2968</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>6690144593.15978</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>5280290718.08292</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>4923512873.02117</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>5422999669.89031</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>6491667698.11821</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>6283038155.30873</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>5688898347.05071</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>5897973841.5242</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>49845405279.3271</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>11315635393.5566</v>
+      </c>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>2000967279.93762</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>6066445613.52255</v>
+      </c>
+      <c r="N14" s="12" t="n">
+        <v>3651028481.69255</v>
+      </c>
+      <c r="O14" s="12" t="n">
+        <v>4331876439.94251</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>3862900829.02222</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>3346251836.87217</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>3915844095.65192</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>3185055702.27297</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>3006637860.30859</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>2962410455.77047</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>3099568949.21982</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>3585107597.06554</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>4557589002.27127</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>6204278035.50699</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>6370205909.56408</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>9188458833.17376</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>8311936373.45089</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>7967949746.94724</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>8432187698.85501</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>7949690626.01347</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>7087736338.28622</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>7314627675.25509</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>7217897076.56817</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>5545708359.8317</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>5759584633.30634</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>5588096738.00711</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>5220411231.67886</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>5494556143.99275</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>7136550827.15518</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>6615606063.99967</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>6808659198.94081</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>6857672545.87943</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>8665441972.3865</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>3184957078.42806</v>
+      </c>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>11835398685.7046</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>4562425837.5306</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>5882208569.92406</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>5432714256.40396</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>2475979821.06561</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>4383476559.029</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>5121577691.99643</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>4371321629.38088</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>3763614452.44487</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>2248133145.06499</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>1420496728.0901</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>1906031811.64378</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>2375344370.64908</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>555096170.107853</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>1877856865.13999</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>8828162472.18985</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>8216586909.95764</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>7804355131.23585</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>10335426660.1042</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>2639946210.20223</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>1292337391.51994</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>1083506195.0244</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>762326286.74808</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>652489049.34894</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>243259740.051484</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>75872925.3419311</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>115081289.85424</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>177225966.394476</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>-996098.439435316</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>20164913.7105386</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>402783063.462971</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>255383897.705678</v>
+      </c>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3330,89 +4835,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>3231731618.09</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>3812954846</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>5281950979.2415</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>7730994673.9821</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>8841237666.2745</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>18576306258.0933</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>20160233468.2214</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>21127357776.2181</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>23115944199.4031</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>16246412581.5096</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>15810048131.7744</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>15421728885.6504</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>13330137081.8715</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>11912698410.6653</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>15150245474.8841</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>14449186882.6444</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>13874270370.8504</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>14619395779.5578</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>17627529189.1996</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>16737538619.8948</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>19627140118.8153</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>44824536995.1949</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>9776108630.3346</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3430,89 +4935,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>3867172348</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>4793771907</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>5982434518</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>6737871820.6396</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>7454215863.1515</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>11867070482.5609</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>13547520958.845</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>12063425081.4161</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>14901437616.8281</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>18552748295.3185</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>12503494324.5602</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>14004822873.7905</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>21578178999.083</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>14179757511.9419</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>8748283143.6861</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>6424190470.4862</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>5064511735.4566</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>6586632602.9288</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>7300405322.4193</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>6124733385.5651</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>5270353073.0496</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>5881643425.5445</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>5315021154.0348</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3530,89 +5035,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>13308850</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>21168463</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>35646463</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>26260225.0938</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>21301234.4687</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>100080424</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>78752737</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>14627137.9375</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>186468402.3106</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>13271019.9576</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>27115107.0589</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>15297739.9783</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>4202802.6717</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>26937521.885</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>5430959.5516</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>9631482.8865</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>11533251.3814</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>409162.7537</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>-683448.5598</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>-926041.8509</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>-286436.3467</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>5160064.13</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3630,89 +5135,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>27192491</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>38013886</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>26618774</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>57444974</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>36817459</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>73757462.04</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>94946462.8691</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>112141706.2403</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>56714274.0259</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>14745532.3344</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>46239552.4833</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>128128965.0707</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>92880505.6119</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>69908011.43</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>18500060.43</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>4335306.9007</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>41074974.6011</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>53286671.5322</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>74120297.7227</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>18804604.8093</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>33607502.4277</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>92581.7795</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>8657385.0996</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3730,89 +5235,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>980649600</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>1299225567</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>1687510321</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>276779001</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>1052342495</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>317292194</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>308483431.79</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>209516318.5411</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>138082537.9982</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>96862252.3626</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>163976967.5597</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>184806659.5081</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>235769398.9436</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>211690145.2669</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>195038154.2248</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>141905384.4047</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>287180709.8184</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>217723841.2498</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>343471582.0598</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>231111212.2329</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>255176607.2125</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>254553066.377</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>46341518.5704</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3830,89 +5335,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>28080419</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>41682083</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>12774421</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>27099676</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>23263145</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>114122216.7656</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>85051998.333</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>216405827.4976</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>253846636.0665</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>299230424.5468</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>569526219.0317</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>252099898.7514</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>116797427.5198</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>62256743.9662</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>144282477.1119</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>28738791.4791</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>126968740.402</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>86231194.678</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>38555150.4389</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>101369600.6812</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>323461338.0138</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>2534817132.6056</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>56866813.5565</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3930,65 +5435,65 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="n">
         <v>29458</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>1481741</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>19688033.039</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>545671910.1715</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>419626804.6265</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>369797748.2104</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>484142.0236</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>140427.3608</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-178790.0492</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-611827.46</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-149735.36</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-4.69</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4004,109 +5509,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>488629874</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>218147945</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>364972701</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>686725255.7107</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>887382985</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>738390961.7598</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>325321191.25</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>2585948.9</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>28017032.3454</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>25825990.4783</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>651915.0636</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-18286.2302</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>44800.7998</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>1420336.75</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>6226366.7396</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>11122477.8166</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>709881.3695</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>12892810.5501</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4121,107 +5626,107 @@
       <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4358,89 +5863,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>5221605888.13716</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>6014849104.65742</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>8202689441.52595</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>11780786057.1055</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>13151158268.5808</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>26817771952.015</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>28186723652.1537</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>28750466442.0774</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>30813918194.4338</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>21438863435.4834</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>20683143158.657</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>19776561279.8513</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>16786641623.9979</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>14732064324.7389</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>18380254460.9569</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>17331042052.6082</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>16504693640.2776</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>17086037229.1222</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>20129078260.4918</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>18745626456.5253</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>21692520243.2092</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>47930321357.1871</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>46048669215.5635</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>9324436568.79678</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4458,89 +5963,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>6248306570.3</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>7562065596.71146</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>9290516448.99322</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>10267427381.1483</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>11087992007.9989</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>17131952150.1296</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>18941260280.5742</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>16416113252.4662</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>19863851363.5215</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>24482317869.2949</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>16357417823.3263</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>17959545251.4207</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>27173400808.3605</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>17535665940.1454</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>10613403627.2888</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>7705479630.25479</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>6024692643.07542</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>7697954933.64744</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>8336416776.90857</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>6859548873.87943</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>5824956668.87249</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>6289168352.70277</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>12090182374.6508</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>5069458563.38283</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4558,89 +6063,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>21503508.8728704</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>33392766.4672176</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>55357739.3707342</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>40016337.7013611</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>31685145.9476787</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>144481575.099121</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>110106940.882842</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>19904857.1463634</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>248565321.194796</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>17512517.4922847</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>35472734.5791196</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>19617560.026333</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>5292589.40346198</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>33312797.1076302</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>6588831.75794458</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>11552458.7155425</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>13719840.8015922</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>478198.288623103</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>-780437.768650167</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>-1037143.81273761</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>-316578.27944195</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>5517592.56322283</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4658,89 +6163,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>43935724.8367777</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>59966036.1599911</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>41338046.7358143</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>87536853.5729968</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>54765209.1972334</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>106480307.186277</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>132747952.292286</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>152604333.97158</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>75601021.7543228</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>19458292.8640196</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>60491864.1381131</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>164310392.70846</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>116964420.694749</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>86453067.6172657</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>22444244.8018541</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>5199973.31457058</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>48862380.0713627</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>62277406.490921</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>84638820.1963844</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>21060689.11463</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>37144047.5954878</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>98996.5483353664</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>8257399.87814596</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4758,89 +6263,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>1584465027.01412</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>2049498631.38714</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>2620645883.86629</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>421766452.233355</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>1565337708.01004</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>458060369.086523</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>431301416.069357</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>285113356.297872</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>184066200.941349</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>127820008.881133</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>214519213.761501</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>236992898.382963</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>296904404.033026</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>261790631.263964</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>236619988.117692</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>170208068.079142</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>341627307.833675</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>254459056.540714</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>392214148.751643</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>258838802.575376</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>282029051.815049</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>272190436.126867</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>177972090.7596</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>44200465.3130193</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4858,89 +6363,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>45370376.7884092</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>65752533.0717767</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>19838239.444122</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>41295525.1731449</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>34603447.3077182</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>164753075.307686</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>118914157.261851</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>294488716.821146</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>338381569.457471</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>394866262.038784</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>745069984.775513</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>323288597.100188</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>147083000.447621</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>76990982.6591199</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>175043278.867678</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>34470673.5202989</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>151040747.09613</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>100780458.01593</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>44026569.5889562</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>113531428.459751</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>357499441.094498</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>2710448515.29674</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>193420511.3397</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>54239474.6138402</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4958,65 +6463,65 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="n">
         <v>43818.1660644235</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>2139122.36791629</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>27526523.8073517</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>742559581.181015</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>559369148.775092</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>487987325.377611</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>633368.013795973</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>180081.644984246</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-225150.308914601</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-756628.027138834</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-181658.707983677</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-5.62540908958447</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5032,109 +6537,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>789493970.636724</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>344123396.332007</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>566790137.338196</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>1046458270.7275</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>1319963846.81492</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1065981586.90865</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>454842873.243877</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>3519003.07922392</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>37347145.9913048</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>34080131.8551102</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>852853.354736148</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-23449.9487579673</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>56417.6471773755</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1756486.36794642</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>7553818.53256489</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>13340828.956973</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>844467.796242034</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>15068135.8086669</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5143,41 +6648,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -442,6 +442,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -477,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -491,6 +492,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,106 +1756,106 @@
       <c r="K2" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="13" t="n">
         <v>30111000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="13" t="n">
         <v>13597000</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="13" t="n">
         <v>13953771</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="13" t="n">
         <v>18674971</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="n">
         <v>42598531</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="13" t="n">
         <v>45034796</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="n">
         <v>38378094</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="13" t="n">
         <v>140240126</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="n">
         <v>104833252</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="13" t="n">
         <v>120269918</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="13" t="n">
         <v>141621032</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="13" t="n">
         <v>167387698</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="13" t="n">
         <v>194914548</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="13" t="n">
         <v>237972736.0938</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="13" t="n">
         <v>241431334.4687</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="13" t="n">
         <v>331749108</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="13" t="n">
         <v>404721717.5</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="13" t="n">
         <v>469941277.8006</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="13" t="n">
         <v>482143127.9571</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="13" t="n">
         <v>528644654.4707</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="13" t="n">
         <v>396200149.9131</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="13" t="n">
         <v>501762224.2915</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="13" t="n">
         <v>507418922.0973</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="13" t="n">
         <v>394639030.7921</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>396679796.2526</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="13" t="n">
         <v>301457763.5519</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="13" t="n">
         <v>399023693.5743</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="13" t="n">
         <v>394228159.2218</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="13" t="n">
         <v>429151483.6875</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="13" t="n">
         <v>402214113.6291</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="13" t="n">
         <v>338949686.6452</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>649316901.6449</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1862,106 +1864,106 @@
       <c r="K3" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>2386958000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>3052712759</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="13" t="n">
         <v>1785408612</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="13" t="n">
         <v>2036876584</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="13" t="n">
         <v>1953315555</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="13" t="n">
         <v>1586935646</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="13" t="n">
         <v>1743108770</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>2647311646</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="13" t="n">
         <v>2270709689</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="13" t="n">
         <v>1940590999</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="13" t="n">
         <v>3133656618</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="13" t="n">
         <v>4062921511</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="13" t="n">
         <v>5169493214</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="13" t="n">
         <v>6228573372.4502</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="13" t="n">
         <v>7634483501.0547</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="13" t="n">
         <v>11742663745.0583</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>14279347084.8851</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="13" t="n">
         <v>15015419478.4793</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="13" t="n">
         <v>16952180190.0343</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="13" t="n">
         <v>19104333637.2515</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="13" t="n">
         <v>15191581860.7486</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="13" t="n">
         <v>13502128191.8373</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="13" t="n">
         <v>19189440407.5008</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="13" t="n">
         <v>12093074783.4167</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>13408759456.7059</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="13" t="n">
         <v>11643235519.9765</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="13" t="n">
         <v>10383241927.8079</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="13" t="n">
         <v>11689270480.4705</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="13" t="n">
         <v>13020552578.0978</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="13" t="n">
         <v>11275509790.0348</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="13" t="n">
         <v>13498424312.4525</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>40683543570.2329</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1970,110 +1972,110 @@
       <c r="K4" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="13" t="n">
         <v>1514879000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>5061698635</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>2779829427</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>3157075187</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>3089117240</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>2523714645</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>2593563710</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>2433131791</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="13" t="n">
         <v>2130508612</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>2453757306</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>2563949881</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>2513692582</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>3563182403.5504</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>4640874065.7626</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="13" t="n">
         <v>4895682262.3031</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="13" t="n">
         <v>7234220100.7696</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>8114091212.4568</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="13" t="n">
         <v>7216050188.7755</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>7586750187.9684</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
         <v>7961068076.951</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="13" t="n">
         <v>7128085345.8921</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="13" t="n">
         <v>9454266224.1367</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="13" t="n">
         <v>9323941716.9613</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="13" t="n">
         <v>8964332856.345</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>5514468423.9351</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="13" t="n">
         <v>4402268896.9698</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>4138831671.977</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="13" t="n">
         <v>4640103344.2329</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="13" t="n">
         <v>5684913156.6925</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="13" t="n">
         <v>5609980227.5824</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="13" t="n">
         <v>5147249085.2793</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>5515797498.7466</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="13" t="n">
         <v>49845405279.3271</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="13" t="n">
         <v>11863760347.607</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2082,110 +2084,110 @@
       <c r="K5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>1006760000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>3161122535</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <v>1950037131</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="13" t="n">
         <v>2368032827</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="13" t="n">
         <v>2157678428</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="13" t="n">
         <v>1908689506</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="13" t="n">
         <v>2275561588</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>1883768354</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="13" t="n">
         <v>1800449147</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="13" t="n">
         <v>1796077489</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="13" t="n">
         <v>1918370553.09</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="13" t="n">
         <v>2272684343</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="13" t="n">
         <v>2934764489.7609</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="13" t="n">
         <v>4071480478.1196</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="13" t="n">
         <v>4282550881.0214</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="13" t="n">
         <v>6364720590.1493</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="13" t="n">
         <v>5945017942.8345</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="13" t="n">
         <v>5855269353.1367</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="13" t="n">
         <v>6325647361.5496</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="13" t="n">
         <v>6024291082.1388</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="13" t="n">
         <v>5417815454.5495</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="13" t="n">
         <v>5703934233.6115</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="13" t="n">
         <v>5731674007.7387</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="13" t="n">
         <v>4484391983.9015</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>4747438138.7546</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="13" t="n">
         <v>4658892052.807</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="13" t="n">
         <v>4388412075.616</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="13" t="n">
         <v>4701329502.2627</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="13" t="n">
         <v>6249653182.7191</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="13" t="n">
         <v>5906922462.5278</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="13" t="n">
         <v>6160395685.7298</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>6413309738.5881</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="13" t="n">
         <v>8665441972.3865</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="13" t="n">
         <v>3339235153.9889</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2194,106 +2196,106 @@
       <c r="K6" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>5954823000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>2377403186</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>3141724361</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="13" t="n">
         <v>2969809014</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="13" t="n">
         <v>1382993891</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="13" t="n">
         <v>2500318600</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="13" t="n">
         <v>2976233267</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>2585373105</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="13" t="n">
         <v>2253745461</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="13" t="n">
         <v>1363018864</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="13" t="n">
         <v>879167116</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="13" t="n">
         <v>1208278563</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="13" t="n">
         <v>1529553521.9302</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="13" t="n">
         <v>364274974</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="13" t="n">
         <v>1262442327.0468</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="13" t="n">
         <v>6115148196.2424</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>5876820323.6711</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="13" t="n">
         <v>5735051408.7301</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="13" t="n">
         <v>7753416636.0949</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="13" t="n">
         <v>2000556393.9062</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="13" t="n">
         <v>987853548.4521</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="13" t="n">
         <v>844916290.003</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="13" t="n">
         <v>605357172.154</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="13" t="n">
         <v>527618199.99</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>200511085.6199</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="13" t="n">
         <v>63256558.623</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="13" t="n">
         <v>96740294.9042</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="13" t="n">
         <v>151640577.0625</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="13" t="n">
         <v>-872307.916400002</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="13" t="n">
         <v>18004787.5583</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="13" t="n">
         <v>364433433.0654</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>238835556.419</v>
       </c>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2302,110 +2304,110 @@
       <c r="K7" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="13" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="13" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="13" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2524,106 +2526,106 @@
       <c r="K11" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="13" t="n">
         <v>59846563.0003195</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>26093724.6480596</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="13" t="n">
         <v>26125459.1197912</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>34162392.5011195</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="13" t="n">
         <v>76264330.4857793</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="13" t="n">
         <v>78953527.2051542</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="13" t="n">
         <v>66041997.5380048</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="13" t="n">
         <v>237116528.715069</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="13" t="n">
         <v>175064996.980152</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="13" t="n">
         <v>198370540.680975</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="13" t="n">
         <v>228821357.081721</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="13" t="n">
         <v>264050267.078869</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="13" t="n">
         <v>302695634.84457</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="13" t="n">
         <v>362631978.104967</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="13" t="n">
         <v>359124119.319196</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="13" t="n">
         <v>478931161.018745</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="13" t="n">
         <v>565855510.809417</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="13" t="n">
         <v>639504053.477134</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="13" t="n">
         <v>642704393.760483</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="13" t="n">
         <v>697602655.123667</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="13" t="n">
         <v>518320017.234147</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="13" t="n">
         <v>643451292.017498</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="13" t="n">
         <v>638992648.47521</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="13" t="n">
         <v>488037838.805418</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>481251317.460856</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="13" t="n">
         <v>361582781.068372</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="13" t="n">
         <v>474674605.699799</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="13" t="n">
         <v>460743871.142103</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="13" t="n">
         <v>490053013.55817</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="13" t="n">
         <v>450469791.339063</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="13" t="n">
         <v>374617641.412355</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="13" t="n">
         <v>694306508.10357</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2632,106 +2634,106 @@
       <c r="K12" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="13" t="n">
         <v>4744154373.0237</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>5858398629.32737</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="13" t="n">
         <v>3342796703.83936</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="13" t="n">
         <v>3726087571.37815</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="13" t="n">
         <v>3497029111.86147</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="13" t="n">
         <v>2782163523.05204</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="13" t="n">
         <v>2999585781.8477</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="13" t="n">
         <v>4476046662.46874</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>3791943655.88874</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="13" t="n">
         <v>3200767840.48579</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="13" t="n">
         <v>5063143163.36063</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="13" t="n">
         <v>6409165804.40715</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="13" t="n">
         <v>8028046373.61612</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="13" t="n">
         <v>9491338881.49797</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="13" t="n">
         <v>11356136393.0109</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="13" t="n">
         <v>16952351778.0596</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>19964451842.747</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="13" t="n">
         <v>20433237246.3383</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="13" t="n">
         <v>22597523557.2037</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="13" t="n">
         <v>25210193193.1172</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="13" t="n">
         <v>19874048441.436</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="13" t="n">
         <v>17314898191.6508</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="13" t="n">
         <v>24165262300.555</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="13" t="n">
         <v>14955130185.5902</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>16267486307.637</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="13" t="n">
         <v>13965450517.3238</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="13" t="n">
         <v>12351801026.6979</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="13" t="n">
         <v>13661529766.4949</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="13" t="n">
         <v>14868318697.7766</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="13" t="n">
         <v>12628290182.3837</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="13" t="n">
         <v>14918874623.4404</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="13" t="n">
         <v>43502408457.2121</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2740,110 +2742,110 @@
       <c r="K13" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="13" t="n">
         <v>3010869832.0003</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>9713802341.18916</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>5204637517.34791</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="13" t="n">
         <v>5775282954.5941</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="13" t="n">
         <v>5530459679.48233</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="13" t="n">
         <v>4424493737.73234</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="13" t="n">
         <v>4463070212.67077</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="13" t="n">
         <v>4113913618.33345</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="13" t="n">
         <v>3557816595.50127</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="13" t="n">
         <v>4047172988.76941</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="13" t="n">
         <v>4142650868.83379</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="13" t="n">
         <v>3965292584.59168</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="13" t="n">
         <v>5533500555.89328</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="13" t="n">
         <v>7071941812.44436</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="13" t="n">
         <v>7282226164.98913</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="13" t="n">
         <v>10443715893.6588</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
         <v>11344593159.3205</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="13" t="n">
         <v>9819723365.04226</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="13" t="n">
         <v>10113257656.1463</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="13" t="n">
         <v>10505473158.8307</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="13" t="n">
         <v>9325158812.12973</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="13" t="n">
         <v>12123989257.2383</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="13" t="n">
         <v>11741639801.9291</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="13" t="n">
         <v>11085912168.2968</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>6690144593.15978</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="13" t="n">
         <v>5280290718.08292</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="13" t="n">
         <v>4923512873.02117</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="13" t="n">
         <v>5422999669.89031</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="13" t="n">
         <v>6491667698.11821</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="13" t="n">
         <v>6283038155.30873</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="13" t="n">
         <v>5688898347.05071</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="13" t="n">
         <v>5897973841.5242</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="13" t="n">
         <v>49845405279.3271</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="13" t="n">
         <v>11315635393.5566</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2852,110 +2854,110 @@
       <c r="K14" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>2000967279.93762</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>6066445613.52255</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>3651028481.69255</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="13" t="n">
         <v>4331876439.94251</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="13" t="n">
         <v>3862900829.02222</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="13" t="n">
         <v>3346251836.87217</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="13" t="n">
         <v>3915844095.65192</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="13" t="n">
         <v>3185055702.27297</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="13" t="n">
         <v>3006637860.30859</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="13" t="n">
         <v>2962410455.77047</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="13" t="n">
         <v>3099568949.21982</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="13" t="n">
         <v>3585107597.06554</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="13" t="n">
         <v>4557589002.27127</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="13" t="n">
         <v>6204278035.50699</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="13" t="n">
         <v>6370205909.56408</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="13" t="n">
         <v>9188458833.17376</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="13" t="n">
         <v>8311936373.45089</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="13" t="n">
         <v>7967949746.94724</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="13" t="n">
         <v>8432187698.85501</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="13" t="n">
         <v>7949690626.01347</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="13" t="n">
         <v>7087736338.28622</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="13" t="n">
         <v>7314627675.25509</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="13" t="n">
         <v>7217897076.56817</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="13" t="n">
         <v>5545708359.8317</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="13" t="n">
         <v>5759584633.30634</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="13" t="n">
         <v>5588096738.00711</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="13" t="n">
         <v>5220411231.67886</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="13" t="n">
         <v>5494556143.99275</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="13" t="n">
         <v>7136550827.15518</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="13" t="n">
         <v>6615606063.99967</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="13" t="n">
         <v>6808659198.94081</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>6857672545.87943</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="13" t="n">
         <v>8665441972.3865</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="13" t="n">
         <v>3184957078.42806</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2964,147 +2966,147 @@
       <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="13" t="n">
         <v>11835398685.7046</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>4562425837.5306</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>5882208569.92406</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="13" t="n">
         <v>5432714256.40396</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="13" t="n">
         <v>2475979821.06561</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="13" t="n">
         <v>4383476559.029</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="13" t="n">
         <v>5121577691.99643</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="13" t="n">
         <v>4371321629.38088</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="13" t="n">
         <v>3763614452.44487</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="13" t="n">
         <v>2248133145.06499</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="13" t="n">
         <v>1420496728.0901</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="13" t="n">
         <v>1906031811.64378</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="13" t="n">
         <v>2375344370.64908</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="13" t="n">
         <v>555096170.107853</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="13" t="n">
         <v>1877856865.13999</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="13" t="n">
         <v>8828162472.18985</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>8216586909.95764</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="13" t="n">
         <v>7804355131.23585</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="13" t="n">
         <v>10335426660.1042</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="13" t="n">
         <v>2639946210.20223</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="13" t="n">
         <v>1292337391.51994</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="13" t="n">
         <v>1083506195.0244</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="13" t="n">
         <v>762326286.74808</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="13" t="n">
         <v>652489049.34894</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="13" t="n">
         <v>243259740.051484</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="13" t="n">
         <v>75872925.3419311</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="13" t="n">
         <v>115081289.85424</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="13" t="n">
         <v>177225966.394476</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="13" t="n">
         <v>-996098.439435316</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="13" t="n">
         <v>20164913.7105386</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="13" t="n">
         <v>402783063.462971</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>255383897.705678</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -441,8 +441,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -491,8 +491,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,13 +1847,17 @@
         <v>402214113.6291</v>
       </c>
       <c r="AP2" s="13" t="n">
-        <v>338949686.6452</v>
+        <v>339092196.6452</v>
       </c>
       <c r="AQ2" s="13" t="n">
-        <v>649316901.6449</v>
-      </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
+        <v>649540054.9249</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>393387686.8236</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>218152609.2603</v>
+      </c>
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
     </row>
@@ -1898,40 +1902,40 @@
         <v>3133656618</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>4062921511</v>
+        <v>4066372130</v>
       </c>
       <c r="X3" s="13" t="n">
-        <v>5169493214</v>
+        <v>5170767563</v>
       </c>
       <c r="Y3" s="13" t="n">
-        <v>6228573372.4502</v>
+        <v>6229146305.4502</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>7634483501.0547</v>
+        <v>7635286235.0547</v>
       </c>
       <c r="AA3" s="13" t="n">
-        <v>11742663745.0583</v>
+        <v>11747449210.4333</v>
       </c>
       <c r="AB3" s="13" t="n">
-        <v>14279347084.8851</v>
+        <v>14282600486.8851</v>
       </c>
       <c r="AC3" s="13" t="n">
-        <v>15015419478.4793</v>
+        <v>15022581864.7645</v>
       </c>
       <c r="AD3" s="13" t="n">
-        <v>16952180190.0343</v>
+        <v>16959785224.5165</v>
       </c>
       <c r="AE3" s="13" t="n">
-        <v>19104333637.2515</v>
+        <v>19110907734.8788</v>
       </c>
       <c r="AF3" s="13" t="n">
-        <v>15191581860.7486</v>
+        <v>15191590610.7486</v>
       </c>
       <c r="AG3" s="13" t="n">
-        <v>13502128191.8373</v>
+        <v>13502160211.8373</v>
       </c>
       <c r="AH3" s="13" t="n">
-        <v>19189440407.5008</v>
+        <v>19189431657.5008</v>
       </c>
       <c r="AI3" s="13" t="n">
         <v>12093074783.4167</v>
@@ -1952,16 +1956,20 @@
         <v>13020552578.0978</v>
       </c>
       <c r="AO3" s="13" t="n">
-        <v>11275509790.0348</v>
+        <v>11275525890.0348</v>
       </c>
       <c r="AP3" s="13" t="n">
-        <v>13498424312.4525</v>
+        <v>13519812320.2638</v>
       </c>
       <c r="AQ3" s="13" t="n">
-        <v>40683543570.2329</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
+        <v>40703244847.2274</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>43055563480.5771</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>7758793046.6635</v>
+      </c>
       <c r="AT3" s="13"/>
       <c r="AU3" s="13"/>
     </row>
@@ -2006,40 +2014,40 @@
         <v>2563949881</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>2513692582</v>
+        <v>2510241963</v>
       </c>
       <c r="X4" s="13" t="n">
-        <v>3563182403.5504</v>
+        <v>3561908054.5504</v>
       </c>
       <c r="Y4" s="13" t="n">
-        <v>4640874065.7626</v>
+        <v>4640374633.7626</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>4895682262.3031</v>
+        <v>4894933392.3031</v>
       </c>
       <c r="AA4" s="13" t="n">
-        <v>7234220100.7696</v>
+        <v>7229434635.3946</v>
       </c>
       <c r="AB4" s="13" t="n">
-        <v>8114091212.4568</v>
+        <v>8110837810.4568</v>
       </c>
       <c r="AC4" s="13" t="n">
-        <v>7216050188.7755</v>
+        <v>7208887802.4903</v>
       </c>
       <c r="AD4" s="13" t="n">
-        <v>7586750187.9684</v>
+        <v>7579145153.4862</v>
       </c>
       <c r="AE4" s="13" t="n">
-        <v>7961068076.951</v>
+        <v>7954493979.3237</v>
       </c>
       <c r="AF4" s="13" t="n">
-        <v>7128085345.8921</v>
+        <v>7128076595.8921</v>
       </c>
       <c r="AG4" s="13" t="n">
-        <v>9454266224.1367</v>
+        <v>9454234204.1367</v>
       </c>
       <c r="AH4" s="13" t="n">
-        <v>9323941716.9613</v>
+        <v>9323950466.9613</v>
       </c>
       <c r="AI4" s="13" t="n">
         <v>8964332856.345</v>
@@ -2060,19 +2068,19 @@
         <v>5684913156.6925</v>
       </c>
       <c r="AO4" s="13" t="n">
-        <v>5609980227.5824</v>
+        <v>5609964127.5824</v>
       </c>
       <c r="AP4" s="13" t="n">
-        <v>5147249085.2793</v>
+        <v>5134084558.3298</v>
       </c>
       <c r="AQ4" s="13" t="n">
-        <v>5515797498.7466</v>
+        <v>5495795849.5662</v>
       </c>
       <c r="AR4" s="13" t="n">
-        <v>49845405279.3271</v>
+        <v>6867012794.6409</v>
       </c>
       <c r="AS4" s="13" t="n">
-        <v>11863760347.607</v>
+        <v>4027034507.8012</v>
       </c>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
@@ -2124,10 +2132,10 @@
         <v>2934764489.7609</v>
       </c>
       <c r="Y5" s="13" t="n">
-        <v>4071480478.1196</v>
+        <v>4071406977.1196</v>
       </c>
       <c r="Z5" s="13" t="n">
-        <v>4282550881.0214</v>
+        <v>4282497017.0214</v>
       </c>
       <c r="AA5" s="13" t="n">
         <v>6364720590.1493</v>
@@ -2175,16 +2183,16 @@
         <v>5906922462.5278</v>
       </c>
       <c r="AP5" s="13" t="n">
-        <v>6160395685.7298</v>
+        <v>6152029694.868</v>
       </c>
       <c r="AQ5" s="13" t="n">
-        <v>6413309738.5881</v>
+        <v>6413386957.494</v>
       </c>
       <c r="AR5" s="13" t="n">
-        <v>8665441972.3865</v>
+        <v>8191850221.2045</v>
       </c>
       <c r="AS5" s="13" t="n">
-        <v>3339235153.9889</v>
+        <v>3198465350.7443</v>
       </c>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
@@ -2292,8 +2300,12 @@
       <c r="AQ6" s="13" t="n">
         <v>238835556.419</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AR6" s="13" t="n">
+        <v>3033068.4675</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>549987.1266</v>
+      </c>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
     </row>
@@ -2617,13 +2629,17 @@
         <v>450469791.339063</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>374617641.412355</v>
+        <v>374775147.857061</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>694306508.10357</v>
-      </c>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
+        <v>694545123.137641</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>393387686.8236</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>208073605.182061</v>
+      </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
     </row>
@@ -2668,40 +2684,40 @@
         <v>5063143163.36063</v>
       </c>
       <c r="W12" s="13" t="n">
-        <v>6409165804.40715</v>
+        <v>6414609076.99781</v>
       </c>
       <c r="X12" s="13" t="n">
-        <v>8028046373.61612</v>
+        <v>8030025394.08189</v>
       </c>
       <c r="Y12" s="13" t="n">
-        <v>9491338881.49797</v>
+        <v>9492211938.76714</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>11356136393.0109</v>
+        <v>11357330443.2424</v>
       </c>
       <c r="AA12" s="13" t="n">
-        <v>16952351778.0596</v>
+        <v>16959260337.6693</v>
       </c>
       <c r="AB12" s="13" t="n">
-        <v>19964451842.747</v>
+        <v>19969000537.2474</v>
       </c>
       <c r="AC12" s="13" t="n">
-        <v>20433237246.3383</v>
+        <v>20442983942.9541</v>
       </c>
       <c r="AD12" s="13" t="n">
-        <v>22597523557.2037</v>
+        <v>22607661188.1125</v>
       </c>
       <c r="AE12" s="13" t="n">
-        <v>25210193193.1172</v>
+        <v>25218868411.7561</v>
       </c>
       <c r="AF12" s="13" t="n">
-        <v>19874048441.436</v>
+        <v>19874059888.4286</v>
       </c>
       <c r="AG12" s="13" t="n">
-        <v>17314898191.6508</v>
+        <v>17314939253.551</v>
       </c>
       <c r="AH12" s="13" t="n">
-        <v>24165262300.555</v>
+        <v>24165251281.68</v>
       </c>
       <c r="AI12" s="13" t="n">
         <v>14955130185.5902</v>
@@ -2722,16 +2738,20 @@
         <v>14868318697.7766</v>
       </c>
       <c r="AO12" s="13" t="n">
-        <v>12628290182.3837</v>
+        <v>12628308213.9828</v>
       </c>
       <c r="AP12" s="13" t="n">
-        <v>14918874623.4404</v>
+        <v>14942513308.9341</v>
       </c>
       <c r="AQ12" s="13" t="n">
-        <v>43502408457.2121</v>
-      </c>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
+        <v>43523474788.3065</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>43055563480.5771</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>7400324234.28167</v>
+      </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
     </row>
@@ -2776,40 +2796,40 @@
         <v>4142650868.83379</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>3965292584.59168</v>
+        <v>3959849312.00101</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>5533500555.89328</v>
+        <v>5531521535.42751</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>7071941812.44436</v>
+        <v>7071180758.81669</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>7282226164.98913</v>
+        <v>7281112236.34425</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>10443715893.6588</v>
+        <v>10436807334.0492</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>11344593159.3205</v>
+        <v>11340044464.8201</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>9819723365.04226</v>
+        <v>9809976668.42648</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>10113257656.1463</v>
+        <v>10103120025.2376</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>10505473158.8307</v>
+        <v>10496797940.1918</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>9325158812.12973</v>
+        <v>9325147365.13721</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>12123989257.2383</v>
+        <v>12123948195.3381</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>11741639801.9291</v>
+        <v>11741650820.8041</v>
       </c>
       <c r="AI13" s="13" t="n">
         <v>11085912168.2968</v>
@@ -2830,19 +2850,19 @@
         <v>6491667698.11821</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>6283038155.30873</v>
+        <v>6283020123.70965</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>5688898347.05071</v>
+        <v>5674348506.08481</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>5897973841.5242</v>
+        <v>5876586326.17757</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>49845405279.3271</v>
+        <v>6867012794.6409</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>11315635393.5566</v>
+        <v>3840978987.47089</v>
       </c>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
@@ -2894,10 +2914,10 @@
         <v>4557589002.27127</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>6204278035.50699</v>
+        <v>6204166031.86548</v>
       </c>
       <c r="Z14" s="13" t="n">
-        <v>6370205909.56408</v>
+        <v>6370125787.97752</v>
       </c>
       <c r="AA14" s="13" t="n">
         <v>9188458833.17376</v>
@@ -2945,16 +2965,16 @@
         <v>6615606063.99967</v>
       </c>
       <c r="AP14" s="13" t="n">
-        <v>6808659198.94081</v>
+        <v>6799412847.96836</v>
       </c>
       <c r="AQ14" s="13" t="n">
-        <v>6857672545.87943</v>
+        <v>6857755115.0976</v>
       </c>
       <c r="AR14" s="13" t="n">
-        <v>8665441972.3865</v>
+        <v>8191850221.2045</v>
       </c>
       <c r="AS14" s="13" t="n">
-        <v>3184957078.42806</v>
+        <v>3050691068.21993</v>
       </c>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
@@ -3051,7 +3071,7 @@
         <v>177225966.394476</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>-996098.439435316</v>
+        <v>-996098.439435317</v>
       </c>
       <c r="AO15" s="13" t="n">
         <v>20164913.7105386</v>
@@ -3062,8 +3082,12 @@
       <c r="AQ15" s="13" t="n">
         <v>255383897.705678</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
+      <c r="AR15" s="13" t="n">
+        <v>3033068.4675</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>524576.830061368</v>
+      </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
     </row>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -425,6 +425,9 @@
   <si>
     <t xml:space="preserve">Unlabeled</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -441,8 +444,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -491,8 +494,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,110 +1759,110 @@
       <c r="K2" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>30111000</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="12" t="n">
         <v>13597000</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="12" t="n">
         <v>13953771</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="12" t="n">
         <v>18674971</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="12" t="n">
         <v>42598531</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="12" t="n">
         <v>45034796</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="12" t="n">
         <v>38378094</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="12" t="n">
         <v>140240126</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="12" t="n">
         <v>104833252</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="12" t="n">
         <v>120269918</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="12" t="n">
         <v>141621032</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="12" t="n">
         <v>167387698</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="12" t="n">
         <v>194914548</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="12" t="n">
         <v>237972736.0938</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="12" t="n">
         <v>241431334.4687</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="12" t="n">
         <v>331749108</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="12" t="n">
         <v>404721717.5</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="12" t="n">
         <v>469941277.8006</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="12" t="n">
         <v>482143127.9571</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="12" t="n">
         <v>528644654.4707</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="12" t="n">
         <v>396200149.9131</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="12" t="n">
         <v>501762224.2915</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="12" t="n">
         <v>507418922.0973</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="12" t="n">
         <v>394639030.7921</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>396679796.2526</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="12" t="n">
         <v>301457763.5519</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="12" t="n">
         <v>399023693.5743</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="12" t="n">
         <v>394228159.2218</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="12" t="n">
         <v>429151483.6875</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="12" t="n">
         <v>402214113.6291</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="12" t="n">
         <v>339092196.6452</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>649540054.9249</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="12" t="n">
         <v>393387686.8236</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="12" t="n">
         <v>218152609.2603</v>
       </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1868,110 +1871,110 @@
       <c r="K3" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>2386958000</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="12" t="n">
         <v>3052712759</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="12" t="n">
         <v>1785408612</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="12" t="n">
         <v>2036876584</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="12" t="n">
         <v>1953315555</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <v>1586935646</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <v>1743108770</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <v>2647311646</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <v>2270709689</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <v>1940590999</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <v>3133656618</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="12" t="n">
         <v>4066372130</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="12" t="n">
         <v>5170767563</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="12" t="n">
         <v>6229146305.4502</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="12" t="n">
         <v>7635286235.0547</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="12" t="n">
         <v>11747449210.4333</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="12" t="n">
         <v>14282600486.8851</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="12" t="n">
         <v>15022581864.7645</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="12" t="n">
         <v>16959785224.5165</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="12" t="n">
         <v>19110907734.8788</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="12" t="n">
         <v>15191590610.7486</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="12" t="n">
         <v>13502160211.8373</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="12" t="n">
         <v>19189431657.5008</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="12" t="n">
         <v>12093074783.4167</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>13408759456.7059</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="12" t="n">
         <v>11643235519.9765</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="12" t="n">
         <v>10383241927.8079</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="12" t="n">
         <v>11689270480.4705</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="12" t="n">
         <v>13020552578.0978</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="12" t="n">
         <v>11275525890.0348</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="12" t="n">
         <v>13519812320.2638</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>40703244847.2274</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="12" t="n">
         <v>43055563480.5771</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="12" t="n">
         <v>7758793046.6635</v>
       </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1980,110 +1983,110 @@
       <c r="K4" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="12" t="n">
         <v>1514879000</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="12" t="n">
         <v>5061698635</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="12" t="n">
         <v>2779829427</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="12" t="n">
         <v>3157075187</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="12" t="n">
         <v>3089117240</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="12" t="n">
         <v>2523714645</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="12" t="n">
         <v>2593563710</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="12" t="n">
         <v>2433131791</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="12" t="n">
         <v>2130508612</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="12" t="n">
         <v>2453757306</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="12" t="n">
         <v>2563949881</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="12" t="n">
         <v>2510241963</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="12" t="n">
         <v>3561908054.5504</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="12" t="n">
         <v>4640374633.7626</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="12" t="n">
         <v>4894933392.3031</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="12" t="n">
         <v>7229434635.3946</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="12" t="n">
         <v>8110837810.4568</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="12" t="n">
         <v>7208887802.4903</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="12" t="n">
         <v>7579145153.4862</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="12" t="n">
         <v>7954493979.3237</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="12" t="n">
         <v>7128076595.8921</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="12" t="n">
         <v>9454234204.1367</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="12" t="n">
         <v>9323950466.9613</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="12" t="n">
         <v>8964332856.345</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>5514468423.9351</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="12" t="n">
         <v>4402268896.9698</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="12" t="n">
         <v>4138831671.977</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="12" t="n">
         <v>4640103344.2329</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="12" t="n">
         <v>5684913156.6925</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="12" t="n">
         <v>5609964127.5824</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="12" t="n">
         <v>5134084558.3298</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>5495795849.5662</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="12" t="n">
         <v>6867012794.6409</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="12" t="n">
         <v>4027034507.8012</v>
       </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2092,110 +2095,110 @@
       <c r="K5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="12" t="n">
         <v>1006760000</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>3161122535</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="12" t="n">
         <v>1950037131</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>2368032827</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <v>2157678428</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="12" t="n">
         <v>1908689506</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <v>2275561588</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <v>1883768354</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <v>1800449147</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>1796077489</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <v>1918370553.09</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="12" t="n">
         <v>2272684343</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="12" t="n">
         <v>2934764489.7609</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="12" t="n">
         <v>4071406977.1196</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="12" t="n">
         <v>4282497017.0214</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="12" t="n">
         <v>6364720590.1493</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="12" t="n">
         <v>5945017942.8345</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="12" t="n">
         <v>5855269353.1367</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="12" t="n">
         <v>6325647361.5496</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="12" t="n">
         <v>6024291082.1388</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="12" t="n">
         <v>5417815454.5495</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="12" t="n">
         <v>5703934233.6115</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="12" t="n">
         <v>5731674007.7387</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="12" t="n">
         <v>4484391983.9015</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>4747438138.7546</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="12" t="n">
         <v>4658892052.807</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="12" t="n">
         <v>4388412075.616</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="12" t="n">
         <v>4701329502.2627</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="12" t="n">
         <v>6249653182.7191</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="12" t="n">
         <v>5906922462.5278</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="12" t="n">
         <v>6152029694.868</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>6413386957.494</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="12" t="n">
         <v>8191850221.2045</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="12" t="n">
         <v>3198465350.7443</v>
       </c>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2204,110 +2207,110 @@
       <c r="K6" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="12" t="n">
         <v>5954823000</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="12" t="n">
         <v>2377403186</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="12" t="n">
         <v>3141724361</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="12" t="n">
         <v>2969809014</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="12" t="n">
         <v>1382993891</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="12" t="n">
         <v>2500318600</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="12" t="n">
         <v>2976233267</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <v>2585373105</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="12" t="n">
         <v>2253745461</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="12" t="n">
         <v>1363018864</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="12" t="n">
         <v>879167116</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="12" t="n">
         <v>1208278563</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="12" t="n">
         <v>1529553521.9302</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="12" t="n">
         <v>364274974</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="12" t="n">
         <v>1262442327.0468</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="12" t="n">
         <v>6115148196.2424</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="12" t="n">
         <v>5876820323.6711</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="12" t="n">
         <v>5735051408.7301</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="12" t="n">
         <v>7753416636.0949</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="12" t="n">
         <v>2000556393.9062</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="12" t="n">
         <v>987853548.4521</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="12" t="n">
         <v>844916290.003</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="12" t="n">
         <v>605357172.154</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="12" t="n">
         <v>527618199.99</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>200511085.6199</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="12" t="n">
         <v>63256558.623</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="12" t="n">
         <v>96740294.9042</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="12" t="n">
         <v>151640577.0625</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="12" t="n">
         <v>-872307.916400002</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="12" t="n">
         <v>18004787.5583</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="12" t="n">
         <v>364433433.0654</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>238835556.419</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="12" t="n">
         <v>3033068.4675</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="12" t="n">
         <v>549987.1266</v>
       </c>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2316,110 +2319,110 @@
       <c r="K7" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="13" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="13" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="13" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="13" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="13" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="13" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="13" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="13" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="13" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="13" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="13" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="13" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="13" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="13" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="13" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="13" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="13" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="13" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2538,110 +2541,110 @@
       <c r="K11" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="12" t="n">
         <v>59846563.0003195</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="12" t="n">
         <v>26093724.6480596</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="12" t="n">
         <v>26125459.1197912</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>34162392.5011195</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>76264330.4857793</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>78953527.2051542</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>66041997.5380048</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>237116528.715069</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>175064996.980152</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>198370540.680975</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>228821357.081721</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>264050267.078869</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>302695634.84457</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>362631978.104967</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>359124119.319196</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="12" t="n">
         <v>478931161.018745</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>565855510.809417</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>639504053.477134</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>642704393.760483</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>697602655.123667</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="12" t="n">
         <v>518320017.234147</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="12" t="n">
         <v>643451292.017498</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="12" t="n">
         <v>638992648.47521</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="12" t="n">
         <v>488037838.805418</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>481251317.460856</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="12" t="n">
         <v>361582781.068372</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="12" t="n">
         <v>474674605.699799</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="12" t="n">
         <v>460743871.142103</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="12" t="n">
         <v>490053013.55817</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="12" t="n">
         <v>450469791.339063</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="12" t="n">
         <v>374775147.857061</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>694545123.137641</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="12" t="n">
         <v>393387686.8236</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="12" t="n">
         <v>208073605.182061</v>
       </c>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2650,110 +2653,110 @@
       <c r="K12" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="12" t="n">
         <v>4744154373.0237</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="12" t="n">
         <v>5858398629.32737</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="12" t="n">
         <v>3342796703.83936</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="12" t="n">
         <v>3726087571.37815</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="12" t="n">
         <v>3497029111.86147</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <v>2782163523.05204</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <v>2999585781.8477</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <v>4476046662.46874</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <v>3791943655.88874</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <v>3200767840.48579</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <v>5063143163.36063</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="12" t="n">
         <v>6414609076.99781</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="12" t="n">
         <v>8030025394.08189</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="12" t="n">
         <v>9492211938.76714</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="12" t="n">
         <v>11357330443.2424</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="12" t="n">
         <v>16959260337.6693</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="12" t="n">
         <v>19969000537.2474</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="12" t="n">
         <v>20442983942.9541</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="12" t="n">
         <v>22607661188.1125</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="12" t="n">
         <v>25218868411.7561</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="12" t="n">
         <v>19874059888.4286</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="12" t="n">
         <v>17314939253.551</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="12" t="n">
         <v>24165251281.68</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="12" t="n">
         <v>14955130185.5902</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>16267486307.637</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="12" t="n">
         <v>13965450517.3238</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="12" t="n">
         <v>12351801026.6979</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="12" t="n">
         <v>13661529766.4949</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="12" t="n">
         <v>14868318697.7766</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="12" t="n">
         <v>12628308213.9828</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="12" t="n">
         <v>14942513308.9341</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>43523474788.3065</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="12" t="n">
         <v>43055563480.5771</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="12" t="n">
         <v>7400324234.28167</v>
       </c>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2762,110 +2765,110 @@
       <c r="K13" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="12" t="n">
         <v>3010869832.0003</v>
       </c>
-      <c r="M13" s="13" t="n">
+      <c r="M13" s="12" t="n">
         <v>9713802341.18916</v>
       </c>
-      <c r="N13" s="13" t="n">
+      <c r="N13" s="12" t="n">
         <v>5204637517.34791</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="12" t="n">
         <v>5775282954.5941</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="12" t="n">
         <v>5530459679.48233</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <v>4424493737.73234</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <v>4463070212.67077</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <v>4113913618.33345</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <v>3557816595.50127</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <v>4047172988.76941</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <v>4142650868.83379</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="12" t="n">
         <v>3959849312.00101</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="12" t="n">
         <v>5531521535.42751</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="12" t="n">
         <v>7071180758.81669</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="12" t="n">
         <v>7281112236.34425</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="12" t="n">
         <v>10436807334.0492</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="12" t="n">
         <v>11340044464.8201</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="12" t="n">
         <v>9809976668.42648</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="12" t="n">
         <v>10103120025.2376</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="12" t="n">
         <v>10496797940.1918</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="12" t="n">
         <v>9325147365.13721</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AG13" s="12" t="n">
         <v>12123948195.3381</v>
       </c>
-      <c r="AH13" s="13" t="n">
+      <c r="AH13" s="12" t="n">
         <v>11741650820.8041</v>
       </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AI13" s="12" t="n">
         <v>11085912168.2968</v>
       </c>
-      <c r="AJ13" s="13" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>6690144593.15978</v>
       </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AK13" s="12" t="n">
         <v>5280290718.08292</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="12" t="n">
         <v>4923512873.02117</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="12" t="n">
         <v>5422999669.89031</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="12" t="n">
         <v>6491667698.11821</v>
       </c>
-      <c r="AO13" s="13" t="n">
+      <c r="AO13" s="12" t="n">
         <v>6283020123.70965</v>
       </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AP13" s="12" t="n">
         <v>5674348506.08481</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>5876586326.17757</v>
       </c>
-      <c r="AR13" s="13" t="n">
+      <c r="AR13" s="12" t="n">
         <v>6867012794.6409</v>
       </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AS13" s="12" t="n">
         <v>3840978987.47089</v>
       </c>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2874,110 +2877,110 @@
       <c r="K14" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="12" t="n">
         <v>2000967279.93762</v>
       </c>
-      <c r="M14" s="13" t="n">
+      <c r="M14" s="12" t="n">
         <v>6066445613.52255</v>
       </c>
-      <c r="N14" s="13" t="n">
+      <c r="N14" s="12" t="n">
         <v>3651028481.69255</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="12" t="n">
         <v>4331876439.94251</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="12" t="n">
         <v>3862900829.02222</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <v>3346251836.87217</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <v>3915844095.65192</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <v>3185055702.27297</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <v>3006637860.30859</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <v>2962410455.77047</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <v>3099568949.21982</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="12" t="n">
         <v>3585107597.06554</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="12" t="n">
         <v>4557589002.27127</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="12" t="n">
         <v>6204166031.86548</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="12" t="n">
         <v>6370125787.97752</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="12" t="n">
         <v>9188458833.17376</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="12" t="n">
         <v>8311936373.45089</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="12" t="n">
         <v>7967949746.94724</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="12" t="n">
         <v>8432187698.85501</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="12" t="n">
         <v>7949690626.01347</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="12" t="n">
         <v>7087736338.28622</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="12" t="n">
         <v>7314627675.25509</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="12" t="n">
         <v>7217897076.56817</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="12" t="n">
         <v>5545708359.8317</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>5759584633.30634</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="12" t="n">
         <v>5588096738.00711</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="12" t="n">
         <v>5220411231.67886</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="12" t="n">
         <v>5494556143.99275</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="12" t="n">
         <v>7136550827.15518</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="12" t="n">
         <v>6615606063.99967</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="12" t="n">
         <v>6799412847.96836</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>6857755115.0976</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="12" t="n">
         <v>8191850221.2045</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="12" t="n">
         <v>3050691068.21993</v>
       </c>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2986,151 +2989,151 @@
       <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="12" t="n">
         <v>11835398685.7046</v>
       </c>
-      <c r="M15" s="13" t="n">
+      <c r="M15" s="12" t="n">
         <v>4562425837.5306</v>
       </c>
-      <c r="N15" s="13" t="n">
+      <c r="N15" s="12" t="n">
         <v>5882208569.92406</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="12" t="n">
         <v>5432714256.40396</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="12" t="n">
         <v>2475979821.06561</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <v>4383476559.029</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <v>5121577691.99643</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <v>4371321629.38088</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <v>3763614452.44487</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <v>2248133145.06499</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="12" t="n">
         <v>1420496728.0901</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="12" t="n">
         <v>1906031811.64378</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="12" t="n">
         <v>2375344370.64908</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="12" t="n">
         <v>555096170.107853</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="12" t="n">
         <v>1877856865.13999</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="12" t="n">
         <v>8828162472.18985</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="12" t="n">
         <v>8216586909.95764</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="12" t="n">
         <v>7804355131.23585</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="12" t="n">
         <v>10335426660.1042</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="12" t="n">
         <v>2639946210.20223</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="12" t="n">
         <v>1292337391.51994</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="12" t="n">
         <v>1083506195.0244</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="12" t="n">
         <v>762326286.74808</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="12" t="n">
         <v>652489049.34894</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>243259740.051484</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="12" t="n">
         <v>75872925.3419311</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="12" t="n">
         <v>115081289.85424</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="12" t="n">
         <v>177225966.394476</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="12" t="n">
         <v>-996098.439435317</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="12" t="n">
         <v>20164913.7105386</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="12" t="n">
         <v>402783063.462971</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>255383897.705678</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="12" t="n">
         <v>3033068.4675</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="12" t="n">
         <v>524576.830061368</v>
       </c>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,94 +4859,94 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="n">
         <v>3231731618.09</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="13" t="n">
         <v>3812954846</v>
       </c>
-      <c r="AB2" s="3" t="n">
-        <v>5281950979.2415</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>7730994673.9821</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>8841237666.2745</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>18576306258.0933</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>20160233468.2214</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>21127357776.2181</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>23115944199.4031</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>16246412581.5096</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AB2" s="13" t="n">
+        <v>5281950979.2413</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>7730994674.9821</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>8841237665.2824</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>18576306264.9327</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>20160233468.79</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>21127357773.9114</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>23115888908.3915</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>16246412582.411</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
         <v>15810048131.7744</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="13" t="n">
         <v>15421728885.6504</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="13" t="n">
         <v>13330137081.8715</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="13" t="n">
         <v>11912698410.6653</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="13" t="n">
         <v>15150245474.8841</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="13" t="n">
         <v>14449186882.6444</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="13" t="n">
         <v>13874270370.8504</v>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>14619395779.5578</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>17627529189.1996</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>16737538619.8948</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>19627140118.8153</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>44824536995.1949</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>46048669215.5635</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>9776108630.3346</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AQ2" s="13" t="n">
+        <v>14619393160.0578</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>17627562934.3755</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>16712077668.9378</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>19627140988.74</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>44827882805.4319</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>46047462499.3524</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>20232724941.8784</v>
+      </c>
+      <c r="AX2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4961,89 +4964,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="n">
         <v>3867172348</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="13" t="n">
         <v>4793771907</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="13" t="n">
         <v>5982434518</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="13" t="n">
         <v>6737871820.6396</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="13" t="n">
         <v>7454215863.1515</v>
       </c>
-      <c r="AE3" s="3" t="n">
-        <v>11867070482.5609</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>13547520958.845</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>12063425081.4161</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>14901437616.8281</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>18552748295.3185</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AE3" s="13" t="n">
+        <v>11867070482.5472</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>13547520958.8447</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>12063425081.4159</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>14901437616.8322</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>18552748295.3222</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
         <v>12503494324.5602</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="13" t="n">
         <v>14004822873.7905</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="13" t="n">
         <v>21578178999.083</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="13" t="n">
         <v>14179757511.9419</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="13" t="n">
         <v>8748283143.6861</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="13" t="n">
         <v>6424190470.4862</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="13" t="n">
         <v>5064511735.4566</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>6586632602.9288</v>
       </c>
-      <c r="AR3" s="3" t="n">
-        <v>7300405322.4193</v>
-      </c>
-      <c r="AS3" s="3" t="n">
+      <c r="AR3" s="13" t="n">
+        <v>7300405322.4195</v>
+      </c>
+      <c r="AS3" s="13" t="n">
         <v>6124733385.5651</v>
       </c>
-      <c r="AT3" s="3" t="n">
+      <c r="AT3" s="13" t="n">
         <v>5270353073.0496</v>
       </c>
-      <c r="AU3" s="3" t="n">
+      <c r="AU3" s="13" t="n">
         <v>5881643425.5445</v>
       </c>
-      <c r="AV3" s="3" t="n">
-        <v>12090182374.6508</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>5315021154.0348</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AV3" s="13" t="n">
+        <v>12090182374.6482</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>11286954750.38</v>
+      </c>
+      <c r="AX3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5061,89 +5064,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="n">
         <v>13308850</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="13" t="n">
         <v>21168463</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="13" t="n">
         <v>35646463</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="13" t="n">
         <v>26260225.0938</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="13" t="n">
         <v>21301234.4687</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="13" t="n">
         <v>100080424</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="13" t="n">
         <v>78752737</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="13" t="n">
         <v>14627137.9375</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>186468402.3106</v>
-      </c>
-      <c r="AI4" s="3" t="n">
+      <c r="AH4" s="13" t="n">
+        <v>186468402.9031</v>
+      </c>
+      <c r="AI4" s="13" t="n">
         <v>13271019.9576</v>
       </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>27115107.0589</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="13" t="n">
         <v>15297739.9783</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="13" t="n">
         <v>4202802.6717</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="13" t="n">
         <v>26937521.885</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="13" t="n">
         <v>5430959.5516</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="13" t="n">
         <v>9631482.8865</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="13" t="n">
         <v>11533251.3814</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>409162.7537</v>
       </c>
-      <c r="AR4" s="3" t="n">
-        <v>-683448.5598</v>
-      </c>
-      <c r="AS4" s="3" t="n">
+      <c r="AR4" s="13" t="n">
+        <v>-700398.5598</v>
+      </c>
+      <c r="AS4" s="13" t="n">
         <v>-926041.8509</v>
       </c>
-      <c r="AT4" s="3" t="n">
+      <c r="AT4" s="13" t="n">
         <v>-286436.3467</v>
       </c>
-      <c r="AU4" s="3" t="n">
+      <c r="AU4" s="13" t="n">
         <v>5160064.13</v>
       </c>
-      <c r="AV4" s="3" t="n">
+      <c r="AV4" s="13" t="n">
         <v>600000</v>
       </c>
-      <c r="AW4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AW4" s="13" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="AX4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5161,89 +5164,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="n">
         <v>27192491</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="13" t="n">
         <v>38013886</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AB5" s="13" t="n">
         <v>26618774</v>
       </c>
-      <c r="AC5" s="3" t="n">
-        <v>57444974</v>
-      </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AC5" s="13" t="n">
+        <v>57444973</v>
+      </c>
+      <c r="AD5" s="13" t="n">
         <v>36817459</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AE5" s="13" t="n">
         <v>73757462.04</v>
       </c>
-      <c r="AF5" s="3" t="n">
-        <v>94946462.8691</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>112141706.2403</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>56714274.0259</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>14745532.3344</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AF5" s="13" t="n">
+        <v>94946460.8691</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>112141706.2405</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>56714274.0859</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>14745532.3494</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
         <v>46239552.4833</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="13" t="n">
         <v>128128965.0707</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="13" t="n">
         <v>92880505.6119</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="13" t="n">
         <v>69908011.43</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="13" t="n">
         <v>18500060.43</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="13" t="n">
         <v>4335306.9007</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="13" t="n">
         <v>41074974.6011</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>53286671.5322</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>74120297.7227</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>18804604.8093</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>33607502.4277</v>
-      </c>
-      <c r="AU5" s="3" t="n">
+      <c r="AR5" s="13" t="n">
+        <v>74120297.7939</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>18804604.8084</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>33607502.4177</v>
+      </c>
+      <c r="AU5" s="13" t="n">
         <v>92581.7795</v>
       </c>
-      <c r="AV5" s="3" t="n">
+      <c r="AV5" s="13" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW5" s="3" t="n">
-        <v>8657385.0996</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AW5" s="13" t="n">
+        <v>8769598.9824</v>
+      </c>
+      <c r="AX5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5261,89 +5264,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="n">
         <v>980649600</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>1299225567</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>1687510321</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>276779001</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>1052342495</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>317292194</v>
-      </c>
-      <c r="AF6" s="3" t="n">
+      <c r="AA6" s="13" t="n">
+        <v>1299225568</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>1687510320</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>276779002</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>1052342496</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>317292195</v>
+      </c>
+      <c r="AF6" s="13" t="n">
         <v>308483431.79</v>
       </c>
-      <c r="AG6" s="3" t="n">
-        <v>209516318.5411</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>138082537.9982</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>96862252.3626</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AG6" s="13" t="n">
+        <v>210054318.5435</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>138082537.9984</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>96862252.3651</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
         <v>163976967.5597</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="13" t="n">
         <v>184806659.5081</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="13" t="n">
         <v>235769398.9436</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="13" t="n">
         <v>211690145.2669</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="13" t="n">
         <v>195038154.2248</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="13" t="n">
         <v>141905384.4047</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="13" t="n">
         <v>287180709.8184</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>217723841.2498</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>343471582.0598</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>231111212.2329</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>255176607.2125</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>254553066.377</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>177972090.7596</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>46341518.5704</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="13" t="n">
+        <v>343471582.0635</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>256918462.8829</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>255403259.2125</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>254637125.377</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>178882072.5834</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>272144400.4561</v>
+      </c>
+      <c r="AX6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5361,89 +5364,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="n">
         <v>28080419</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="13" t="n">
         <v>41682083</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="13" t="n">
         <v>12774421</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="13" t="n">
         <v>27099676</v>
       </c>
-      <c r="AD7" s="3" t="n">
+      <c r="AD7" s="13" t="n">
         <v>23263145</v>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AE7" s="13" t="n">
         <v>114122216.7656</v>
       </c>
-      <c r="AF7" s="3" t="n">
+      <c r="AF7" s="13" t="n">
         <v>85051998.333</v>
       </c>
-      <c r="AG7" s="3" t="n">
-        <v>216405827.4976</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>253846636.0665</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>299230424.5468</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AG7" s="13" t="n">
+        <v>216405827.4977</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>253846636.0412</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>299230424.5229</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
         <v>569526219.0317</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="13" t="n">
         <v>252099898.7514</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="13" t="n">
         <v>116797427.5198</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="13" t="n">
         <v>62256743.9662</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="13" t="n">
         <v>144282477.1119</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="13" t="n">
         <v>28738791.4791</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="13" t="n">
         <v>126968740.402</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="13" t="n">
         <v>86231194.678</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>38555150.4389</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>101369600.6812</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>323461338.0138</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>2534817132.6056</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>193420511.3397</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>56866813.5565</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="13" t="n">
+        <v>38552478.447</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>101369599.7714</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>323461338.0147</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>2534518878.7618</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>193420513.1443</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>227289182.5886</v>
+      </c>
+      <c r="AX7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5461,65 +5464,65 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13" t="n">
         <v>29458</v>
       </c>
-      <c r="AE8" s="3" t="n">
+      <c r="AE8" s="13" t="n">
         <v>1481741</v>
       </c>
-      <c r="AF8" s="3" t="n">
+      <c r="AF8" s="13" t="n">
         <v>19688033.039</v>
       </c>
-      <c r="AG8" s="3" t="n">
-        <v>545671910.1715</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>419626804.6265</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>369797748.2104</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AG8" s="13" t="n">
+        <v>545133910.1395</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>419626804.6038</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>369797748.4371</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
         <v>484142.0236</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="13" t="n">
         <v>140427.3608</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="13" t="n">
         <v>-178790.0492</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="13" t="n">
         <v>-611827.46</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="13" t="n">
         <v>-149735.36</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AO8" s="13" t="n">
         <v>-4.69</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5535,109 +5538,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="13" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="13" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="13" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="13" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="13" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="13" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="13" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="13" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="13" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="13" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="13" t="n">
         <v>488629874</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="13" t="n">
         <v>218147945</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="13" t="n">
         <v>364972701</v>
       </c>
-      <c r="AC9" s="3" t="n">
-        <v>686725255.7107</v>
-      </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AC9" s="13" t="n">
+        <v>686725255.7108</v>
+      </c>
+      <c r="AD9" s="13" t="n">
         <v>887382985</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="13" t="n">
         <v>738390961.7598</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="13" t="n">
         <v>325321191.25</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="13" t="n">
         <v>2585948.9</v>
       </c>
-      <c r="AH9" s="3" t="n">
-        <v>28017032.3454</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>25825990.4783</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AH9" s="13" t="n">
+        <v>28017032.3216</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>25825991.5111</v>
+      </c>
+      <c r="AJ9" s="13" t="n">
         <v>651915.0636</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="13" t="n">
         <v>-18286.2302</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="13" t="n">
         <v>44800.7998</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="13" t="n">
         <v>1420336.75</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="13" t="n">
         <v>6226366.7396</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="13" t="n">
         <v>11122477.8166</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="13" t="n">
         <v>709881.3695</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="13" t="n">
         <v>12892810.5501</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5652,107 +5655,107 @@
       <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="13" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="13" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="13" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="13" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="13" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="13" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="13" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="13" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="13" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="13" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="13" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="13" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="13" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="13" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="13" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="13" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="13" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="13" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="13" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="13" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="13" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="13" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="13" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="13" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="13" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="13" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="13" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="13" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="13" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="13" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="13" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="13" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5884,94 +5887,94 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13" t="n">
         <v>5221605888.13716</v>
       </c>
-      <c r="AA14" s="3" t="n">
+      <c r="AA14" s="13" t="n">
         <v>6014849104.65742</v>
       </c>
-      <c r="AB14" s="3" t="n">
-        <v>8202689441.52595</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>11780786057.1055</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>13151158268.5808</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>26817771952.015</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>28186723652.1537</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>28750466442.0774</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>30813918194.4338</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>21438863435.4834</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AB14" s="13" t="n">
+        <v>8202689441.52564</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>11780786058.6294</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>13151158267.105</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>26817771961.8888</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>28186723652.9487</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>28750466438.9384</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>30813844490.6433</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>21438863436.6729</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
         <v>20683143158.657</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="13" t="n">
         <v>19776561279.8513</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="13" t="n">
         <v>16786641623.9979</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="13" t="n">
         <v>14732064324.7389</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="13" t="n">
         <v>18380254460.9569</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="13" t="n">
         <v>17331042052.6082</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="13" t="n">
         <v>16504693640.2776</v>
       </c>
-      <c r="AQ14" s="3" t="n">
-        <v>17086037229.1222</v>
-      </c>
-      <c r="AR14" s="3" t="n">
-        <v>20129078260.4918</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>18745626456.5253</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>21692520243.2092</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>47930321357.1871</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>46048669215.5635</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>9324436568.79678</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AQ14" s="13" t="n">
+        <v>17086034167.65</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>20129116794.4962</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>18717110825.4814</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>21692521204.6768</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>47933898990.5685</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>46047462499.3524</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>19297940261.1242</v>
+      </c>
+      <c r="AX14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5989,89 +5992,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13" t="n">
         <v>6248306570.3</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="13" t="n">
         <v>7562065596.71146</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="13" t="n">
         <v>9290516448.99322</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="13" t="n">
         <v>10267427381.1483</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="13" t="n">
         <v>11087992007.9989</v>
       </c>
-      <c r="AE15" s="3" t="n">
-        <v>17131952150.1296</v>
-      </c>
-      <c r="AF15" s="3" t="n">
-        <v>18941260280.5742</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>16416113252.4662</v>
-      </c>
-      <c r="AH15" s="3" t="n">
-        <v>19863851363.5215</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>24482317869.2949</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AE15" s="13" t="n">
+        <v>17131952150.1098</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>18941260280.5738</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>16416113252.4659</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>19863851363.527</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>24482317869.2998</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
         <v>16357417823.3263</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="13" t="n">
         <v>17959545251.4207</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="13" t="n">
         <v>27173400808.3605</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="13" t="n">
         <v>17535665940.1454</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="13" t="n">
         <v>10613403627.2888</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="13" t="n">
         <v>7705479630.25479</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="13" t="n">
         <v>6024692643.07542</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>7697954933.64744</v>
       </c>
-      <c r="AR15" s="3" t="n">
-        <v>8336416776.90857</v>
-      </c>
-      <c r="AS15" s="3" t="n">
+      <c r="AR15" s="13" t="n">
+        <v>8336416776.9088</v>
+      </c>
+      <c r="AS15" s="13" t="n">
         <v>6859548873.87943</v>
       </c>
-      <c r="AT15" s="3" t="n">
+      <c r="AT15" s="13" t="n">
         <v>5824956668.87249</v>
       </c>
-      <c r="AU15" s="3" t="n">
+      <c r="AU15" s="13" t="n">
         <v>6289168352.70277</v>
       </c>
-      <c r="AV15" s="3" t="n">
-        <v>12090182374.6508</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>5069458563.38283</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AV15" s="13" t="n">
+        <v>12090182374.6482</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>10765479149.6722</v>
+      </c>
+      <c r="AX15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6089,89 +6092,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="n">
         <v>21503508.8728704</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="13" t="n">
         <v>33392766.4672176</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="13" t="n">
         <v>55357739.3707342</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="13" t="n">
         <v>40016337.7013611</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="13" t="n">
         <v>31685145.9476787</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="13" t="n">
         <v>144481575.099121</v>
       </c>
-      <c r="AF16" s="3" t="n">
+      <c r="AF16" s="13" t="n">
         <v>110106940.882842</v>
       </c>
-      <c r="AG16" s="3" t="n">
+      <c r="AG16" s="13" t="n">
         <v>19904857.1463634</v>
       </c>
-      <c r="AH16" s="3" t="n">
-        <v>248565321.194796</v>
-      </c>
-      <c r="AI16" s="3" t="n">
+      <c r="AH16" s="13" t="n">
+        <v>248565321.984608</v>
+      </c>
+      <c r="AI16" s="13" t="n">
         <v>17512517.4922847</v>
       </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AJ16" s="13" t="n">
         <v>35472734.5791196</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="13" t="n">
         <v>19617560.026333</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="13" t="n">
         <v>5292589.40346198</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="13" t="n">
         <v>33312797.1076302</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="13" t="n">
         <v>6588831.75794458</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="13" t="n">
         <v>11552458.7155425</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="13" t="n">
         <v>13719840.8015922</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="13" t="n">
         <v>478198.288623103</v>
       </c>
-      <c r="AR16" s="3" t="n">
-        <v>-780437.768650167</v>
-      </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AR16" s="13" t="n">
+        <v>-799793.168539358</v>
+      </c>
+      <c r="AS16" s="13" t="n">
         <v>-1037143.81273761</v>
       </c>
-      <c r="AT16" s="3" t="n">
+      <c r="AT16" s="13" t="n">
         <v>-316578.27944195</v>
       </c>
-      <c r="AU16" s="3" t="n">
+      <c r="AU16" s="13" t="n">
         <v>5517592.56322283</v>
       </c>
-      <c r="AV16" s="3" t="n">
+      <c r="AV16" s="13" t="n">
         <v>600000</v>
       </c>
-      <c r="AW16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AW16" s="13" t="n">
+        <v>3147534.65213655</v>
+      </c>
+      <c r="AX16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6189,89 +6192,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="n">
         <v>43935724.8367777</v>
       </c>
-      <c r="AA17" s="3" t="n">
+      <c r="AA17" s="13" t="n">
         <v>59966036.1599911</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AB17" s="13" t="n">
         <v>41338046.7358143</v>
       </c>
-      <c r="AC17" s="3" t="n">
-        <v>87536853.5729968</v>
-      </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AC17" s="13" t="n">
+        <v>87536852.0491584</v>
+      </c>
+      <c r="AD17" s="13" t="n">
         <v>54765209.1972334</v>
       </c>
-      <c r="AE17" s="3" t="n">
+      <c r="AE17" s="13" t="n">
         <v>106480307.186277</v>
       </c>
-      <c r="AF17" s="3" t="n">
-        <v>132747952.292286</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>152604333.97158</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>75601021.7543228</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>19458292.8640196</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AF17" s="13" t="n">
+        <v>132747949.496016</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>152604333.971852</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>75601021.8343038</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>19458292.8838137</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
         <v>60491864.1381131</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="13" t="n">
         <v>164310392.70846</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="13" t="n">
         <v>116964420.694749</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="13" t="n">
         <v>86453067.6172657</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="13" t="n">
         <v>22444244.8018541</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="13" t="n">
         <v>5199973.31457058</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="13" t="n">
         <v>48862380.0713627</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="13" t="n">
         <v>62277406.490921</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>84638820.1963844</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>21060689.11463</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>37144047.5954878</v>
-      </c>
-      <c r="AU17" s="3" t="n">
+      <c r="AR17" s="13" t="n">
+        <v>84638820.2776885</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>21060689.113622</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>37144047.5844355</v>
+      </c>
+      <c r="AU17" s="13" t="n">
         <v>98996.5483353664</v>
       </c>
-      <c r="AV17" s="3" t="n">
+      <c r="AV17" s="13" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW17" s="3" t="n">
-        <v>8257399.87814596</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AW17" s="13" t="n">
+        <v>8364429.29771075</v>
+      </c>
+      <c r="AX17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6289,89 +6292,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="n">
         <v>1584465027.01412</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>2049498631.38714</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>2620645883.86629</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>421766452.233355</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>1565337708.01004</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>458060369.086523</v>
-      </c>
-      <c r="AF18" s="3" t="n">
+      <c r="AA18" s="13" t="n">
+        <v>2049498632.96462</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>2620645882.31333</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>421766453.757194</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>1565337709.49752</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>458060370.530178</v>
+      </c>
+      <c r="AF18" s="13" t="n">
         <v>431301416.069357</v>
       </c>
-      <c r="AG18" s="3" t="n">
-        <v>285113356.297872</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>184066200.941349</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>127820008.881133</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AG18" s="13" t="n">
+        <v>285845475.816966</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>184066200.941615</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>127820008.884432</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
         <v>214519213.761501</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="13" t="n">
         <v>236992898.382963</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="13" t="n">
         <v>296904404.033026</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="13" t="n">
         <v>261790631.263964</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="13" t="n">
         <v>236619988.117692</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="13" t="n">
         <v>170208068.079142</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="13" t="n">
         <v>341627307.833675</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="13" t="n">
         <v>254459056.540714</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>392214148.751643</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>258838802.575376</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>282029051.815049</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>272190436.126867</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>177972090.7596</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>44200465.3130193</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="13" t="n">
+        <v>392214148.755868</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>287742280.651883</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>282279554.591735</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>272280319.372809</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>178882072.5834</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>259570888.127425</v>
+      </c>
+      <c r="AX18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6389,89 +6392,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13" t="n">
         <v>45370376.7884092</v>
       </c>
-      <c r="AA19" s="3" t="n">
+      <c r="AA19" s="13" t="n">
         <v>65752533.0717767</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="13" t="n">
         <v>19838239.444122</v>
       </c>
-      <c r="AC19" s="3" t="n">
+      <c r="AC19" s="13" t="n">
         <v>41295525.1731449</v>
       </c>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="13" t="n">
         <v>34603447.3077182</v>
       </c>
-      <c r="AE19" s="3" t="n">
+      <c r="AE19" s="13" t="n">
         <v>164753075.307686</v>
       </c>
-      <c r="AF19" s="3" t="n">
+      <c r="AF19" s="13" t="n">
         <v>118914157.261851</v>
       </c>
-      <c r="AG19" s="3" t="n">
-        <v>294488716.821146</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>338381569.457471</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>394866262.038784</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AG19" s="13" t="n">
+        <v>294488716.821283</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>338381569.423746</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>394866262.007245</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
         <v>745069984.775513</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="13" t="n">
         <v>323288597.100188</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="13" t="n">
         <v>147083000.447621</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="13" t="n">
         <v>76990982.6591199</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="13" t="n">
         <v>175043278.867678</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="13" t="n">
         <v>34470673.5202989</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="13" t="n">
         <v>151040747.09613</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="13" t="n">
         <v>100780458.01593</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>44026569.5889562</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>113531428.459751</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>357499441.094498</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>2710448515.29674</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>193420511.3397</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>54239474.6138402</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="13" t="n">
+        <v>44023518.4106834</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>113531427.440798</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>357499441.095493</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>2710129596.16143</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>193420513.1443</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>216788054.016185</v>
+      </c>
+      <c r="AX19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6489,65 +6492,65 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3" t="n">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13" t="n">
         <v>43818.1660644235</v>
       </c>
-      <c r="AE20" s="3" t="n">
+      <c r="AE20" s="13" t="n">
         <v>2139122.36791629</v>
       </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AF20" s="13" t="n">
         <v>27526523.8073517</v>
       </c>
-      <c r="AG20" s="3" t="n">
-        <v>742559581.181015</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>559369148.775092</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>487987325.377611</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AG20" s="13" t="n">
+        <v>741827461.621642</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>559369148.744833</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>487987325.676766</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
         <v>633368.013795973</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="13" t="n">
         <v>180081.644984246</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="13" t="n">
         <v>-225150.308914601</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="13" t="n">
         <v>-756628.027138834</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="13" t="n">
         <v>-181658.707983677</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="13" t="n">
         <v>-5.62540908958447</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6563,109 +6566,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="13" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="13" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="13" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="13" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="13" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="13" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="13" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="13" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="13" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="13" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="13" t="n">
         <v>789493970.636724</v>
       </c>
-      <c r="AA21" s="3" t="n">
+      <c r="AA21" s="13" t="n">
         <v>344123396.332007</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="13" t="n">
         <v>566790137.338196</v>
       </c>
-      <c r="AC21" s="3" t="n">
-        <v>1046458270.7275</v>
-      </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AC21" s="13" t="n">
+        <v>1046458270.72765</v>
+      </c>
+      <c r="AD21" s="13" t="n">
         <v>1319963846.81492</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="13" t="n">
         <v>1065981586.90865</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="13" t="n">
         <v>454842873.243877</v>
       </c>
-      <c r="AG21" s="3" t="n">
+      <c r="AG21" s="13" t="n">
         <v>3519003.07922392</v>
       </c>
-      <c r="AH21" s="3" t="n">
-        <v>37347145.9913048</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>34080131.8551102</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AH21" s="13" t="n">
+        <v>37347145.959579</v>
+      </c>
+      <c r="AI21" s="13" t="n">
+        <v>34080133.2179992</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
         <v>852853.354736148</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="13" t="n">
         <v>-23449.9487579673</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="13" t="n">
         <v>56417.6471773755</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="13" t="n">
         <v>1756486.36794642</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="13" t="n">
         <v>7553818.53256489</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="13" t="n">
         <v>13340828.956973</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="13" t="n">
         <v>844467.796242034</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="13" t="n">
         <v>15068135.8086669</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6674,41 +6677,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -434,9 +434,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -445,7 +445,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -483,9 +483,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,110 +909,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="13" t="n">
         <v>10893531000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="13" t="n">
         <v>13665728115</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="13" t="n">
         <v>9670567147</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="13" t="n">
         <v>10550437083</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="13" t="n">
         <v>8625703645</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="13" t="n">
         <v>8564693193</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="13" t="n">
         <v>9626815429</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="13" t="n">
         <v>9689390520</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="13" t="n">
         <v>8558812514</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="13" t="n">
         <v>7673146029</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="13" t="n">
         <v>8636545116.09</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>10224727569</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>13387175814.2415</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>15539351529.4262</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>18316590305.8947</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>31788501740.2196</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>34619998281.3475</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>34291731706.9222</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>39100137503.6043</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>35615937470.7182</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="13" t="n">
+        <v>10224727570</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>13387175813.2413</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>15539351530.4263</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>18316590305.9026</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>31788501748.0453</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>34619998279.9158</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>34291731704.586</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>39100082213.1777</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>35615937472.8764</v>
+      </c>
+      <c r="AH2" s="13" t="n">
         <v>29121536359.5554</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="13" t="n">
         <v>30007007163.88</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>35357832226.4521</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="13" t="n">
         <v>26464056854.4453</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="13" t="n">
         <v>24267856901.2681</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="13" t="n">
         <v>21069110791.9282</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="13" t="n">
         <v>19406249663.8794</v>
       </c>
-      <c r="AO2" s="1" t="n">
-        <v>21576572063.2504</v>
-      </c>
-      <c r="AP2" s="1" t="n">
-        <v>25383398093.2805</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>23212631381.3324</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>25509452203.1722</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>53500803265.6315</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>58510847251.7136</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>15202995501.5959</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AO2" s="13" t="n">
+        <v>21576569443.7504</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>25383412216.5396</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>23212977680.1147</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>25509679725.0878</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>53503934881.0247</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>58510550519.1283</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>32031182874.2855</v>
+      </c>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1021,56 +1021,56 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="n">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="n">
         <v>30000</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1" t="n">
+      <c r="U3" s="13"/>
+      <c r="V3" s="13" t="n">
         <v>1433647</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="13" t="n">
         <v>568547</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="13" t="n">
         <v>179512</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="13" t="n">
         <v>237128</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="Z3" s="13" t="n">
         <v>2191690</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="13" t="n">
         <v>2095383</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1079,58 +1079,58 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="n">
         <v>806000</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="13" t="n">
         <v>386155</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="13" t="n">
         <v>31500</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="n">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13" t="n">
         <v>434502</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="n">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="n">
         <v>40572</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="n">
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="n">
         <v>2540673</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="13" t="n">
         <v>1728714</v>
       </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="n">
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13" t="n">
         <v>2956374</v>
       </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1139,110 +1139,110 @@
       <c r="M5" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="13" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="13" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="13" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="13" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="13" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="13" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="13" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="13" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="V5" s="13" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="13" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="X5" s="13" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Y5" s="13" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="1" t="str">
+      <c r="Z5" s="13" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AA5" s="13" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AB5" s="13" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="1" t="str">
+      <c r="AC5" s="13" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="1" t="str">
+      <c r="AD5" s="13" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="1" t="str">
+      <c r="AE5" s="13" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="1" t="str">
+      <c r="AF5" s="13" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AG5" s="13" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="1" t="str">
+      <c r="AH5" s="13" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AI5" s="13" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="1" t="str">
+      <c r="AJ5" s="13" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AK5" s="13" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="1" t="str">
+      <c r="AL5" s="13" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AM5" s="13" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AN5" s="13" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="1" t="str">
+      <c r="AO5" s="13" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="1" t="str">
+      <c r="AP5" s="13" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AQ5" s="13" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AR5" s="13" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="1" t="str">
+      <c r="AS5" s="13" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="1" t="str">
+      <c r="AT5" s="13" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="1" t="str">
+      <c r="AU5" s="13" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1361,110 +1361,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="13" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="13" t="n">
         <v>26225619368.1</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="13" t="n">
         <v>18106073739.0735</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="13" t="n">
         <v>19300065991.4177</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="13" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="13" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="13" t="n">
         <v>16566068154.9439</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="13" t="n">
         <v>16382719489.7636</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="13" t="n">
         <v>14292683459.9874</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="13" t="n">
         <v>12655917221.9341</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="13" t="n">
         <v>13954325470.2538</v>
       </c>
-      <c r="Y9" s="1" t="n">
-        <v>16129274000.7878</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>20789826739.1909</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>23679459572.0542</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>27245549452.0233</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>45891620138.1008</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>48403423796.2855</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>46664769543.0408</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>52121099966.0697</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>46999004594.4342</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="Y9" s="13" t="n">
+        <v>16129274002.3653</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>20789826737.6376</v>
+      </c>
+      <c r="AA9" s="13" t="n">
+        <v>23679459573.5782</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>27245549452.0351</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>45891620149.3984</v>
+      </c>
+      <c r="AD9" s="13" t="n">
+        <v>48403423794.2838</v>
+      </c>
+      <c r="AE9" s="13" t="n">
+        <v>46664769539.8616</v>
+      </c>
+      <c r="AF9" s="13" t="n">
+        <v>52121026263.059</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>46999004597.2822</v>
+      </c>
+      <c r="AH9" s="13" t="n">
         <v>38097601000.6061</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="13" t="n">
         <v>38480472611.1862</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="13" t="n">
         <v>44526118114.2755</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="13" t="n">
         <v>32727277601.8731</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="13" t="n">
         <v>29441726591.6155</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="13" t="n">
         <v>25271293679.8241</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="13" t="n">
         <v>23085481026.952</v>
       </c>
-      <c r="AO9" s="1" t="n">
-        <v>25217055417.9145</v>
-      </c>
-      <c r="AP9" s="1" t="n">
-        <v>28985594138.1687</v>
-      </c>
-      <c r="AQ9" s="1" t="n">
-        <v>25997569106.7417</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>28193832874.3072</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>57207745250.425</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>58510847251.7136</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>14500592471.9846</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AO9" s="13" t="n">
+        <v>25217052356.4422</v>
+      </c>
+      <c r="AP9" s="13" t="n">
+        <v>28985610265.6807</v>
+      </c>
+      <c r="AQ9" s="13" t="n">
+        <v>25997956952.7544</v>
+      </c>
+      <c r="AR9" s="13" t="n">
+        <v>28194084338.5415</v>
+      </c>
+      <c r="AS9" s="13" t="n">
+        <v>57211093847.917</v>
+      </c>
+      <c r="AT9" s="13" t="n">
+        <v>58510550519.1283</v>
+      </c>
+      <c r="AU9" s="13" t="n">
+        <v>30551290316.8899</v>
+      </c>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1473,56 +1473,56 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="n">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13" t="n">
         <v>51624.7608893799</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1" t="n">
+      <c r="U10" s="13"/>
+      <c r="V10" s="13" t="n">
         <v>2394101.13620823</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="13" t="n">
         <v>937748.837515181</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="13" t="n">
         <v>290042.932694163</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Y10" s="13" t="n">
         <v>374063.999206668</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="Z10" s="13" t="n">
         <v>3403619.70278635</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AA10" s="13" t="n">
         <v>3193024.94331961</v>
       </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1531,99 +1531,99 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="n">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="n">
         <v>1546778.11769773</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="13" t="n">
         <v>722992.850205366</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="13" t="n">
         <v>57623.4021346145</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="n">
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13" t="n">
         <v>734651.407541911</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="n">
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="n">
         <v>65553.3995792348</v>
       </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1" t="n">
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13" t="n">
         <v>3945578.38067304</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AA11" s="13" t="n">
         <v>2634280.66461636</v>
       </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="n">
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13" t="n">
         <v>3901248.853076</v>
       </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4864,89 +4864,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>3231731618.09</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="3" t="n">
         <v>3812954846</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="3" t="n">
         <v>5281950979.2413</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="3" t="n">
         <v>7730994674.9821</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="3" t="n">
         <v>8841237665.2824</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="3" t="n">
         <v>18576306264.9327</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="3" t="n">
         <v>20160233468.79</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="3" t="n">
         <v>21127357773.9114</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="3" t="n">
         <v>23115888908.3915</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="3" t="n">
         <v>16246412582.411</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>15810048131.7744</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="3" t="n">
         <v>15421728885.6504</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="3" t="n">
         <v>13330137081.8715</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="3" t="n">
         <v>11912698410.6653</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="3" t="n">
         <v>15150245474.8841</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="3" t="n">
         <v>14449186882.6444</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="3" t="n">
         <v>13874270370.8504</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>14619393160.0578</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="3" t="n">
         <v>17627562934.3755</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="3" t="n">
         <v>16712077668.9378</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="3" t="n">
         <v>19627140988.74</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="3" t="n">
         <v>44827882805.4319</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="3" t="n">
         <v>46047462499.3524</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="3" t="n">
         <v>20232724941.8784</v>
       </c>
-      <c r="AX2" s="13"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4964,89 +4964,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>3867172348</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="3" t="n">
         <v>4793771907</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="3" t="n">
         <v>5982434518</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="3" t="n">
         <v>6737871820.6396</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="3" t="n">
         <v>7454215863.1515</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="3" t="n">
         <v>11867070482.5472</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="3" t="n">
         <v>13547520958.8447</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="3" t="n">
         <v>12063425081.4159</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="3" t="n">
         <v>14901437616.8322</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="3" t="n">
         <v>18552748295.3222</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>12503494324.5602</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="3" t="n">
         <v>14004822873.7905</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="3" t="n">
         <v>21578178999.083</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="3" t="n">
         <v>14179757511.9419</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="3" t="n">
         <v>8748283143.6861</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="3" t="n">
         <v>6424190470.4862</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="3" t="n">
         <v>5064511735.4566</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>6586632602.9288</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="3" t="n">
         <v>7300405322.4195</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="3" t="n">
         <v>6124733385.5651</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="3" t="n">
         <v>5270353073.0496</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="3" t="n">
         <v>5881643425.5445</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="3" t="n">
         <v>12090182374.6482</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="3" t="n">
         <v>11286954750.38</v>
       </c>
-      <c r="AX3" s="13"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5064,89 +5064,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>13308850</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="3" t="n">
         <v>21168463</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="3" t="n">
         <v>35646463</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="3" t="n">
         <v>26260225.0938</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="3" t="n">
         <v>21301234.4687</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="3" t="n">
         <v>100080424</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="3" t="n">
         <v>78752737</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="3" t="n">
         <v>14627137.9375</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="3" t="n">
         <v>186468402.9031</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="3" t="n">
         <v>13271019.9576</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>27115107.0589</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="3" t="n">
         <v>15297739.9783</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="3" t="n">
         <v>4202802.6717</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="3" t="n">
         <v>26937521.885</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="3" t="n">
         <v>5430959.5516</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="3" t="n">
         <v>9631482.8865</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="3" t="n">
         <v>11533251.3814</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>409162.7537</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="3" t="n">
         <v>-700398.5598</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="3" t="n">
         <v>-926041.8509</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="3" t="n">
         <v>-286436.3467</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="3" t="n">
         <v>5160064.13</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="3" t="n">
         <v>3300000</v>
       </c>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5164,89 +5164,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>27192491</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="3" t="n">
         <v>38013886</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="3" t="n">
         <v>26618774</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="3" t="n">
         <v>57444973</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="3" t="n">
         <v>36817459</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="3" t="n">
         <v>73757462.04</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="3" t="n">
         <v>94946460.8691</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="3" t="n">
         <v>112141706.2405</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="3" t="n">
         <v>56714274.0859</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="3" t="n">
         <v>14745532.3494</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>46239552.4833</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="3" t="n">
         <v>128128965.0707</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="3" t="n">
         <v>92880505.6119</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="3" t="n">
         <v>69908011.43</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="3" t="n">
         <v>18500060.43</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="3" t="n">
         <v>4335306.9007</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="3" t="n">
         <v>41074974.6011</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>53286671.5322</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="3" t="n">
         <v>74120297.7939</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="3" t="n">
         <v>18804604.8084</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="3" t="n">
         <v>33607502.4177</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="3" t="n">
         <v>92581.7795</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="3" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="3" t="n">
         <v>8769598.9824</v>
       </c>
-      <c r="AX5" s="13"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5264,89 +5264,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>980649600</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="3" t="n">
         <v>1299225568</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="3" t="n">
         <v>1687510320</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="3" t="n">
         <v>276779002</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="3" t="n">
         <v>1052342496</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="3" t="n">
         <v>317292195</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="3" t="n">
         <v>308483431.79</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="3" t="n">
         <v>210054318.5435</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="3" t="n">
         <v>138082537.9984</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="3" t="n">
         <v>96862252.3651</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>163976967.5597</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="3" t="n">
         <v>184806659.5081</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="3" t="n">
         <v>235769398.9436</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="3" t="n">
         <v>211690145.2669</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="3" t="n">
         <v>195038154.2248</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="3" t="n">
         <v>141905384.4047</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="3" t="n">
         <v>287180709.8184</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>217723841.2498</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="3" t="n">
         <v>343471582.0635</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="3" t="n">
         <v>256918462.8829</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="3" t="n">
         <v>255403259.2125</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="3" t="n">
         <v>254637125.377</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="3" t="n">
         <v>178882072.5834</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="3" t="n">
         <v>272144400.4561</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5364,89 +5364,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>28080419</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="3" t="n">
         <v>41682083</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="3" t="n">
         <v>12774421</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="3" t="n">
         <v>27099676</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="3" t="n">
         <v>23263145</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="3" t="n">
         <v>114122216.7656</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="3" t="n">
         <v>85051998.333</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="3" t="n">
         <v>216405827.4977</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="3" t="n">
         <v>253846636.0412</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="3" t="n">
         <v>299230424.5229</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>569526219.0317</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="3" t="n">
         <v>252099898.7514</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="3" t="n">
         <v>116797427.5198</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="3" t="n">
         <v>62256743.9662</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="3" t="n">
         <v>144282477.1119</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="3" t="n">
         <v>28738791.4791</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="3" t="n">
         <v>126968740.402</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>86231194.678</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="3" t="n">
         <v>38552478.447</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="3" t="n">
         <v>101369599.7714</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="3" t="n">
         <v>323461338.0147</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="3" t="n">
         <v>2534518878.7618</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="3" t="n">
         <v>193420513.1443</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="3" t="n">
         <v>227289182.5886</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5464,65 +5464,65 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="n">
         <v>29458</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="3" t="n">
         <v>1481741</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="3" t="n">
         <v>19688033.039</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="3" t="n">
         <v>545133910.1395</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="3" t="n">
         <v>419626804.6038</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="3" t="n">
         <v>369797748.4371</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>484142.0236</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="3" t="n">
         <v>140427.3608</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-178790.0492</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-611827.46</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-149735.36</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-4.69</v>
       </c>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5538,109 +5538,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="3" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="3" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="3" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="3" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="3" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="3" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="3" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="3" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="3" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="3" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="3" t="n">
         <v>488629874</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="3" t="n">
         <v>218147945</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="3" t="n">
         <v>364972701</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="3" t="n">
         <v>686725255.7108</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="3" t="n">
         <v>887382985</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="3" t="n">
         <v>738390961.7598</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="3" t="n">
         <v>325321191.25</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="3" t="n">
         <v>2585948.9</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="3" t="n">
         <v>28017032.3216</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="3" t="n">
         <v>25825991.5111</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>651915.0636</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-18286.2302</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="3" t="n">
         <v>44800.7998</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="3" t="n">
         <v>1420336.75</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="3" t="n">
         <v>6226366.7396</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="3" t="n">
         <v>11122477.8166</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="3" t="n">
         <v>709881.3695</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>12892810.5501</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5655,107 +5655,107 @@
       <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5892,89 +5892,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>5221605888.13716</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="3" t="n">
         <v>6014849104.65742</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="3" t="n">
         <v>8202689441.52564</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="3" t="n">
         <v>11780786058.6294</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="3" t="n">
         <v>13151158267.105</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="3" t="n">
         <v>26817771961.8888</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="3" t="n">
         <v>28186723652.9487</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="3" t="n">
         <v>28750466438.9384</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="3" t="n">
         <v>30813844490.6433</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="3" t="n">
         <v>21438863436.6729</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>20683143158.657</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="3" t="n">
         <v>19776561279.8513</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="3" t="n">
         <v>16786641623.9979</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="3" t="n">
         <v>14732064324.7389</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="3" t="n">
         <v>18380254460.9569</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="3" t="n">
         <v>17331042052.6082</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="3" t="n">
         <v>16504693640.2776</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>17086034167.65</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="3" t="n">
         <v>20129116794.4962</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="3" t="n">
         <v>18717110825.4814</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="3" t="n">
         <v>21692521204.6768</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="3" t="n">
         <v>47933898990.5685</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="3" t="n">
         <v>46047462499.3524</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="3" t="n">
         <v>19297940261.1242</v>
       </c>
-      <c r="AX14" s="13"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5992,89 +5992,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>6248306570.3</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="3" t="n">
         <v>7562065596.71146</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="3" t="n">
         <v>9290516448.99322</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="3" t="n">
         <v>10267427381.1483</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="3" t="n">
         <v>11087992007.9989</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="3" t="n">
         <v>17131952150.1098</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="3" t="n">
         <v>18941260280.5738</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="3" t="n">
         <v>16416113252.4659</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="3" t="n">
         <v>19863851363.527</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="3" t="n">
         <v>24482317869.2998</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>16357417823.3263</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="3" t="n">
         <v>17959545251.4207</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="3" t="n">
         <v>27173400808.3605</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="3" t="n">
         <v>17535665940.1454</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="3" t="n">
         <v>10613403627.2888</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="3" t="n">
         <v>7705479630.25479</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="3" t="n">
         <v>6024692643.07542</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>7697954933.64744</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="3" t="n">
         <v>8336416776.9088</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="3" t="n">
         <v>6859548873.87943</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="3" t="n">
         <v>5824956668.87249</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="3" t="n">
         <v>6289168352.70277</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="3" t="n">
         <v>12090182374.6482</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="3" t="n">
         <v>10765479149.6722</v>
       </c>
-      <c r="AX15" s="13"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6092,89 +6092,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>21503508.8728704</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="3" t="n">
         <v>33392766.4672176</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="3" t="n">
         <v>55357739.3707342</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="3" t="n">
         <v>40016337.7013611</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="3" t="n">
         <v>31685145.9476787</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="3" t="n">
         <v>144481575.099121</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="3" t="n">
         <v>110106940.882842</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="3" t="n">
         <v>19904857.1463634</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="3" t="n">
         <v>248565321.984608</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="3" t="n">
         <v>17512517.4922847</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>35472734.5791196</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="3" t="n">
         <v>19617560.026333</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="3" t="n">
         <v>5292589.40346198</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="3" t="n">
         <v>33312797.1076302</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="3" t="n">
         <v>6588831.75794458</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="3" t="n">
         <v>11552458.7155425</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="3" t="n">
         <v>13719840.8015922</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>478198.288623103</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="3" t="n">
         <v>-799793.168539358</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="3" t="n">
         <v>-1037143.81273761</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="3" t="n">
         <v>-316578.27944195</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="3" t="n">
         <v>5517592.56322283</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="3" t="n">
         <v>3147534.65213655</v>
       </c>
-      <c r="AX16" s="13"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6192,89 +6192,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>43935724.8367777</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="3" t="n">
         <v>59966036.1599911</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="3" t="n">
         <v>41338046.7358143</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="3" t="n">
         <v>87536852.0491584</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="3" t="n">
         <v>54765209.1972334</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="3" t="n">
         <v>106480307.186277</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="3" t="n">
         <v>132747949.496016</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="3" t="n">
         <v>152604333.971852</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="3" t="n">
         <v>75601021.8343038</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="3" t="n">
         <v>19458292.8838137</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>60491864.1381131</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="3" t="n">
         <v>164310392.70846</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="3" t="n">
         <v>116964420.694749</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="3" t="n">
         <v>86453067.6172657</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="3" t="n">
         <v>22444244.8018541</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="3" t="n">
         <v>5199973.31457058</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="3" t="n">
         <v>48862380.0713627</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>62277406.490921</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="3" t="n">
         <v>84638820.2776885</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="3" t="n">
         <v>21060689.113622</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="3" t="n">
         <v>37144047.5844355</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="3" t="n">
         <v>98996.5483353664</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="3" t="n">
         <v>3059.4</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="3" t="n">
         <v>8364429.29771075</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6292,89 +6292,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>1584465027.01412</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="3" t="n">
         <v>2049498632.96462</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="3" t="n">
         <v>2620645882.31333</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="3" t="n">
         <v>421766453.757194</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="3" t="n">
         <v>1565337709.49752</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="3" t="n">
         <v>458060370.530178</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="3" t="n">
         <v>431301416.069357</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="3" t="n">
         <v>285845475.816966</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="3" t="n">
         <v>184066200.941615</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="3" t="n">
         <v>127820008.884432</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>214519213.761501</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="3" t="n">
         <v>236992898.382963</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="3" t="n">
         <v>296904404.033026</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="3" t="n">
         <v>261790631.263964</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="3" t="n">
         <v>236619988.117692</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="3" t="n">
         <v>170208068.079142</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="3" t="n">
         <v>341627307.833675</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>254459056.540714</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="3" t="n">
         <v>392214148.755868</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="3" t="n">
         <v>287742280.651883</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="3" t="n">
         <v>282279554.591735</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="3" t="n">
         <v>272280319.372809</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="3" t="n">
         <v>178882072.5834</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="3" t="n">
         <v>259570888.127425</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6392,89 +6392,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>45370376.7884092</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="3" t="n">
         <v>65752533.0717767</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="3" t="n">
         <v>19838239.444122</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="3" t="n">
         <v>41295525.1731449</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="3" t="n">
         <v>34603447.3077182</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="3" t="n">
         <v>164753075.307686</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="3" t="n">
         <v>118914157.261851</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="3" t="n">
         <v>294488716.821283</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="3" t="n">
         <v>338381569.423746</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="3" t="n">
         <v>394866262.007245</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>745069984.775513</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="3" t="n">
         <v>323288597.100188</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="3" t="n">
         <v>147083000.447621</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="3" t="n">
         <v>76990982.6591199</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="3" t="n">
         <v>175043278.867678</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="3" t="n">
         <v>34470673.5202989</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="3" t="n">
         <v>151040747.09613</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>100780458.01593</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="3" t="n">
         <v>44023518.4106834</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="3" t="n">
         <v>113531427.440798</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="3" t="n">
         <v>357499441.095493</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="3" t="n">
         <v>2710129596.16143</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="3" t="n">
         <v>193420513.1443</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="3" t="n">
         <v>216788054.016185</v>
       </c>
-      <c r="AX19" s="13"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6492,65 +6492,65 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="n">
         <v>43818.1660644235</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="3" t="n">
         <v>2139122.36791629</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="3" t="n">
         <v>27526523.8073517</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="3" t="n">
         <v>741827461.621642</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="3" t="n">
         <v>559369148.744833</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="3" t="n">
         <v>487987325.676766</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>633368.013795973</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="3" t="n">
         <v>180081.644984246</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-225150.308914601</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-756628.027138834</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-181658.707983677</v>
       </c>
-      <c r="AO20" s="13" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-5.62540908958447</v>
       </c>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6566,109 +6566,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="3" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="3" t="n">
         <v>26227166146.2177</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="3" t="n">
         <v>18106796731.9237</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="3" t="n">
         <v>19300123614.8198</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="3" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="3" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="3" t="n">
         <v>16566119779.7048</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="3" t="n">
         <v>16383454141.1711</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="3" t="n">
         <v>14295077561.1236</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="3" t="n">
         <v>12656854970.7716</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="3" t="n">
         <v>789493970.636724</v>
       </c>
-      <c r="AA21" s="13" t="n">
+      <c r="AA21" s="3" t="n">
         <v>344123396.332007</v>
       </c>
-      <c r="AB21" s="13" t="n">
+      <c r="AB21" s="3" t="n">
         <v>566790137.338196</v>
       </c>
-      <c r="AC21" s="13" t="n">
+      <c r="AC21" s="3" t="n">
         <v>1046458270.72765</v>
       </c>
-      <c r="AD21" s="13" t="n">
+      <c r="AD21" s="3" t="n">
         <v>1319963846.81492</v>
       </c>
-      <c r="AE21" s="13" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1065981586.90865</v>
       </c>
-      <c r="AF21" s="13" t="n">
+      <c r="AF21" s="3" t="n">
         <v>454842873.243877</v>
       </c>
-      <c r="AG21" s="13" t="n">
+      <c r="AG21" s="3" t="n">
         <v>3519003.07922392</v>
       </c>
-      <c r="AH21" s="13" t="n">
+      <c r="AH21" s="3" t="n">
         <v>37347145.959579</v>
       </c>
-      <c r="AI21" s="13" t="n">
+      <c r="AI21" s="3" t="n">
         <v>34080133.2179992</v>
       </c>
-      <c r="AJ21" s="13" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>852853.354736148</v>
       </c>
-      <c r="AK21" s="13" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-23449.9487579673</v>
       </c>
-      <c r="AL21" s="13" t="n">
+      <c r="AL21" s="3" t="n">
         <v>56417.6471773755</v>
       </c>
-      <c r="AM21" s="13" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1756486.36794642</v>
       </c>
-      <c r="AN21" s="13" t="n">
+      <c r="AN21" s="3" t="n">
         <v>7553818.53256489</v>
       </c>
-      <c r="AO21" s="13" t="n">
+      <c r="AO21" s="3" t="n">
         <v>13340828.956973</v>
       </c>
-      <c r="AP21" s="13" t="n">
+      <c r="AP21" s="3" t="n">
         <v>844467.796242034</v>
       </c>
-      <c r="AQ21" s="13" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>15068135.8086669</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="13" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6677,41 +6677,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -428,24 +428,30 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -483,11 +489,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -495,7 +501,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,110 +915,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="1" t="n">
         <v>10893531000</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="1" t="n">
         <v>13665728115</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="1" t="n">
         <v>9670567147</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="1" t="n">
         <v>10550437083</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="1" t="n">
         <v>8625703645</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="1" t="n">
         <v>8564693193</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="1" t="n">
         <v>9626815429</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="1" t="n">
         <v>9689390520</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="1" t="n">
         <v>8558812514</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="1" t="n">
         <v>7673146029</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="1" t="n">
         <v>8636545116.09</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="1" t="n">
         <v>10224727570</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="1" t="n">
         <v>13387175813.2413</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="1" t="n">
         <v>15539351530.4263</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="1" t="n">
         <v>18316590305.9026</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="1" t="n">
         <v>31788501748.0453</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="1" t="n">
         <v>34619998279.9158</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="1" t="n">
         <v>34291731704.586</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="1" t="n">
         <v>39100082213.1777</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="1" t="n">
         <v>35615937472.8764</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="1" t="n">
         <v>29121536359.5554</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="1" t="n">
         <v>30007007163.88</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>35357832226.4521</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="1" t="n">
         <v>26464056854.4453</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="1" t="n">
         <v>24267856901.2681</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="1" t="n">
         <v>21069110791.9282</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="1" t="n">
         <v>19406249663.8794</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="1" t="n">
         <v>21576569443.7504</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="1" t="n">
         <v>25383412216.5396</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>23212977680.1147</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="1" t="n">
         <v>25509679725.0878</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="1" t="n">
         <v>53503934881.0247</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="1" t="n">
         <v>58510550519.1283</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="1" t="n">
         <v>32031182874.2855</v>
       </c>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1021,56 +1027,56 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="n">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13" t="n">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="n">
         <v>1433647</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="1" t="n">
         <v>568547</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="1" t="n">
         <v>179512</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="1" t="n">
         <v>237128</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="1" t="n">
         <v>2191690</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="1" t="n">
         <v>2095383</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1079,58 +1085,58 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="n">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="n">
         <v>806000</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="1" t="n">
         <v>386155</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="1" t="n">
         <v>31500</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13" t="n">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="n">
         <v>434502</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="n">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="n">
         <v>40572</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="n">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>2540673</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="1" t="n">
         <v>1728714</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13" t="n">
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="n">
         <v>2956374</v>
       </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1139,110 +1145,110 @@
       <c r="M5" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="13" t="str">
+      <c r="N5" s="1" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="O5" s="1" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="13" t="str">
+      <c r="P5" s="1" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="13" t="str">
+      <c r="Q5" s="1" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="R5" s="1" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="13" t="str">
+      <c r="S5" s="1" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="13" t="str">
+      <c r="T5" s="1" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="13" t="str">
+      <c r="U5" s="1" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="13" t="str">
+      <c r="V5" s="1" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="13" t="str">
+      <c r="W5" s="1" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="13" t="str">
+      <c r="X5" s="1" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="13" t="str">
+      <c r="Y5" s="1" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="13" t="str">
+      <c r="Z5" s="1" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="13" t="str">
+      <c r="AA5" s="1" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="13" t="str">
+      <c r="AB5" s="1" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="13" t="str">
+      <c r="AC5" s="1" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="13" t="str">
+      <c r="AD5" s="1" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="13" t="str">
+      <c r="AE5" s="1" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="13" t="str">
+      <c r="AF5" s="1" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="13" t="str">
+      <c r="AG5" s="1" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="13" t="str">
+      <c r="AH5" s="1" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="13" t="str">
+      <c r="AI5" s="1" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="13" t="str">
+      <c r="AJ5" s="1" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="13" t="str">
+      <c r="AK5" s="1" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="13" t="str">
+      <c r="AL5" s="1" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="13" t="str">
+      <c r="AM5" s="1" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="13" t="str">
+      <c r="AN5" s="1" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="13" t="str">
+      <c r="AO5" s="1" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="13" t="str">
+      <c r="AP5" s="1" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="13" t="str">
+      <c r="AQ5" s="1" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="13" t="str">
+      <c r="AR5" s="1" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="13" t="str">
+      <c r="AS5" s="1" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="13" t="str">
+      <c r="AT5" s="1" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="13" t="str">
+      <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1361,110 +1367,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="13" t="n">
+      <c r="N9" s="1" t="n">
         <v>21651236733.6665</v>
       </c>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="1" t="n">
         <v>26225619368.1</v>
       </c>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="1" t="n">
         <v>18106073739.0735</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="1" t="n">
         <v>19300065991.4177</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="1" t="n">
         <v>15442633771.9174</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="1" t="n">
         <v>15015339183.8907</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="1" t="n">
         <v>16566068154.9439</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="1" t="n">
         <v>16382719489.7636</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="1" t="n">
         <v>14292683459.9874</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="1" t="n">
         <v>12655917221.9341</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="1" t="n">
         <v>13954325470.2538</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="1" t="n">
         <v>16129274002.3653</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="1" t="n">
         <v>20789826737.6376</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="1" t="n">
         <v>23679459573.5782</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="1" t="n">
         <v>27245549452.0351</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="1" t="n">
         <v>45891620149.3984</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="1" t="n">
         <v>48403423794.2838</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="1" t="n">
         <v>46664769539.8616</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="1" t="n">
         <v>52121026263.059</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="1" t="n">
         <v>46999004597.2822</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="1" t="n">
         <v>38097601000.6061</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="1" t="n">
         <v>38480472611.1862</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>44526118114.2755</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="1" t="n">
         <v>32727277601.8731</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="1" t="n">
         <v>29441726591.6155</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="1" t="n">
         <v>25271293679.8241</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="1" t="n">
         <v>23085481026.952</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="1" t="n">
         <v>25217052356.4422</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="1" t="n">
         <v>28985610265.6807</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>25997956952.7544</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="1" t="n">
         <v>28194084338.5415</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="1" t="n">
         <v>57211093847.917</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="1" t="n">
         <v>58510550519.1283</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="1" t="n">
         <v>30551290316.8899</v>
       </c>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1473,56 +1479,56 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13" t="n">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="n">
         <v>51624.7608893799</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13" t="n">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="n">
         <v>2394101.13620823</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="1" t="n">
         <v>937748.837515181</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="1" t="n">
         <v>290042.932694163</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="1" t="n">
         <v>374063.999206668</v>
       </c>
-      <c r="Z10" s="13" t="n">
+      <c r="Z10" s="1" t="n">
         <v>3403619.70278635</v>
       </c>
-      <c r="AA10" s="13" t="n">
+      <c r="AA10" s="1" t="n">
         <v>3193024.94331961</v>
       </c>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1531,99 +1537,99 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13" t="n">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="n">
         <v>1546778.11769773</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="1" t="n">
         <v>722992.850205366</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="1" t="n">
         <v>57623.4021346145</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13" t="n">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="n">
         <v>734651.407541911</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="n">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1" t="n">
         <v>65553.3995792348</v>
       </c>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13" t="n">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="n">
         <v>3945578.38067304</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="1" t="n">
         <v>2634280.66461636</v>
       </c>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13" t="n">
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="n">
         <v>3901248.853076</v>
       </c>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6731,6 +6737,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>59</v>
       </c>
@@ -6839,736 +6851,1033 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
+      <c r="P2" s="13" t="n">
+        <v>21060000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>37406000</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>2963000</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>244000</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>2865000</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>4434000</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>52072000</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>2674129062</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>2187317165</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>1332627861</v>
+      </c>
+      <c r="Z2" s="13" t="n">
         <v>1598712225</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>1950251131</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>2453706483</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1537937967.2</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>2359572844.2261</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>2281786758.9359</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>3084333703.9281</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>2683224382.5614</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>3837830270.887</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>1610368586.7903</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>1526017359.7333</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>1383479480.5873</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>1114684443.4296</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>891224119.6603</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>817356909.2429</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>653654396.8533</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>753701756.3239</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>773948199.8652</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>944969387.8315</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>892014219.0943</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>3037075943.1174</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>31132214013.3034</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>28769042912.4651</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>2352508496.4324</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="AA2" s="13" t="n">
+        <v>1950251110</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>2453706466</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>1537937968.2</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>2359572844.28</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>2281786766.95</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>3084333702.33</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>2683224380.25</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>3837830269.16</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>1610368591.89</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>1517218766.1628</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>1382941978.1415</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>1114566997.5758</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>933732790.2203</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>818535950.9229</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>655986106.1738</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>753481921.2797</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>774690757.5639</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>929673402.36</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>886690123.11</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>3037069947.75</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>31136299475.1</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>28768751266.92</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>2618371745.11</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>1338431505.3</v>
+      </c>
+      <c r="AY2" s="13" t="n">
+        <v>388548670.46</v>
+      </c>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="13" t="n">
+        <v>-665000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>-23000</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>75000</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>192000</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>36000</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>3632198</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>48953421</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>108533418</v>
+      </c>
+      <c r="Z3" s="13" t="n">
         <v>307681077.09</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="13" t="n">
         <v>348461644</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>427869132.3104</v>
-      </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AB3" s="13" t="n">
+        <v>427869132.31</v>
+      </c>
+      <c r="AC3" s="13" t="n">
         <v>777990920.63</v>
       </c>
-      <c r="AD3" s="4" t="n">
-        <v>959844055.1201</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1564435272.9276</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>1929237401.8004</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>2848479475.8697</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>3258995428.8174</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>2228722045.3614</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>1648376844.0681</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>1437608258.166</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>1238210053.3423</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>1134115760.9836</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>1291478699.4887</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>1394911469.1191</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>1297195047.2086</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>1321412773.8037</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>1800704927.8589</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>1627764647.9727</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>1522691066.091</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1184746287.7599</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>1407852561.5702</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>827953320.1192</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AD3" s="13" t="n">
+        <v>959844055.1</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>1564435271.75</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>1929237400.67</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>2848479475.8</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>3259018579.42</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>2228682831.76</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>1645780523.1147</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>1435866272.1331</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>1230738448.4406</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>1140369649.5738</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>1287870537.6731</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>1399759572.6978</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>1296473981.2177</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>1321918170.5489</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>1800678199.42</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>1628137775.79</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>1523306342.98</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>1186115924.75</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>1408904330.45</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>2072209669.46</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>2413298021.84</v>
+      </c>
+      <c r="AY3" s="13" t="n">
+        <v>1152058287.63</v>
+      </c>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="n">
+        <v>913295</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>366332</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>380077</v>
+      </c>
+      <c r="Z4" s="13" t="n">
         <v>527371</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="13" t="n">
         <v>1137225</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="13" t="n">
         <v>56869623</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>394357.7003</v>
-      </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AC4" s="13" t="n">
+        <v>389317.7003</v>
+      </c>
+      <c r="AD4" s="13" t="n">
         <v>1783936</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>2562659</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>4419258</v>
-      </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AE4" s="13" t="n">
+        <v>2559084</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>4391024</v>
+      </c>
+      <c r="AG4" s="13" t="n">
         <v>533453</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="13" t="n">
         <v>51786.0605</v>
       </c>
-      <c r="AI4" s="4" t="n">
-        <v>55919.27</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AI4" s="13" t="n">
+        <v>53399.27</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
         <v>72495977.7688</v>
       </c>
-      <c r="AK4" s="4" t="n">
-        <v>236498803.3692</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>369192415.3946</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>592998959.5775</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>430518058.3499</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>342584026.9543</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>283130025.9875</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>387828859.5314</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>524841109.6843</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>220883905.1936</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>240240368.192</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>337619140.7543</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>260324530.8489</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>202941192.1578</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AK4" s="13" t="n">
+        <v>236501323.2642</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>369192415.3956</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>595334492.4775</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>430511510.4199</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>342322141.5123</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>283920232.3311</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>388592826.8452</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>524892499.6879</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>221272913.7422</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>240419448.1106</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>342189843.2346</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>260460252.073</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>475703171.6093</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>530515537.5617</v>
+      </c>
+      <c r="AY4" s="13" t="n">
+        <v>250731011.14</v>
+      </c>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
+      <c r="P5" s="13" t="n">
+        <v>199000</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>189000</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>116000</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>521000</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>578000</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>2627000</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>2885000</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>8028971</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>9799544</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>22190554</v>
+      </c>
+      <c r="Z5" s="13" t="n">
         <v>83567523</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="13" t="n">
         <v>118543525</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>189427929.9702</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>521268776.5005</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>789542294.4706</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>673143670.9155</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>529604122.3089</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>612719391.4741</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>535206281.2442</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>695206474.6359</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>769139567.1986</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>531614156.6627</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>429995373.7128</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>233538457.0362</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>232930995.0547</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>193492630.2194</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>166735752.3894</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>159386388.2642</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>173624331.8169</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>121950925.6734</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>131850305.6177</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>85134665.0179</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>91051884.4207</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>30332850.7743</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="AB5" s="13" t="n">
+        <v>189875776.9702</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>522166820.5005</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>790503286.4706</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>673812468.9155</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>529692342.9485</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>612686585.4741</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>535205367.0442</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>695208994.6451</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>778569109.4058</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>541541477.1325</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>441652698.1897</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>249454015.7443</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>247947587.1599</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>208757868.436</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>167165439.571</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>165406256.1792</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>173710895.8635</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>121857062.0622</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>131794490.0948</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>85288215.1159</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>90457122.9833</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>133750375.3453</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>93871332.5201</v>
+      </c>
+      <c r="AY5" s="13" t="n">
+        <v>22080711.19</v>
+      </c>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>64</v>
       </c>
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="n">
+        <v>7844883</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>14512831</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>34917484</v>
+      </c>
+      <c r="Z6" s="13" t="n">
         <v>2781590840</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="13" t="n">
         <v>2460751560</v>
       </c>
-      <c r="AB6" s="4" t="n">
-        <v>3201470134</v>
-      </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AB6" s="13" t="n">
+        <v>3201496880</v>
+      </c>
+      <c r="AC6" s="13" t="n">
         <v>1747103476.0938</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="13" t="n">
         <v>1849361530.5703</v>
       </c>
-      <c r="AE6" s="4" t="n">
-        <v>2758000915.4063</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2712414410.2207</v>
-      </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AE6" s="13" t="n">
+        <v>2758095613.4063</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>2712588818.2207</v>
+      </c>
+      <c r="AG6" s="13" t="n">
         <v>2264038913.7418</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="13" t="n">
         <v>1997100755.8897</v>
       </c>
-      <c r="AI6" s="4" t="n">
-        <v>1324969517.3539</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>1388373315.7994</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>1979468909.2077</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>1100466222.0354</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>641694594.6307</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>737164223.269</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>487897792.1368</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>757439667.3672</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>612444526.7761</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>678694027.1649</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>930236533.8815</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>859861096.1514</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>719088549.6488</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>809750409.1896</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>237569076.1026</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="AI6" s="13" t="n">
+        <v>1324969517.325</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>1405777423.7046</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>1980006279.3494</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>1100547649.6283</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>653280576.4857</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>739649536.109</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>487330508.2533</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>757439668.8605</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>641445324.2484</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>685980514.1633</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>969085458.7044</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>913549870.6599</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>756118910.0536</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>811597892.7403</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>925160550.1679</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>923092254.72</v>
+      </c>
+      <c r="AY6" s="13" t="n">
+        <v>479014505.41</v>
+      </c>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>64</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>3780359961</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5300158014</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>7010990112.9609</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>10943817668.3016</v>
-      </c>
-      <c r="AD7" s="4" t="n">
+      <c r="P7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>140000</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>1035000</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>144000</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>47000</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13" t="n">
+        <v>52000</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>36279917</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>108096818</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>296031736</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>3780810535</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>5299884728</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>7012088763.9609</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>10944337572.3016</v>
+      </c>
+      <c r="AD7" s="13" t="n">
         <v>12341868071.5076</v>
       </c>
-      <c r="AE7" s="4" t="n">
-        <v>24503506283.0343</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>26356281462.5699</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>25875034762.9251</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>29467669148.8368</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>29759353101.6065</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>23707688263.0955</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>24428408146.2979</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>31093609980.6273</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>22955523640.2174</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>20743372988.7754</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>17979832955.0767</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>16147561281.0614</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>18314041463.8534</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>21260543076.6135</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>19419781149.5169</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>19717733424.0027</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>20042000609.1472</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>27172824953.2191</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>11551690566.0096</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="AE7" s="13" t="n">
+        <v>24504381625.0343</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>26356494847.5699</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>25879685213.9251</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>29467634293.5367</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>29759353101.609</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>24019282427.6154</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>24410864279.9094</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>31096775272.6566</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>23088193447.4896</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>20815495827.719</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>17971237842.9517</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>16145579387.1198</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>18300033550.6743</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>21251874763.298</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>19386874893.827</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>19751174229.1781</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>19869230769.144</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>27207167964.6115</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>26614984036.4218</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>27022519991.07</v>
+      </c>
+      <c r="AY7" s="13" t="n">
+        <v>11193043760.01</v>
+      </c>
+      <c r="AZ7" s="13"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>64</v>
       </c>
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>84326203</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>45661598</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>51574762</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>14662460</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>14617574</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>4922689</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3707922.5195</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>7701327.3501</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>3283831.8687</v>
-      </c>
-      <c r="AI8" s="4" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>1835652</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>15727114</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>23775583</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>83875629</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>45834886</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>50001518</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>13249552</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>13656582</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>3430917</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>3260143.8799</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>3083682.3501</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>3264314.3688</v>
+      </c>
+      <c r="AI8" s="13" t="n">
         <v>218199.7002</v>
       </c>
-      <c r="AJ8" s="4" t="n">
-        <v>9445031.8917</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>9929409.5892</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>11673737.9101</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>14961322.3396</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>15035027.0875</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>16737521.5686</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>486133.5414</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>7509851.1564</v>
-      </c>
-      <c r="AR8" s="4" t="n">
+      <c r="AJ8" s="13" t="n">
+        <v>15489.6504</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>-430.86</v>
+      </c>
+      <c r="AL8" s="13" t="n">
+        <v>6413.4399</v>
+      </c>
+      <c r="AM8" s="13" t="n">
+        <v>14064.48</v>
+      </c>
+      <c r="AN8" s="13" t="n">
+        <v>18434.96</v>
+      </c>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13" t="n">
         <v>21232.3105</v>
       </c>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4" t="n">
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13" t="n">
+        <v>10115</v>
+      </c>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="13" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="13" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="13" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="13" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="13" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="13" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="13" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="13" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="13" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="13" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4" t="n">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AQ9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="4" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="4" t="n">
-        <v>143491</v>
-      </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="4" t="n">
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="4" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="4" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4" t="n">
+      <c r="AX9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="4" t="n">
+      <c r="AY9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="13" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="13" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="13" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="13" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="13" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="13" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="13" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="13" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="13" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="13" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="13" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="13" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="13" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="13" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="13" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="13" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="13" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="13" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="13" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="13" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="13" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="13" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="13" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="13" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="13" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="13" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="13" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="13" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="13" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="13" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="13" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="13" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="13" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="13" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="13"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>59</v>
       </c>
@@ -7677,734 +7986,947 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>61</v>
       </c>
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>2583087382.86583</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>3076476576.02302</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>3810522350.51188</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>2343568832.30792</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>3509815830.31446</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>3294112192.92373</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>4312314234.88643</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>3651377204.12119</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>5115888280.01616</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>2125052040.85994</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>1996378205.23303</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>1774150416.60536</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>1403722119.34307</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>1102149202.97483</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>991616142.603836</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>784024176.013946</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>896596091.308738</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>904531757.379435</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>1079071409.11636</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>999033712.47044</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>3356669946.68678</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>33289290246.9536</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>28769042912.4651</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>2243818791.50504</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="13" t="n">
+        <v>43558017.5979272</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>74695737.2800554</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>5772317.4282721</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>464448.463975183</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>5336953.30648697</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>8088140.77125544</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>93230112.0299305</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>4704293626.2176</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>3800253437.89107</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>2286993995.65249</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>2687712453.13874</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>3201118096.85697</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>3965103897.24489</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>2438447690.08369</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>3651997681.16837</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>3427312794.29204</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>4487005302.02192</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>3798900489.16176</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>5323076250.04833</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>2210973950.0547</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>2065197309.5184</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>1845383989.72192</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>1460760075.65184</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>1201948346.12689</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>1034783383.71036</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>820789503.682924</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>935301384.685293</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>945665007.939915</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>1110205754.13188</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>1039652899.55359</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>3515076594.9262</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>34837837551.9696</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>30084823671.6889</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>2618371745.11</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>1303617122.08111</v>
+      </c>
+      <c r="AY14" s="13" t="n">
+        <v>370316491.293116</v>
+      </c>
+      <c r="AZ14" s="13"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>497129561.999658</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>549690277.507381</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>664466146.647462</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>1185532389.66231</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>1427748190.75301</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>2258504344.19825</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>2697333916.77554</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>3876259135.16374</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>4344292306.35564</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>2941034971.65492</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>2156452273.96593</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>1843564234.90848</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>1559277919.87645</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>1402525755.83985</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>1566819967.82561</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>1673123167.92073</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>1543130288.91559</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>1544366688.5206</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>2056245661.42448</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>1823055871.17596</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>1682925101.43482</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>1266834508.63427</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>1407852561.5702</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>789700534.977785</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="13" t="n">
+        <v>-1375407.48825364</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>4275345.49314545</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>-44807.0539487878</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>142760.798353028</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>357659.698026352</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>65668.2606597194</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>3115309.47403747</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>6389716.24196061</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>85051866.0158636</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>186260007.431768</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>517265239.833851</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>571960640.837134</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>691421564.698755</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>1233528401.36762</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>1485585949.17127</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>2349829134.06825</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>2806602424.09111</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>4032868124.49715</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>4520263581.7383</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>3059895547.37422</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>2240192109.53363</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>1916005640.04646</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>1613015272.26447</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>1467941823.00821</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>1628110568.93918</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>1751421187.3348</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>1609320510.01559</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>1613665511.09903</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>2150350104.95202</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>1909007572.49421</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>1763060635.82056</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>1327123473.27241</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>1473356905.85242</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>2072209669.46</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>2350524931.2328</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>1097999337.72831</v>
+      </c>
+      <c r="AZ15" s="13"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>64</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>852089.172076817</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>1793946.44030989</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>88316581.8764659</v>
-      </c>
-      <c r="AC16" s="4" t="n">
-        <v>600937.381685382</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>2653567.92369826</v>
-      </c>
-      <c r="AE16" s="4" t="n">
-        <v>3699594.72555729</v>
-      </c>
-      <c r="AF16" s="4" t="n">
-        <v>6178718.32634878</v>
-      </c>
-      <c r="AG16" s="4" t="n">
-        <v>725931.881183436</v>
-      </c>
-      <c r="AH16" s="4" t="n">
-        <v>69031.635398229</v>
-      </c>
-      <c r="AI16" s="4" t="n">
-        <v>73791.4039131541</v>
-      </c>
-      <c r="AJ16" s="4" t="n">
-        <v>94841247.4219721</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>303282019.293858</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>464924008.617712</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>733343405.149721</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>522303844.886632</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>410911577.64929</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>336808654.753143</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>453264856.660303</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>599322097.712456</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>247384473.371497</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>265521060.057299</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>361011959.017573</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>260324530.8489</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>193564980.200781</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13" t="n">
+        <v>1606656.8769658</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>636466.656361429</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>652270.481748251</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>886602.092583755</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>1866627.07639642</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>91899323.2958892</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>617275.122036506</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>2761063.36413646</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>3843821.6321991</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>6387943.02783179</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>755261.049937237</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>71827.3423778719</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>73315.1376129186</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
+        <v>98679571.8442665</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>315585008.191247</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>483866417.915075</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>766344843.107412</v>
+      </c>
+      <c r="AN16" s="13" t="n">
+        <v>544247515.306173</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>428323737.327927</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>352431795.561121</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>474355263.821059</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>626820851.252577</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>259444669.979944</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>278259239.845539</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>382869974.001708</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>272375421.664896</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>475703171.6093</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>516716122.981938</v>
+      </c>
+      <c r="AY16" s="13" t="n">
+        <v>238965759.923501</v>
+      </c>
+      <c r="AZ16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>64</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>135022558.095876</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>186999700.758896</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>294175104.464867</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>794329344.821349</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>1174427842.1481</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>971787028.41902</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>740457944.799751</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>833798929.784562</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>713438413.98578</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>917398631.507486</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>1006209699.34838</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>681732899.367653</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>541493174.013212</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>288809760.203223</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>282591524.213045</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>232084264.563714</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>198347187.888883</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>186278681.059131</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>198263620.814726</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>136581999.935389</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>145725021.901862</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>91033441.2016758</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>91051884.4207</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>28931423.9121807</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="13" t="n">
+        <v>411588.105507479</v>
+      </c>
+      <c r="Q17" s="13" t="n">
+        <v>377412.563383694</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>225983.402524321</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>991711.679225699</v>
+      </c>
+      <c r="T17" s="13" t="n">
+        <v>1076704.7159335</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>4791958.90980786</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>5165326.34057362</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>14124463.0399914</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>17025766.2545088</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>38082397.3769541</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>140491496.050866</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>194575878.560949</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>306832619.830143</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>827911465.621745</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>1223491012.85217</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>1012086724.80578</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>770582103.179977</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>867439706.642627</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>742330634.344321</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>954495129.093418</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>1059767296.50236</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>722627548.708645</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>578833421.609139</v>
+      </c>
+      <c r="AM17" s="13" t="n">
+        <v>321109898.676506</v>
+      </c>
+      <c r="AN17" s="13" t="n">
+        <v>313452381.578178</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>261204110.286586</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>207503408.756961</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>201911416.956737</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>207443641.663293</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>142878605.052795</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>152537720.711923</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>95427428.223489</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>94595228.3278304</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>133750375.3453</v>
+      </c>
+      <c r="AX17" s="13" t="n">
+        <v>91429614.3367774</v>
+      </c>
+      <c r="AY17" s="13" t="n">
+        <v>21044600.367457</v>
+      </c>
+      <c r="AZ17" s="13"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>64</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>4494299906.35067</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>3881779332.62899</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>4971773757.22134</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>2662303253.26105</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>2750887047.98988</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>3981601001.03811</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>3792320933.75927</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>3080942515.50762</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>2662166805.17927</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>1748437717.94014</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>1816308452.0044</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>2538437063.36531</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>1385817113.14477</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>793563785.386619</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>894326499.571225</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>585207819.760031</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>901042673.000983</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>715778554.945524</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>775008513.167066</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>1041841753.221</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>950344987.690348</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>768912465.791565</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>809750409.1896</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>226592999.790606</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13" t="n">
+        <v>13800617.7860845</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>25214649.6099399</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>59923763.1062044</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>4676336505.90534</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>4039047233.556</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>5173507072.58778</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>2770086000.67548</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>2862324864.28941</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>4142743099.67339</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>3946200892.71372</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>3205419047.3976</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>2769981697.22519</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>1819132031.12336</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>1913506356.47551</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>2642100641.39538</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>1442386210.45314</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>840935990.133268</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>935056119.247675</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>609762557.825876</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>940214159.21646</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>783012307.460438</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>819190386.767175</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>1136262241.78913</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>1057334148.99893</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>846007656.737925</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>848725732.613986</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>925160550.1679</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>899081397.701949</v>
+      </c>
+      <c r="AY18" s="13" t="n">
+        <v>456537325.715029</v>
+      </c>
+      <c r="AZ18" s="13"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>64</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>6108041187.93191</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>8360878104.41664</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>10887828152.9386</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>16676608901.5845</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>18358273633.7337</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>35374602162.197</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>36849633872.2897</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>35211185729.8338</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>39280867729.225</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>39270620752.2884</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>31015054870.1323</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>31326572672.6659</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>39156183041.133</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>28388383489.418</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>25165828140.8242</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>21565866894.3921</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>19208977831.4729</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>21404057936.8289</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>24277658590.5142</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>21749671296.5675</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>21792646756.5361</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>21430662628.8263</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>27172824953.2191</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>11017983741.5982</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13" t="n">
+        <v>279564.8617657</v>
+      </c>
+      <c r="R19" s="13" t="n">
+        <v>2016317.42769545</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <v>274100.732837813</v>
+      </c>
+      <c r="T19" s="13" t="n">
+        <v>87552.1135793675</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13" t="n">
+        <v>93101.2026723841</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>63823165.7282678</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>187807836.377302</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>508035906.022966</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>6356198069.27895</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>8699165367.50834</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>11331290385.0042</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>17352581979.5643</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>19101963174.2648</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>36806322955.3891</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>38342716300.2567</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>36640375490.8385</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>40871652275.3798</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>40858443718.7231</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>32694400143.4472</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>32573613954.4753</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>40755672739.8299</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>29720297091.3342</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>26314701488.5909</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>22486152146.9115</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>20041599314.9142</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>22338850959.5994</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>25378755150.3676</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>22731301693.0375</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>22859825901.1875</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>22231319889.8795</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>28451803250.9303</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>26614984036.4218</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>26319628313.1739</v>
+      </c>
+      <c r="AY19" s="13" t="n">
+        <v>10667823640.189</v>
+      </c>
+      <c r="AZ19" s="13"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>64</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>136248380.170035</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>72030127.0117708</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>80093843.6137029</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>22343218.6432867</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>21743339.1605336</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>7106663.1416661</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>5184175.44843862</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>10480096.7486687</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>4377399.67243084</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <v>287937.632433101</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
-        <v>12356252.5000477</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>12733304.9795911</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>14700738.147384</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>18502202.9007977</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>18240471.6909542</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>20075779.5243323</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>578299.611771109</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>8776942.52062297</v>
-      </c>
-      <c r="AR20" s="4" t="n">
-        <v>24245.4194866642</v>
-      </c>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4" t="n">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="W20" s="13" t="n">
+        <v>3229255.50836917</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>27324349.6658633</v>
+      </c>
+      <c r="Y20" s="13" t="n">
+        <v>40802550.4759707</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <v>141009475.659789</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>75232816.0664276</v>
+      </c>
+      <c r="AB20" s="13" t="n">
+        <v>80800705.6415202</v>
+      </c>
+      <c r="AC20" s="13" t="n">
+        <v>21007569.9651641</v>
+      </c>
+      <c r="AD20" s="13" t="n">
+        <v>21136794.2793494</v>
+      </c>
+      <c r="AE20" s="13" t="n">
+        <v>5153341.18883148</v>
+      </c>
+      <c r="AF20" s="13" t="n">
+        <v>4742769.19628216</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>4365867.60109973</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>4527608.84942782</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>299579.770421217</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
+        <v>21084.0948219778</v>
+      </c>
+      <c r="AK20" s="13" t="n">
+        <v>-574.935288955583</v>
+      </c>
+      <c r="AL20" s="13" t="n">
+        <v>8405.50363853331</v>
+      </c>
+      <c r="AM20" s="13" t="n">
+        <v>18104.5141095948</v>
+      </c>
+      <c r="AN20" s="13" t="n">
+        <v>23305.2564958898</v>
+      </c>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13" t="n">
+        <v>25355.3917222716</v>
+      </c>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13" t="n">
+        <v>9851.89539967892</v>
+      </c>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>21651236733.6665</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>26227166146.2177</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>18106796731.9237</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>19300123614.8198</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>15442633771.9174</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>15015339183.8907</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>16566119779.7048</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>16383454141.1711</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>14295077561.1236</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>12656854970.7716</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="13" t="n">
+        <v>22530893399.8844</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>27290590861.9728</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>18840301145.1705</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>20082577572.1016</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>16068055004.8724</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>15623014029.6791</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>17235978603.4816</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>17046216182.2758</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>14872605319.0069</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>13169272287.6841</v>
+      </c>
+      <c r="Z21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4" t="n">
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" s="4" t="n">
+      <c r="AQ21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="4" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="4" t="n">
-        <v>207151.45743735</v>
-      </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="4" t="n">
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="4" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" s="4" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4" t="n">
+      <c r="AX21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="4" t="n">
+      <c r="AY21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8424,6 +8946,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>59</v>
       </c>
@@ -8532,115 +9060,179 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>21060000</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>37406000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>2963000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>244000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>2865000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>4434000</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>52072000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>2674129062</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>2187317165</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>1332627861</v>
+      </c>
       <c r="Y2" s="5" t="n">
         <v>1598712225</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>1950251131</v>
+        <v>1950251110</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>2453706483</v>
+        <v>2453706466</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>1537937967.2</v>
+        <v>1537937968.2</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>2359572844.2261</v>
+        <v>2359572844.28</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>2281786758.9359</v>
+        <v>2281786766.95</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>3084333703.9281</v>
+        <v>3084333702.33</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>2683224382.5614</v>
+        <v>2683224380.25</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>3837830270.887</v>
+        <v>3837830269.16</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>1610368586.7903</v>
+        <v>1610368591.89</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>1526017359.7333</v>
+        <v>1517218766.1628</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>1383479480.5873</v>
+        <v>1382941978.1415</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>1114684443.4296</v>
+        <v>1114566997.5758</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>891224119.6603</v>
+        <v>933732790.2203</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>817356909.2429</v>
+        <v>818535950.9229</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>653654396.8533</v>
+        <v>655986106.1738</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>753701756.3239</v>
+        <v>753481921.2797</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>773948199.8652</v>
+        <v>774690757.5639</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>944969387.8315</v>
+        <v>929673402.36</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>892014219.0943</v>
+        <v>886690123.11</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>3037075943.1174</v>
+        <v>3037069947.75</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>31132214013.3034</v>
+        <v>31136299475.1</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>28769042912.4651</v>
+        <v>28768751266.92</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>2352508496.4324</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>2618371745.11</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>1338431505.3</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>388548670.46</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
       <c r="N3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>-665000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>-23000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>75000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>192000</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>3632198</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>48953421</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>108533418</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>307681077.09</v>
       </c>
@@ -8648,74 +9240,86 @@
         <v>348461644</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>427869132.3104</v>
+        <v>427869132.31</v>
       </c>
       <c r="AB3" s="5" t="n">
         <v>777990920.63</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>959844055.1201</v>
+        <v>959844055.1</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>1564435272.9276</v>
+        <v>1564435271.75</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>1929237401.8004</v>
+        <v>1929237400.67</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>2848479475.8697</v>
+        <v>2848479475.8</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>3258995428.8174</v>
+        <v>3259018579.42</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>2228722045.3614</v>
+        <v>2228682831.76</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>1648376844.0681</v>
+        <v>1645780523.1147</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>1437608258.166</v>
+        <v>1435866272.1331</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>1238210053.3423</v>
+        <v>1230738448.4406</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>1134115760.9836</v>
+        <v>1140369649.5738</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>1291478699.4887</v>
+        <v>1287870537.6731</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>1394911469.1191</v>
+        <v>1399759572.6978</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>1297195047.2086</v>
+        <v>1296473981.2177</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>1321412773.8037</v>
+        <v>1321918170.5489</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>1800704927.8589</v>
+        <v>1800678199.42</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>1627764647.9727</v>
+        <v>1628137775.79</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>1522691066.091</v>
+        <v>1523306342.98</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>1184746287.7599</v>
+        <v>1186115924.75</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>1407852561.5702</v>
+        <v>1408904330.45</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>827953320.1192</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>2072209669.46</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>2413298021.84</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>1152058287.63</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
@@ -8729,9 +9333,15 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="V4" s="5" t="n">
+        <v>913295</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>366332</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>380077</v>
+      </c>
       <c r="Y4" s="5" t="n">
         <v>527371</v>
       </c>
@@ -8742,16 +9352,16 @@
         <v>56869623</v>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>394357.7003</v>
+        <v>389317.7003</v>
       </c>
       <c r="AC4" s="5" t="n">
         <v>1783936</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <v>2562659</v>
+        <v>2559084</v>
       </c>
       <c r="AE4" s="5" t="n">
-        <v>4419258</v>
+        <v>4391024</v>
       </c>
       <c r="AF4" s="5" t="n">
         <v>533453</v>
@@ -8760,69 +9370,101 @@
         <v>51786.0605</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>55919.27</v>
+        <v>53399.27</v>
       </c>
       <c r="AI4" s="5" t="n">
         <v>72495977.7688</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>236498803.3692</v>
+        <v>236501323.2642</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>369192415.3946</v>
+        <v>369192415.3956</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>592998959.5775</v>
+        <v>595334492.4775</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>430518058.3499</v>
+        <v>430511510.4199</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>342584026.9543</v>
+        <v>342322141.5123</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>283130025.9875</v>
+        <v>283920232.3311</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>387828859.5314</v>
+        <v>388592826.8452</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>524841109.6843</v>
+        <v>524892499.6879</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>220883905.1936</v>
+        <v>221272913.7422</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>240240368.192</v>
+        <v>240419448.1106</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>337619140.7543</v>
+        <v>342189843.2346</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>260324530.8489</v>
+        <v>260460252.073</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>202941192.1578</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>475703171.6093</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>530515537.5617</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>250731011.14</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>64</v>
       </c>
       <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>199000</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>189000</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>116000</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>521000</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>578000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>2627000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>2885000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>8028971</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>9799544</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>22190554</v>
+      </c>
       <c r="Y5" s="5" t="n">
         <v>83567523</v>
       </c>
@@ -8830,74 +9472,86 @@
         <v>118543525</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>189427929.9702</v>
+        <v>189875776.9702</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>521268776.5005</v>
+        <v>522166820.5005</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>789542294.4706</v>
+        <v>790503286.4706</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>673143670.9155</v>
+        <v>673812468.9155</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>529604122.3089</v>
+        <v>529692342.9485</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>612719391.4741</v>
+        <v>612686585.4741</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>535206281.2442</v>
+        <v>535205367.0442</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>695206474.6359</v>
+        <v>695208994.6451</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>769139567.1986</v>
+        <v>778569109.4058</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>531614156.6627</v>
+        <v>541541477.1325</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>429995373.7128</v>
+        <v>441652698.1897</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>233538457.0362</v>
+        <v>249454015.7443</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>232930995.0547</v>
+        <v>247947587.1599</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>193492630.2194</v>
+        <v>208757868.436</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>166735752.3894</v>
+        <v>167165439.571</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>159386388.2642</v>
+        <v>165406256.1792</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>173624331.8169</v>
+        <v>173710895.8635</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>121950925.6734</v>
+        <v>121857062.0622</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>131850305.6177</v>
+        <v>131794490.0948</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>85134665.0179</v>
+        <v>85288215.1159</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>91051884.4207</v>
+        <v>90457122.9833</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>30332850.7743</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>133750375.3453</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>93871332.5201</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>22080711.19</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>64</v>
       </c>
@@ -8911,9 +9565,15 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>7844883</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>14512831</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>34917484</v>
+      </c>
       <c r="Y6" s="5" t="n">
         <v>2781590840</v>
       </c>
@@ -8921,7 +9581,7 @@
         <v>2460751560</v>
       </c>
       <c r="AA6" s="5" t="n">
-        <v>3201470134</v>
+        <v>3201496880</v>
       </c>
       <c r="AB6" s="5" t="n">
         <v>1747103476.0938</v>
@@ -8930,10 +9590,10 @@
         <v>1849361530.5703</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>2758000915.4063</v>
+        <v>2758095613.4063</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>2712414410.2207</v>
+        <v>2712588818.2207</v>
       </c>
       <c r="AF6" s="5" t="n">
         <v>2264038913.7418</v>
@@ -8942,144 +9602,186 @@
         <v>1997100755.8897</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>1324969517.3539</v>
+        <v>1324969517.325</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>1388373315.7994</v>
+        <v>1405777423.7046</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>1979468909.2077</v>
+        <v>1980006279.3494</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>1100466222.0354</v>
+        <v>1100547649.6283</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>641694594.6307</v>
+        <v>653280576.4857</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>737164223.269</v>
+        <v>739649536.109</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>487897792.1368</v>
+        <v>487330508.2533</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>757439667.3672</v>
+        <v>757439668.8605</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>612444526.7761</v>
+        <v>641445324.2484</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>678694027.1649</v>
+        <v>685980514.1633</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>930236533.8815</v>
+        <v>969085458.7044</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>859861096.1514</v>
+        <v>913549870.6599</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>719088549.6488</v>
+        <v>756118910.0536</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>809750409.1896</v>
+        <v>811597892.7403</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>237569076.1026</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>925160550.1679</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>923092254.72</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>479014505.41</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
       <c r="N7" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1035000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>144000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>47000</v>
+      </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="U7" s="5" t="n">
+        <v>52000</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>36279917</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>108096818</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>296031736</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>3780359961</v>
+        <v>3780810535</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>5300158014</v>
+        <v>5299884728</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>7010990112.9609</v>
+        <v>7012088763.9609</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>10943817668.3016</v>
+        <v>10944337572.3016</v>
       </c>
       <c r="AC7" s="5" t="n">
         <v>12341868071.5076</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>24503506283.0343</v>
+        <v>24504381625.0343</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>26356281462.5699</v>
+        <v>26356494847.5699</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>25875034762.9251</v>
+        <v>25879685213.9251</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>29467669148.8368</v>
+        <v>29467634293.5367</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>29759353101.6065</v>
+        <v>29759353101.609</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>23707688263.0955</v>
+        <v>24019282427.6154</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>24428408146.2979</v>
+        <v>24410864279.9094</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>31093609980.6273</v>
+        <v>31096775272.6566</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>22955523640.2174</v>
+        <v>23088193447.4896</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>20743372988.7754</v>
+        <v>20815495827.719</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>17979832955.0767</v>
+        <v>17971237842.9517</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>16147561281.0614</v>
+        <v>16145579387.1198</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>18314041463.8534</v>
+        <v>18300033550.6743</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>21260543076.6135</v>
+        <v>21251874763.298</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>19419781149.5169</v>
+        <v>19386874893.827</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>19717733424.0027</v>
+        <v>19751174229.1781</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>20042000609.1472</v>
+        <v>19869230769.144</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>27172824953.2191</v>
+        <v>27207167964.6115</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>11551690566.0096</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>26614984036.4218</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>27022519991.07</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>11193043760.01</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>64</v>
       </c>
@@ -9092,64 +9794,66 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>1835652</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>15727114</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>23775583</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>84326203</v>
+        <v>83875629</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>45661598</v>
+        <v>45834886</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>51574762</v>
+        <v>50001518</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>14662460</v>
+        <v>13249552</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>14617574</v>
+        <v>13656582</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>4922689</v>
+        <v>3430917</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>3707922.5195</v>
+        <v>3260143.8799</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>7701327.3501</v>
+        <v>3083682.3501</v>
       </c>
       <c r="AG8" s="5" t="n">
-        <v>3283831.8687</v>
+        <v>3264314.3688</v>
       </c>
       <c r="AH8" s="5" t="n">
         <v>218199.7002</v>
       </c>
       <c r="AI8" s="5" t="n">
-        <v>9445031.8917</v>
+        <v>15489.6504</v>
       </c>
       <c r="AJ8" s="5" t="n">
-        <v>9929409.5892</v>
+        <v>-430.86</v>
       </c>
       <c r="AK8" s="5" t="n">
-        <v>11673737.9101</v>
+        <v>6413.4399</v>
       </c>
       <c r="AL8" s="5" t="n">
-        <v>14961322.3396</v>
+        <v>14064.48</v>
       </c>
       <c r="AM8" s="5" t="n">
-        <v>15035027.0875</v>
-      </c>
-      <c r="AN8" s="5" t="n">
-        <v>16737521.5686</v>
-      </c>
-      <c r="AO8" s="5" t="n">
-        <v>486133.5414</v>
-      </c>
-      <c r="AP8" s="5" t="n">
-        <v>7509851.1564</v>
-      </c>
+        <v>18434.96</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
       <c r="AQ8" s="5" t="n">
         <v>21232.3105</v>
       </c>
@@ -9160,9 +9864,19 @@
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
+      <c r="AW8" s="5" t="n">
+        <v>10115</v>
+      </c>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9199,69 +9913,180 @@
         <v>0</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5" t="n">
-        <v>143491</v>
-      </c>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
       <c r="AO9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AP9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5" t="n">
+      <c r="AQ9" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AR9" s="5"/>
       <c r="AS9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
+      <c r="AT9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AW9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>59</v>
       </c>
@@ -9370,190 +10195,266 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>61</v>
       </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>43558017.5979272</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>74695737.2800554</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>5772317.4282721</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>464448.463975183</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>5336953.30648697</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>8088140.77125544</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>93230112.0299305</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>4704293626.2176</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>3800253437.89107</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>2286993995.65249</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>2583087382.86583</v>
+        <v>2687712453.13874</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>3076476576.02302</v>
+        <v>3201118096.85697</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>3810522350.51188</v>
+        <v>3965103897.24489</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>2343568832.30792</v>
+        <v>2438447690.08369</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>3509815830.31446</v>
+        <v>3651997681.16837</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>3294112192.92373</v>
+        <v>3427312794.29204</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>4312314234.88643</v>
+        <v>4487005302.02192</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>3651377204.12119</v>
+        <v>3798900489.16176</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>5115888280.01616</v>
+        <v>5323076250.04833</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>2125052040.85994</v>
+        <v>2210973950.0547</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>1996378205.23303</v>
+        <v>2065197309.5184</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>1774150416.60536</v>
+        <v>1845383989.72192</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>1403722119.34307</v>
+        <v>1460760075.65184</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>1102149202.97483</v>
+        <v>1201948346.12689</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>991616142.603836</v>
+        <v>1034783383.71036</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>784024176.013946</v>
+        <v>820789503.682924</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>896596091.308738</v>
+        <v>935301384.685293</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>904531757.379435</v>
+        <v>945665007.939915</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>1079071409.11636</v>
+        <v>1110205754.13188</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>999033712.47044</v>
+        <v>1039652899.55359</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>3356669946.68678</v>
+        <v>3515076594.9262</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>33289290246.9536</v>
+        <v>34837837551.9696</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>28769042912.4651</v>
+        <v>30084823671.6889</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>2243818791.50504</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>2618371745.11</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>1303617122.08111</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>370316491.293116</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>61</v>
       </c>
       <c r="N15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>-1375407.48825364</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>4275345.49314545</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>-44807.0539487878</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>142760.798353028</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>357659.698026352</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>65668.2606597194</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>3115309.47403747</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>6389716.24196061</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>85051866.0158636</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>186260007.431768</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>497129561.999658</v>
+        <v>517265239.833851</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>549690277.507381</v>
+        <v>571960640.837134</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>664466146.647462</v>
+        <v>691421564.698755</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>1185532389.66231</v>
+        <v>1233528401.36762</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>1427748190.75301</v>
+        <v>1485585949.17127</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>2258504344.19825</v>
+        <v>2349829134.06825</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>2697333916.77554</v>
+        <v>2806602424.09111</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>3876259135.16374</v>
+        <v>4032868124.49715</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>4344292306.35564</v>
+        <v>4520263581.7383</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>2941034971.65492</v>
+        <v>3059895547.37422</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>2156452273.96593</v>
+        <v>2240192109.53363</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>1843564234.90848</v>
+        <v>1916005640.04646</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>1559277919.87645</v>
+        <v>1613015272.26447</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>1402525755.83985</v>
+        <v>1467941823.00821</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>1566819967.82561</v>
+        <v>1628110568.93918</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>1673123167.92073</v>
+        <v>1751421187.3348</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>1543130288.91559</v>
+        <v>1609320510.01559</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>1544366688.5206</v>
+        <v>1613665511.09903</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>2056245661.42448</v>
+        <v>2150350104.95202</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>1823055871.17596</v>
+        <v>1909007572.49421</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>1682925101.43482</v>
+        <v>1763060635.82056</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>1266834508.63427</v>
+        <v>1327123473.27241</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>1407852561.5702</v>
+        <v>1473356905.85242</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>789700534.977785</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>2072209669.46</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>2350524931.2328</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>1097999337.72831</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>64</v>
       </c>
@@ -9567,175 +10468,225 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="V16" s="5" t="n">
+        <v>1606656.8769658</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>636466.656361429</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>652270.481748251</v>
+      </c>
       <c r="Y16" s="5" t="n">
-        <v>852089.172076817</v>
+        <v>886602.092583755</v>
       </c>
       <c r="Z16" s="5" t="n">
-        <v>1793946.44030989</v>
+        <v>1866627.07639642</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>88316581.8764659</v>
+        <v>91899323.2958892</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>600937.381685382</v>
+        <v>617275.122036506</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>2653567.92369826</v>
+        <v>2761063.36413646</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <v>3699594.72555729</v>
+        <v>3843821.6321991</v>
       </c>
       <c r="AE16" s="5" t="n">
-        <v>6178718.32634878</v>
+        <v>6387943.02783179</v>
       </c>
       <c r="AF16" s="5" t="n">
-        <v>725931.881183436</v>
+        <v>755261.049937237</v>
       </c>
       <c r="AG16" s="5" t="n">
-        <v>69031.635398229</v>
+        <v>71827.3423778719</v>
       </c>
       <c r="AH16" s="5" t="n">
-        <v>73791.4039131541</v>
+        <v>73315.1376129186</v>
       </c>
       <c r="AI16" s="5" t="n">
-        <v>94841247.4219721</v>
+        <v>98679571.8442665</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>303282019.293858</v>
+        <v>315585008.191247</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>464924008.617712</v>
+        <v>483866417.915075</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>733343405.149721</v>
+        <v>766344843.107412</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>522303844.886632</v>
+        <v>544247515.306173</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>410911577.64929</v>
+        <v>428323737.327927</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>336808654.753143</v>
+        <v>352431795.561121</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>453264856.660303</v>
+        <v>474355263.821059</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>599322097.712456</v>
+        <v>626820851.252577</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>247384473.371497</v>
+        <v>259444669.979944</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>265521060.057299</v>
+        <v>278259239.845539</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>361011959.017573</v>
+        <v>382869974.001708</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>260324530.8489</v>
+        <v>272375421.664896</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>193564980.200781</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>475703171.6093</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>516716122.981938</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>238965759.923501</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>64</v>
       </c>
       <c r="N17" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="O17" s="5" t="n">
+        <v>411588.105507479</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>377412.563383694</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>225983.402524321</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>991711.679225699</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>1076704.7159335</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>4791958.90980786</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>5165326.34057362</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>14124463.0399914</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>17025766.2545088</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>38082397.3769541</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>135022558.095876</v>
+        <v>140491496.050866</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>186999700.758896</v>
+        <v>194575878.560949</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>294175104.464867</v>
+        <v>306832619.830143</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>794329344.821349</v>
+        <v>827911465.621745</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>1174427842.1481</v>
+        <v>1223491012.85217</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>971787028.41902</v>
+        <v>1012086724.80578</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>740457944.799751</v>
+        <v>770582103.179977</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>833798929.784562</v>
+        <v>867439706.642627</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>713438413.98578</v>
+        <v>742330634.344321</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>917398631.507486</v>
+        <v>954495129.093418</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>1006209699.34838</v>
+        <v>1059767296.50236</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>681732899.367653</v>
+        <v>722627548.708645</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>541493174.013212</v>
+        <v>578833421.609139</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>288809760.203223</v>
+        <v>321109898.676506</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>282591524.213045</v>
+        <v>313452381.578178</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>232084264.563714</v>
+        <v>261204110.286586</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>198347187.888883</v>
+        <v>207503408.756961</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>186278681.059131</v>
+        <v>201911416.956737</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>198263620.814726</v>
+        <v>207443641.663293</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>136581999.935389</v>
+        <v>142878605.052795</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>145725021.901862</v>
+        <v>152537720.711923</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>91033441.2016758</v>
+        <v>95427428.223489</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>91051884.4207</v>
+        <v>94595228.3278304</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>28931423.9121807</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>133750375.3453</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>91429614.3367774</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>21044600.367457</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>64</v>
       </c>
@@ -9749,175 +10700,223 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>13800617.7860845</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>25214649.6099399</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>59923763.1062044</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>4494299906.35067</v>
+        <v>4676336505.90534</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>3881779332.62899</v>
+        <v>4039047233.556</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>4971773757.22134</v>
+        <v>5173507072.58778</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>2662303253.26105</v>
+        <v>2770086000.67548</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>2750887047.98988</v>
+        <v>2862324864.28941</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>3981601001.03811</v>
+        <v>4142743099.67339</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>3792320933.75927</v>
+        <v>3946200892.71372</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>3080942515.50762</v>
+        <v>3205419047.3976</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>2662166805.17927</v>
+        <v>2769981697.22519</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>1748437717.94014</v>
+        <v>1819132031.12336</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>1816308452.0044</v>
+        <v>1913506356.47551</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>2538437063.36531</v>
+        <v>2642100641.39538</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>1385817113.14477</v>
+        <v>1442386210.45314</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>793563785.386619</v>
+        <v>840935990.133268</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>894326499.571225</v>
+        <v>935056119.247675</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>585207819.760031</v>
+        <v>609762557.825876</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>901042673.000983</v>
+        <v>940214159.21646</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>715778554.945524</v>
+        <v>783012307.460438</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>775008513.167066</v>
+        <v>819190386.767175</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>1041841753.221</v>
+        <v>1136262241.78913</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>950344987.690348</v>
+        <v>1057334148.99893</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>768912465.791565</v>
+        <v>846007656.737925</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>809750409.1896</v>
+        <v>848725732.613986</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>226592999.790606</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>925160550.1679</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>899081397.701949</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>456537325.715029</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>64</v>
       </c>
       <c r="N19" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="O19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>279564.8617657</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>2016317.42769545</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>274100.732837813</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>87552.1135793675</v>
+      </c>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="U19" s="5" t="n">
+        <v>93101.2026723841</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>63823165.7282678</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>187807836.377302</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>508035906.022966</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>6108041187.93191</v>
+        <v>6356198069.27895</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>8360878104.41664</v>
+        <v>8699165367.50834</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>10887828152.9386</v>
+        <v>11331290385.0042</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>16676608901.5845</v>
+        <v>17352581979.5643</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>18358273633.7337</v>
+        <v>19101963174.2648</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>35374602162.197</v>
+        <v>36806322955.3891</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>36849633872.2897</v>
+        <v>38342716300.2567</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>35211185729.8338</v>
+        <v>36640375490.8385</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>39280867729.225</v>
+        <v>40871652275.3798</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>39270620752.2884</v>
+        <v>40858443718.7231</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>31015054870.1323</v>
+        <v>32694400143.4472</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>31326572672.6659</v>
+        <v>32573613954.4753</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>39156183041.133</v>
+        <v>40755672739.8299</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>28388383489.418</v>
+        <v>29720297091.3342</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>25165828140.8242</v>
+        <v>26314701488.5909</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>21565866894.3921</v>
+        <v>22486152146.9115</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>19208977831.4729</v>
+        <v>20041599314.9142</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>21404057936.8289</v>
+        <v>22338850959.5994</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>24277658590.5142</v>
+        <v>25378755150.3676</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>21749671296.5675</v>
+        <v>22731301693.0375</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>21792646756.5361</v>
+        <v>22859825901.1875</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>21430662628.8263</v>
+        <v>22231319889.8795</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>27172824953.2191</v>
+        <v>28451803250.9303</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>11017983741.5982</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>26614984036.4218</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>26319628313.1739</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>10667823640.189</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>64</v>
       </c>
@@ -9930,66 +10929,68 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>3229255.50836917</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>27324349.6658633</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>40802550.4759707</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>136248380.170035</v>
+        <v>141009475.659789</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>72030127.0117708</v>
+        <v>75232816.0664276</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>80093843.6137029</v>
+        <v>80800705.6415202</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>22343218.6432867</v>
+        <v>21007569.9651641</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>21743339.1605336</v>
+        <v>21136794.2793494</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>7106663.1416661</v>
+        <v>5153341.18883148</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>5184175.44843862</v>
+        <v>4742769.19628216</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>10480096.7486687</v>
+        <v>4365867.60109973</v>
       </c>
       <c r="AG20" s="5" t="n">
-        <v>4377399.67243084</v>
+        <v>4527608.84942782</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>287937.632433101</v>
+        <v>299579.770421217</v>
       </c>
       <c r="AI20" s="5" t="n">
-        <v>12356252.5000477</v>
+        <v>21084.0948219778</v>
       </c>
       <c r="AJ20" s="5" t="n">
-        <v>12733304.9795911</v>
+        <v>-574.935288955583</v>
       </c>
       <c r="AK20" s="5" t="n">
-        <v>14700738.147384</v>
+        <v>8405.50363853331</v>
       </c>
       <c r="AL20" s="5" t="n">
-        <v>18502202.9007977</v>
+        <v>18104.5141095948</v>
       </c>
       <c r="AM20" s="5" t="n">
-        <v>18240471.6909542</v>
-      </c>
-      <c r="AN20" s="5" t="n">
-        <v>20075779.5243323</v>
-      </c>
-      <c r="AO20" s="5" t="n">
-        <v>578299.611771109</v>
-      </c>
-      <c r="AP20" s="5" t="n">
-        <v>8776942.52062297</v>
-      </c>
+        <v>23305.2564958898</v>
+      </c>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
       <c r="AQ20" s="5" t="n">
-        <v>24245.4194866642</v>
+        <v>25355.3917222716</v>
       </c>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5" t="n">
@@ -9998,106 +10999,143 @@
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
+      <c r="AW20" s="5" t="n">
+        <v>9851.89539967892</v>
+      </c>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>21651236733.6665</v>
+        <v>22530893399.8844</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>26227166146.2177</v>
+        <v>27290590861.9728</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>18106796731.9237</v>
+        <v>18840301145.1705</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>19300123614.8198</v>
+        <v>20082577572.1016</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15442633771.9174</v>
+        <v>16068055004.8724</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15015339183.8907</v>
+        <v>15623014029.6791</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>16566119779.7048</v>
+        <v>17235978603.4816</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>16383454141.1711</v>
+        <v>17046216182.2758</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>14295077561.1236</v>
+        <v>14872605319.0069</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>12656854970.7716</v>
+        <v>13169272287.6841</v>
       </c>
       <c r="Y21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5" t="n">
-        <v>207151.45743735</v>
-      </c>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
       <c r="AO21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AP21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5" t="n">
+      <c r="AQ21" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AR21" s="5"/>
       <c r="AS21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
+      <c r="AT21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AW21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -443,15 +443,15 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -492,8 +492,8 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -440,18 +440,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,11 +489,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,6 +907,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -916,109 +922,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>10893531000</v>
+        <v>10914125000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>13665728115</v>
+        <v>13705604115</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>9670567147</v>
+        <v>9674658147</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>10550437083</v>
+        <v>10551421083</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>8625703645</v>
+        <v>8629385645</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>8564693193</v>
+        <v>8571790193</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>9626815429</v>
+        <v>9683564429</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>9689390520</v>
+        <v>12422054498</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>8558812514</v>
+        <v>10942920739</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>7673146029</v>
+        <v>9491602742</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>8636545116.09</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>10224727570</v>
+        <v>10224627550</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>13387175813.2413</v>
+        <v>13387175797.2411</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>15539351530.4263</v>
+        <v>15539351530.4262</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>18316590305.9026</v>
+        <v>18316590305.9285</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>31788501748.0453</v>
+        <v>31788501747.0561</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>34619998279.9158</v>
+        <v>34619998279.619</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>34291731704.586</v>
+        <v>34291731704.5411</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>39100082213.1777</v>
+        <v>39100105365.4799</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>35615937472.8764</v>
+        <v>35615898262.1993</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>29121536359.5554</v>
+        <v>29439139717.4225</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>30007007163.88</v>
+        <v>29987721179.0701</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>35357832226.4521</v>
+        <v>35353479895.3265</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>26464056854.4453</v>
+        <v>26660379036.4712</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>24267856901.2681</v>
+        <v>24340029384.9638</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>21069110791.9282</v>
+        <v>21065394040.0249</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>19406249663.8794</v>
+        <v>19404060630.3798</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>21576569443.7504</v>
+        <v>21592086886.0599</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>25383412216.5396</v>
+        <v>25366831507.1032</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>23212977680.1147</v>
+        <v>23213918227.2358</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>25509679725.0878</v>
+        <v>25597314328.7734</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>53503934881.0247</v>
+        <v>53375243137.3981</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>58510550519.1283</v>
+        <v>58547338829.7781</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>32031182874.2855</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>32840179548.1143</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>32321738758.0118</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>13485476945.84</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1038,7 +1050,7 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="n">
-        <v>1433647</v>
+        <v>2098647</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>568547</v>
@@ -1077,6 +1089,8 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1137,6 +1151,8 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1247,8 +1263,16 @@
       <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="1" t="str">
+        <f>Sum(AV2:AV4)</f>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f>Sum(AW2:AW4)</f>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>Sum(AX2:AX4)</f>
+      </c>
+      <c r="AY5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1359,6 +1383,12 @@
       <c r="AU8" t="s">
         <v>34</v>
       </c>
+      <c r="AV8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1368,109 +1398,115 @@
         <v>35</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>21651236733.6665</v>
+        <v>22573487598.0996</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>26225619368.1</v>
+        <v>27368609427.3241</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>18106073739.0735</v>
+        <v>18847518675.1612</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>19300065991.4177</v>
+        <v>20084390634.2406</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>15442633771.9174</v>
+        <v>16074913874.7064</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>15015339183.8907</v>
+        <v>15635959797.6209</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>16566068154.9439</v>
+        <v>17337528740.2965</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>16382719489.7636</v>
+        <v>21852719313.3168</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>14292683459.9874</v>
+        <v>19012273493.933</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>12655917221.9341</v>
+        <v>16289047464.2963</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>13954325470.2538</v>
+        <v>14519529842.5955</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>16129274002.3653</v>
+        <v>16782577441.4903</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>20789826737.6376</v>
+        <v>21633208235.0812</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>23679459573.5782</v>
+        <v>24638117159.6374</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>27245549452.0351</v>
+        <v>28349260539.3895</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>45891620149.3984</v>
+        <v>47747291871.0496</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>48403423794.2838</v>
+        <v>50364237734.4876</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>46664769539.8616</v>
+        <v>48550123987.1887</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>52121026263.059</v>
+        <v>54231903874.9277</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>46999004597.2822</v>
+        <v>48899254283.8292</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>38097601000.6061</v>
+        <v>40071763871.4162</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>38480472611.1862</v>
+        <v>40015316207.6037</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>44526118114.2755</v>
+        <v>46334542543.2272</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>32727277601.8731</v>
+        <v>34318596096.9006</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>29441726591.6155</v>
+        <v>30770374762.629</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>25271293679.8241</v>
+        <v>26357653243.3696</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>23085481026.952</v>
+        <v>24086370573.1496</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>25217052356.4422</v>
+        <v>26357460466.8766</v>
       </c>
       <c r="AP9" s="1" t="n">
-        <v>28985610265.6807</v>
+        <v>30292791244.5263</v>
       </c>
       <c r="AQ9" s="1" t="n">
-        <v>25997956952.7544</v>
+        <v>27218547681.9072</v>
       </c>
       <c r="AR9" s="1" t="n">
-        <v>28194084338.5415</v>
+        <v>29626094241.4906</v>
       </c>
       <c r="AS9" s="1" t="n">
-        <v>57211093847.917</v>
+        <v>59720585974.0846</v>
       </c>
       <c r="AT9" s="1" t="n">
-        <v>58510550519.1283</v>
+        <v>61225680211.0784</v>
       </c>
       <c r="AU9" s="1" t="n">
-        <v>30551290316.8899</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+        <v>32840179548.1143</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>31481007353.4039</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>12852687155.2165</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1486,26 +1522,26 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="n">
-        <v>51624.7608893799</v>
+        <v>53712.2323109908</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="n">
-        <v>2394101.13620823</v>
+        <v>3646197.54477617</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>937748.837515181</v>
+        <v>975713.935824906</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>290042.932694163</v>
+        <v>301790.797832826</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>374063.999206668</v>
+        <v>389218.971946387</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>3403619.70278635</v>
+        <v>3541694.44510591</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>3193024.94331961</v>
+        <v>3322293.83878907</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1529,6 +1565,8 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1539,31 +1577,31 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="n">
-        <v>1546778.11769773</v>
+        <v>1609494.84702253</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>722992.850205366</v>
+        <v>752281.213808442</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>57623.4021346145</v>
+        <v>59959.5353082716</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="n">
-        <v>734651.407541911</v>
+        <v>764370.358269117</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="n">
-        <v>65553.3995792348</v>
+        <v>68208.5668349381</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="n">
-        <v>3945578.38067304</v>
+        <v>4105638.77689389</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>2634280.66461636</v>
+        <v>2740928.92384276</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1571,7 +1609,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="n">
-        <v>3901248.853076</v>
+        <v>4058987.44767962</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -1589,6 +1627,8 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1630,6 +1670,8 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3273,6 +3315,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3287,109 +3335,115 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>1889147000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2224991000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>2347889913</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>2333415353</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>1316857899</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>2541714943</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>3024844467</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>2710793834</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>2233217471</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>1338477701</v>
-      </c>
-      <c r="Y2" s="2" t="n">
+      <c r="O2" s="13" t="n">
+        <v>1889258000</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>2225149000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>2347957913</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>2333598353</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>1317076899</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>2543025943</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>3026058467</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>5255865604</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>4313544034</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>2546500585</v>
+      </c>
+      <c r="Y2" s="13" t="n">
         <v>934362095</v>
       </c>
-      <c r="Z2" s="2" t="n">
-        <v>1229718881</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>1613606872</v>
-      </c>
-      <c r="AB2" s="2" t="n">
+      <c r="Z2" s="13" t="n">
+        <v>1229718858</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>1613606856</v>
+      </c>
+      <c r="AB2" s="13" t="n">
         <v>256256382.2</v>
       </c>
-      <c r="AC2" s="2" t="n">
-        <v>965003610.1391</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>491944855.9602</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>432108874.0595</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>341197386.9397</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>407518458.1065</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>479236674.7835</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>333341094.7275</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>379786063.4437</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>222564038.064</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>210614199.3949</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>230213218.6151</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>222216341.3382</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>324146923.1634</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>289789774.7107</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>312878649.3838</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>318310661.2567</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>590992119.8512</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>1464155576.5723</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>748292262.3522</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>162344918.7376</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="AC2" s="13" t="n">
+        <v>965003610.14</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>491944855.9605</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>432108874.0882</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>341197386.9354</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>407518458.1017</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>479236674.9987</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>333341094.7269</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>379786063.4448</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>222564038.018</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>210870788.1549</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>230213218.617</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>220831830.4614</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>325233749.0453</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>290240855.8889</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>313041400.8759</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>318394882.0074</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>590258971.2845</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>1464676541.1155</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>747409332.8744</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>241324739.722</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>476730258.21</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>148572838.12</v>
+      </c>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3404,109 +3458,115 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>590341000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>923833000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>506926160</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>400062592</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>403456065</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>355629574</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>427423612</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>397867969</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>468050906</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>557552113</v>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="O3" s="13" t="n">
+        <v>590021000</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>923951000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>509570160</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>400302592</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>403821065</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>356797574</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>429802612</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>423467607</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>506442949</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>728199897</v>
+      </c>
+      <c r="Y3" s="13" t="n">
         <v>554428929</v>
       </c>
-      <c r="Z3" s="2" t="n">
-        <v>561231563</v>
-      </c>
-      <c r="AA3" s="2" t="n">
+      <c r="Z3" s="13" t="n">
+        <v>561131566</v>
+      </c>
+      <c r="AA3" s="13" t="n">
         <v>809979038.3111</v>
       </c>
-      <c r="AB3" s="2" t="n">
-        <v>1485296497.2066</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>1778521057.0106</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>8163691613.762</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>7672705938.5842</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>8669795984.5413</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>10848137077.8156</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>5075474772.317</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>4420076841.5801</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>4126748952.4405</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>2777847440.1066</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>2250642026.7699</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>2228264178.4254</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>1473711588.7223</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>1542345445.8659</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>1542435044.1626</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>1753128965.5719</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>1939421856.5435</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>3618715402.02</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>31358164698.0982</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>30228663110.2515</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>2516687193.1465</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="AB3" s="13" t="n">
+        <v>1485296497.2064</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>1778521058.0616</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>8163691622.6308</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>7672705940.8601</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>8669795981.269</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>10848160227.4274</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>5075435564.6893</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>4420056073.628</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>4126773621.1251</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>2777834081.7179</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>2259555336.865</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>2225734604.4996</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>1473070476.2499</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>1542322494.999</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>1542343603.0149</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>1753079915.7769</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>1937305809.1145</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>3619136785.5773</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>31343937124.3547</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>30233655763.9392</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>4713838107.444</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>2645185988.86</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>438380395.77</v>
+      </c>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3521,109 +3581,115 @@
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>7895537000</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>9984736000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>5631751068</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>6686941724</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>5662783369</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>5295928289</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>5748884997</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>6065228099</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>5318326033</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>5068748837</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="O4" s="13" t="n">
+        <v>7916258000</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>10013734000</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>5632416068</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>6687317724</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>5665350369</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>5299996289</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>5801267997</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>6116573037</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>5472484549</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>5340655257</v>
+      </c>
+      <c r="Y4" s="13" t="n">
         <v>6585223450</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="13" t="n">
         <v>7774887487</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="13" t="n">
         <v>10211590447</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="13" t="n">
         <v>12512582120.8095</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="13" t="n">
         <v>13572791804.9392</v>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>20780953526.0112</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>24185177235.4957</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>23316711150.8062</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>26551940297.6589</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>28430072451.6079</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>22844697482.3154</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>23916994664.6706</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>31059933062.3093</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>22844295036.0963</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>20749522875.1983</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>18450716508.7696</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>16592360264.4304</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>18920284137.9659</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>22258279666.5481</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>19973308684.8079</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>20367951909.0919</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>19630956220.1732</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>26485005082.3797</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>12008914079.0683</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AD4" s="13" t="n">
+        <v>20780953525.0113</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>24185177234.4825</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>23316711151.7536</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>26551885009.7341</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>28430072449.7482</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>23162326595.217</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>23897683712.2193</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>31055594091.597</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>23004731338.7987</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>20824217955.4019</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>18450121251.7335</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>16589050490.7537</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>18935407533.6955</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>22241577058.2429</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>19976627359.4683</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>20452764715.0259</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>19511809173.7575</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>26517057826.7453</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>26461652075.5085</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>27157389216.36</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>12098335682.7</v>
+      </c>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3638,109 +3704,115 @@
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>429563000</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>434814115</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>330980559</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>337122503</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>378625920</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>331712362</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>345727989</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>443321365</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>370740199</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>388959077</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="O5" s="13" t="n">
+        <v>429645000</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>445416115</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>331694559</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>337307503</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>379156920</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>332262362</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>346500989</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>553875800</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>480793038</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>550544046</v>
+      </c>
+      <c r="Y5" s="13" t="n">
         <v>374593742</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>476084505</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>502905326.9304</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>837821122.2101</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>1214805406.1661</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>1632008527.4902</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>1735556623.755</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>1907301540.6384</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>1185544805.4371</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>1590143499.7894</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>1496508140.2991</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>1552807381.6479</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>1252099033.891</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>1133149360.9472</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>1002054811.4853</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>729866377.4363</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>796482792.1449</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>688345371.5456</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>926092699.603</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>861686485.1605</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>815195008.1399</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>977604993.676</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>891394362.9641</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>443531158.9718</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="Z5" s="13" t="n">
+        <v>476084506</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>502905325.93</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>837821123.2103</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>1214805406.1447</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>1632008527.4766</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>1735556620.7362</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>1907301540.585</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>1185544805.5123</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>1590143500.5527</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>1496503153.2173</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>1552807680.6036</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>1252099031.9146</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>1161082488.8756</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>1002061788.9013</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>728777761.6907</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>796680095.5589</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>688592758.5206</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>926115020.0482</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>861686483.0258</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>815194878.521</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>980836142.3382</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>891450672.5873</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>1373654732.9847</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>1574908676.7718</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>690420448.81</v>
+      </c>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3755,109 +3827,115 @@
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="13" t="n">
         <v>88943000</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="13" t="n">
         <v>98160000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="13" t="n">
         <v>853405602</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="13" t="n">
         <v>792926411</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="13" t="n">
         <v>863980392</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="13" t="n">
         <v>39708025</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="13" t="n">
         <v>79964364</v>
       </c>
-      <c r="V6" s="2" t="n">
-        <v>72613755</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>169911552</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>319976848</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="V6" s="13" t="n">
+        <v>72706952</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>171754816</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>326271504</v>
+      </c>
+      <c r="Y6" s="13" t="n">
         <v>188156984.09</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="13" t="n">
         <v>183042261</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="13" t="n">
         <v>253826493</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="13" t="n">
         <v>451219504</v>
       </c>
-      <c r="AC6" s="2" t="n">
-        <v>785468427.6397</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>719903216.996</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>594449609.4531</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>56725643.9966</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>106996864.5862</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>43966446.2204</v>
-      </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AC6" s="13" t="n">
+        <v>785468426.643</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>719903215.9769</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>594449609.452</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>56725643.9981</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>106996864.7044</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>43966446.2104</v>
+      </c>
+      <c r="AI6" s="13" t="n">
         <v>26912800.6333</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>30670101.6773</v>
       </c>
-      <c r="AK6" s="2" t="n">
-        <v>45388652.0812</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>25356231.237</v>
-      </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AK6" s="13" t="n">
+        <v>45388652.079</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>24139083.777</v>
+      </c>
+      <c r="AM6" s="13" t="n">
         <v>57801817.544</v>
       </c>
-      <c r="AN6" s="2" t="n">
-        <v>192599975.6618</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>150914238.2748</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>135717734.8656</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>133018112.1737</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>119903693.5638</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>116597764.0692</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>69921777.1118</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>157492433.7661</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>71518151.6717</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AN6" s="13" t="n">
+        <v>192592719.8894</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>150773800.0229</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>135502134.94</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>133018112.1593</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>119903693.6198</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>119958978.3647</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>73984155.8322</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>157765233.6319</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>49709892.4551</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>467524617.81</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>109767580.44</v>
+      </c>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3872,107 +3950,115 @@
       <c r="N7" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="13" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="13" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="13" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="13" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="13" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4089,6 +4175,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4103,109 +4195,115 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>3754739296.34899</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>4269934728.13199</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>4395922932.93703</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>4268550197.87309</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>2357576274.45287</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>4456051269.77588</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>5205229077.88129</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>4583381677.65403</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>3729333988.5768</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>2207655494.00972</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1509676914.25678</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>1939853423.15884</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>2505876352.0802</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>390493298.957491</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>1435422922.18899</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>710198506.463559</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>604146447.012002</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>464307185.367801</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>543228531.895304</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>632403588.940737</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>436086059.033302</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>487031150.179051</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>280274893.080519</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>260460042.404092</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>279294322.02509</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>266536849.98254</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>385601946.498798</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>338684235.243799</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>357279727.174825</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>356500014.043592</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>653182707.508132</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>1565603395.06799</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>748292262.3522</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>154844320.401482</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="13" t="n">
+        <v>3907518196.15502</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>4443381947.09346</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>4574133777.27279</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>4441951518.79454</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>2453465239.447</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>4638780291.37091</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>5417878512.20482</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>9246051513.55761</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>7494368355.44744</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>4370185944.82211</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>1570824692.02505</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>2018445353.11665</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>2607532287.17566</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>406302332.19103</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>1493571582.28601</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>738916064.963104</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>628620310.318495</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>483066168.327241</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>565228703.105796</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>657973466.241903</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>453734917.689545</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>506782737.148817</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>291694139.26635</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>271443605.412483</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>291032804.444031</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>276311413.939888</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>403714498.3012</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>354297012.851641</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>373830598.62925</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>373321134.018036</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>683160259.922388</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>1638799865.93682</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>781600764.714328</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>241324739.722</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>464329870.266618</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>141601236.336549</v>
+      </c>
+      <c r="AY11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4220,109 +4318,115 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>1173321372.52737</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>1772909018.37102</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>949111080.426413</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>731840241.835943</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>722309102.106174</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>623478104.480953</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>735521392.265836</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>672710973.578238</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>781615841.1784</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>919614114.259477</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>895807481.046638</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>885329960.767134</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>1257869777.95199</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>2263351742.28574</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>2645513307.93552</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>11785551817.6044</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>10727477055.0656</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>11798005276.0687</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>14460737817.7719</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>6697626935.67115</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>5782467031.38943</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>5292072254.00264</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>3498143280.6588</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>2783299128.9908</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>2703326667.1217</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>1767639779.66405</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>1834758757.8354</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>1802680697.98861</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>2001918123.0659</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>2172104183.89545</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>3999515805.02956</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>33530896511.2694</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>30228663110.2515</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>2400412166.36875</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="13" t="n">
+        <v>1220329776.88256</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>1845030239.952</v>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v>992710332.600541</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>761966901.556084</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>752242292.523854</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>650841002.560765</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>769521924.787155</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>744958795.305788</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>879895969.742888</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>1249702817.1271</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>932091162.844317</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>921034425.479851</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>1308897818.86975</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>2354983027.65834</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>2752682459.32539</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>12262111934.4542</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>11162045213.0348</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>12274669400.2187</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>15046414253.2225</v>
+      </c>
+      <c r="AH12" s="13" t="n">
+        <v>6968377224.45826</v>
+      </c>
+      <c r="AI12" s="13" t="n">
+        <v>6016461247.88145</v>
+      </c>
+      <c r="AJ12" s="13" t="n">
+        <v>5506725582.12838</v>
+      </c>
+      <c r="AK12" s="13" t="n">
+        <v>3640650703.08395</v>
+      </c>
+      <c r="AL12" s="13" t="n">
+        <v>2908614572.14789</v>
+      </c>
+      <c r="AM12" s="13" t="n">
+        <v>2813747133.1449</v>
+      </c>
+      <c r="AN12" s="13" t="n">
+        <v>1843149990.0865</v>
+      </c>
+      <c r="AO12" s="13" t="n">
+        <v>1914493665.2944</v>
+      </c>
+      <c r="AP12" s="13" t="n">
+        <v>1882738836.56196</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>2093508758.03037</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>2271510135.58549</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>4188755355.55048</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>35070159530.3792</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>31616742561.0348</v>
+      </c>
+      <c r="AV12" s="13" t="n">
+        <v>4713838107.444</v>
+      </c>
+      <c r="AW12" s="13" t="n">
+        <v>2576381183.87988</v>
+      </c>
+      <c r="AX12" s="13" t="n">
+        <v>417809922.811064</v>
+      </c>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4337,109 +4441,115 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>15692629022.3458</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>19161502674.6759</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>10544252324.3269</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>12232518476.5963</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>10138105051.6223</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>9284647769.74025</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>9892827111.68895</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>10255023820.3578</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>8881273003.97593</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>8360282139.47691</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>10639943412.6096</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>12264707275.2653</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>15858251140.5327</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>19067152313.9587</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>20189247242.4018</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>30000521355.7021</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>33814137534.1631</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>31729775610.4391</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>35394155184.7439</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>37516494037.8662</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>29886066411.9882</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>30670744773.3598</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>39113773697.9032</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>28250830527.5134</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>25173289173.5544</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>22130667027.2449</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>19738106265.3137</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>22112588238.3515</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>25416985474.4234</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>22369608352.1649</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>22511288268.4895</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>20991137962.7331</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>26485005082.3797</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>11454082787.3933</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="13" t="n">
+        <v>16373053431.8011</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>19996344010.4892</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>10972694374.8215</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>12729157561.5812</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>10553476573.9064</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>9667820494.48882</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>10386635145.106</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>10760197015.597</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>9507916160.45448</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>9165384323.00486</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>11070902440.4103</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>12761604343.1774</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>16501573289.0311</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>19839081679.7252</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>21007109112.4733</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>31213621239.929</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>35183942126.4581</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>33011725017.1181</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>36827503713.5149</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>39033392666.2019</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>31527934951.4029</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>31888830920.6098</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>40701700367.3383</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>29612860419.3484</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>26325727898.3493</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>23085345440.3619</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>20592082512.4304</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>23114451980.8224</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>26560646747.9287</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>23422792265.609</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>23671840223.6938</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>21831407386.2244</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>27730122924.2759</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>26461652075.5085</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>26450989410.5731</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>11530635827.938</v>
+      </c>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4454,109 +4564,115 @@
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>853770022.320953</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>834442876.362411</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>619690481.06065</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>616703033.618945</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>677855588.338533</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>581547232.887498</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>594937492.163039</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>749563097.041328</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>619113025.496488</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>641540492.338765</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>605242365.40488</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>751012423.250847</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>780994793.6873</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>1276703944.46117</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>1806997930.04771</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>2356056791.15609</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>2426542084.12612</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>2595488253.66002</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>1580349923.64786</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>2098362894.80954</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>1957773426.48912</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>1991293619.97405</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>1576768313.07809</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>1401330638.91429</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>1215691352.95261</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>875436450.706236</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>947487984.789697</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>804485686.143577</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>1057515901.7862</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>965067405.685035</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>900978650.439534</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>1045340892.47379</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>891394362.9641</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>423039300.656372</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="13" t="n">
+        <v>888626992.918397</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>889447818.701357</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>646185043.462277</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>642057178.916617</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>706297653.707301</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>606085872.089724</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>620378053.905203</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>974371219.655131</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>835331713.575973</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>944818102.931909</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>629757031.626652</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>781439231.068973</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>812677431.233641</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>1328391017.6082</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>1880199010.2005</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>2451326209.63124</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>2524840860.54622</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>2700351416.3181</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>1644352395.75406</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>2183205679.9149</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>2036999775.27074</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>2072051089.77459</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>1641010617.18255</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>1494604443.41004</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>1266794558.54935</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>911868607.709169</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>988923523.555715</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>840565180.487569</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>1105956373.10417</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>1010335885.37308</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>943498993.138354</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>1097439669.06552</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>932231505.217803</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>1373654732.9847</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>1533943207.86975</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>658023299.417411</v>
+      </c>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4571,109 +4687,115 @@
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>176777020.123457</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>188376848.676438</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>1597819913.17271</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>1450511664.89554</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1546787755.39751</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>69614807.0061302</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>137604705.705711</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>122774572.53972</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>283741701.896006</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>527762730.686772</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>304010893.268153</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>288744982.344939</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>394183873.02217</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>687585577.999012</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>1168368049.44932</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>1039291667.17465</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>831120675.918614</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>77193217.5051856</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>142628508.010727</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>58018385.9995937</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>35208071.7060072</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>39330813.6706238</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>57157929.5549494</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>31357264.0504357</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>70125075.9616918</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>231013572.226362</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>179526072.514382</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>158616560.186998</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>151894911.718417</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>134289150.952758</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>128867442.840507</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>74766488.8807093</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>157492433.7661</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>68213897.1646768</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="13" t="n">
+        <v>183959200.342471</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>196014905.93515</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>1662547428.2179</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>1509317432.92748</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>1609432115.12192</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>72432137.1106293</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>143168816.525621</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>127905139.559531</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>298407492.257003</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>559931990.346183</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>316324515.053809</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>300443307.619354</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>410174741.993081</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>715422325.217232</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>1215698375.10421</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>1081316422.072</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>864789224.130005</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>80311985.2065148</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>148404809.33053</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>60364234.4598804</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>36632979.1715299</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>40925877.9421055</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>59486716.3560942</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>31073056.5817852</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>73072368.141376</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>240977791.272127</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>187156373.567899</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>165407456.153033</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>158848766.833742</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>140588261.321533</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>138839409.185621</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>82779522.4786747</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>164982455.835549</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>49709892.4551</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>455363680.814531</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>104616868.713389</v>
+      </c>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4682,41 +4804,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4853,6 +4977,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -4865,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -4877,82 +5007,94 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>9012734</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>19759954</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>3231731618.09</v>
+        <v>27192491</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>3812954846</v>
+        <v>38013886</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>5281950979.2413</v>
+        <v>26618774</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>7730994674.9821</v>
+        <v>57444973</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>8841237665.2824</v>
+        <v>36817459</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>18576306264.9327</v>
+        <v>73757462.04</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>20160233468.79</v>
+        <v>94946460.87</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>21127357773.9114</v>
+        <v>112141706.24</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>23115888908.3915</v>
+        <v>56714274.0859</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>16246412582.411</v>
+        <v>14745532.3494</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>15810048131.7744</v>
+        <v>46231672.5041</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>15421728885.6504</v>
+        <v>128128965.0707</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>13330137081.8715</v>
+        <v>92884082.5257</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>11912698410.6653</v>
+        <v>69906519.33</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>15150245474.8841</v>
+        <v>18500060.43</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>14449186882.6444</v>
+        <v>4323623.2712</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>13874270370.8504</v>
+        <v>40995353.9511</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>14619393160.0578</v>
+        <v>53286672.5746</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>17627562934.3755</v>
+        <v>74120298.6816</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>16712077668.9378</v>
+        <v>18804604.7253</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>19627140988.74</v>
+        <v>33607502.5891</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>44827882805.4319</v>
+        <v>92581.7804</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>46047462499.3524</v>
+        <v>3059.4</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>20232724941.8784</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>8769599.0324</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>6826873.67</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1219871.19</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4964,11 +5106,9 @@
       <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -4980,79 +5120,55 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>3867172348</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>4793771907</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>5982434518</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>6737871820.6396</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="n">
-        <v>7454215863.1515</v>
+        <v>29458</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>11867070482.5472</v>
+        <v>1481741</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>13547520958.8447</v>
+        <v>19688033.04</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>12063425081.4159</v>
+        <v>545133910.1397</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>14901437616.8322</v>
+        <v>419626804.6072</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>18552748295.3222</v>
+        <v>369797749.4893</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>12503494324.5602</v>
+        <v>3088508.0736</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>14004822873.7905</v>
+        <v>140427.3608</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>21578178999.083</v>
+        <v>-178790.0492</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>14179757511.9419</v>
+        <v>8041235.8</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>8748283143.6861</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>6424190470.4862</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>5064511735.4566</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>6586632602.9288</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>7300405322.4195</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>6124733385.5651</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>5270353073.0496</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>5881643425.5445</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>12090182374.6482</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>11286954750.38</v>
-      </c>
+        <v>-149735.36</v>
+      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5064,95 +5180,119 @@
       <c r="M4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>19594000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>40013000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1744000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>285000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>792000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>2290000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>4601000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>163460305</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>263797865</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>483061061</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>13308850</v>
+        <v>3231731618.09</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>21168463</v>
+        <v>3812954847</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>35646463</v>
+        <v>5281950979.2411</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26260225.0938</v>
+        <v>7730994674.9825</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>21301234.4687</v>
+        <v>8841237665.3116</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>100080424</v>
+        <v>18576306263.9433</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>78752737</v>
+        <v>20160233468.4913</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>14627137.9375</v>
+        <v>21127357773.5368</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>186468402.9031</v>
+        <v>23115906021.7036</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>13271019.9576</v>
+        <v>16246373369.5414</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>27115107.0589</v>
+        <v>16124497395.521</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>15297739.9783</v>
+        <v>15398909646.1659</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>4202802.6717</v>
+        <v>13279813351.92</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>26937521.885</v>
+        <v>12021664752.2637</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>5430959.5516</v>
+        <v>15117021726.8298</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>9631482.8865</v>
+        <v>14404750854.319</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>11533251.3814</v>
+        <v>13847362401.3876</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>409162.7537</v>
+        <v>14615590505.9843</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>-700398.5598</v>
+        <v>17541211372.6724</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>-926041.8509</v>
+        <v>16648014052.8458</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>-286436.3467</v>
+        <v>19609173799.3988</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>5160064.13</v>
+        <v>44742852953.7542</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>600000</v>
+        <v>46083777194.4366</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>3300000</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>20469867247.6984</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>19682008299.4618</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>9637999378.38</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5164,95 +5304,113 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="R5" s="3" t="n">
+        <v>84000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>64000</v>
+      </c>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="V5" s="3" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>2559482231</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>2099620113</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>1207095191</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>27192491</v>
+        <v>980649600</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>38013886</v>
+        <v>1299225545</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>26618774</v>
+        <v>1687510304</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>57444973</v>
+        <v>276779002</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>36817459</v>
+        <v>1052342496</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>73757462.04</v>
+        <v>317292195</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>94946460.8691</v>
+        <v>308483431.79</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>112141706.2405</v>
+        <v>210054318.5435</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>56714274.0859</v>
+        <v>138082538.0034</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>14745532.3494</v>
+        <v>96862252.4251</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>46239552.4833</v>
+        <v>158637757.5597</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>128128965.0707</v>
+        <v>184341557.2287</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>92880505.6119</v>
+        <v>277353608.9364</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>69908011.43</v>
+        <v>251986919.2119</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>18500060.43</v>
+        <v>299657503.9448</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>4335306.9007</v>
+        <v>159799700.6462</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>41074974.6011</v>
+        <v>312143766.8932</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>53286671.5322</v>
+        <v>234217845.9309</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>74120297.7939</v>
+        <v>407602114.6267</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>18804604.8084</v>
+        <v>313620908.4033</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>33607502.4177</v>
+        <v>277958402.5649</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>92581.7795</v>
+        <v>236812443.3861</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>3059.4</v>
+        <v>180337059.53</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>8769598.9824</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>271871345.1167</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>252781530.19</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>181714624.13</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5264,95 +5422,119 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>-137000</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>815000</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>699000</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>2826000</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>4807000</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>52199000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>938688</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>959758</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>69771748</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>980649600</v>
+        <v>3867172348</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>1299225568</v>
+        <v>4793771907</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>1687510320</v>
+        <v>5982434518</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>276779002</v>
+        <v>6737871820.6396</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>1052342496</v>
+        <v>7454215863.1482</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>317292195</v>
+        <v>11867070482.5472</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>308483431.79</v>
+        <v>13547520958.8447</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>210054318.5435</v>
+        <v>12063425081.4159</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>138082537.9984</v>
+        <v>14901437616.8322</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>96862252.3651</v>
+        <v>18552748295.3101</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>163976967.5597</v>
+        <v>12504051932.7663</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>184806659.5081</v>
+        <v>14004887788.9895</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>235769398.9436</v>
+        <v>21578145906.2037</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>211690145.2669</v>
+        <v>14207389307.0144</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>195038154.2248</v>
+        <v>8749060025.7161</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>141905384.4047</v>
+        <v>6426503354.7956</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>287180709.8184</v>
+        <v>5064589404.9822</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>217723841.2498</v>
+        <v>6596628434.5543</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>343471582.0635</v>
+        <v>7297921200.2757</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>256918462.8829</v>
+        <v>6123935149.5588</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>255403259.2125</v>
+        <v>5353399722.5535</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>254637125.377</v>
+        <v>5855604388.2354</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>178882072.5834</v>
+        <v>12093133376.1201</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>272144400.4561</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>11861283549.771</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>11145828875.48</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>3576824660.86</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5364,11 +5546,9 @@
       <c r="M7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5377,82 +5557,94 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>70000</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>938659</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>7179866</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>28080419</v>
+        <v>13308850</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>41682083</v>
+        <v>21068465</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>12774421</v>
+        <v>35646463</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>27099676</v>
+        <v>26260225.0938</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>23263145</v>
+        <v>21301234.4687</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>114122216.7656</v>
+        <v>100080424</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>85051998.333</v>
+        <v>78752737</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>216405827.4977</v>
+        <v>14627137.9375</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>253846636.0412</v>
+        <v>186468402.9031</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>299230424.5229</v>
+        <v>13271019.9575</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>569526219.0317</v>
+        <v>27115107.0589</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>252099898.7514</v>
+        <v>15297739.9783</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>116797427.5198</v>
+        <v>8558456.4114</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>62256743.9662</v>
+        <v>26937521.885</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>144282477.1119</v>
+        <v>5430959.5516</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>28738791.4791</v>
+        <v>9075422.8662</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>126968740.402</v>
+        <v>11533251.3816</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>86231194.678</v>
+        <v>2910101.753</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>38552478.447</v>
+        <v>7393736.1633</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>101369599.7714</v>
+        <v>8173912.9591</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>323461338.0147</v>
+        <v>-286436.3364</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>2534518878.7618</v>
+        <v>5360080.51</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>193420513.1443</v>
+        <v>600000</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>227289182.5886</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>3300000</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>6855087.3</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>-371.61</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5464,71 +5656,107 @@
       <c r="M8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="n">
+        <v>1410000</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>443950</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>4336052</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>28080419</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>41682083</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>12774421</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>27099676</v>
+      </c>
       <c r="AD8" s="3" t="n">
-        <v>29458</v>
+        <v>23263145</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>1481741</v>
+        <v>114122216.7656</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>19688033.039</v>
+        <v>85051998.333</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>545133910.1395</v>
+        <v>216405827.8277</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>419626804.6038</v>
+        <v>253846636.0176</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>369797748.4371</v>
+        <v>299230425.6109</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>484142.0236</v>
+        <v>574865428.8753</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>140427.3608</v>
+        <v>256033340.5064</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-178790.0492</v>
+        <v>116863079.3785</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-611827.46</v>
+        <v>73036743.9662</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-149735.36</v>
+        <v>150498975.1119</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>-4.69</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>53699109.24</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>126890314.5544</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>86189194.3742</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>38582784.6835</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>101369598.7435</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>323461338.0035</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>2534520689.732</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>189488140.2914</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>225087806.4958</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>1227438091.91</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>87718782.89</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5540,9 +5768,7 @@
       <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
         <v>10893531000</v>
@@ -5551,7 +5777,7 @@
         <v>13666534115</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>9670953302</v>
+        <v>9670991302</v>
       </c>
       <c r="S9" s="3" t="n">
         <v>10550468583</v>
@@ -5566,13 +5792,13 @@
         <v>9626845429</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>9689825022</v>
+        <v>9698537776</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>8560246161</v>
+        <v>8570246307</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>7673714576</v>
+        <v>7700967417</v>
       </c>
       <c r="Z9" s="3" t="n">
         <v>488629874</v>
@@ -5584,13 +5810,13 @@
         <v>364972701</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>686725255.7108</v>
+        <v>686725255.7103</v>
       </c>
       <c r="AD9" s="3" t="n">
         <v>887382985</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>738390961.7598</v>
+        <v>738390961.76</v>
       </c>
       <c r="AF9" s="3" t="n">
         <v>325321191.25</v>
@@ -5599,10 +5825,10 @@
         <v>2585948.9</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>28017032.3216</v>
+        <v>28023071.3269</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>25825991.5111</v>
+        <v>25825991.5156</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>651915.0636</v>
@@ -5611,22 +5837,22 @@
         <v>-18286.2302</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>44800.7998</v>
+        <v>40200</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>1420336.75</v>
+        <v>1416037</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>6226366.7396</v>
+        <v>9868.7396</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>11122477.8166</v>
+        <v>7241974.8867</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>709881.3695</v>
+        <v>546137.2297</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>12892810.5501</v>
+        <v>3264130.8886</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -5646,7 +5872,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5760,8 +5992,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5881,6 +6121,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5893,10 +6139,10 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -5905,82 +6151,94 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>15658759.4686104</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>33911114.6291496</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>5221605888.13716</v>
+        <v>45715292.3144521</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>6014849104.65742</v>
+        <v>62395523.2136532</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>8202689441.52564</v>
+        <v>43015008.5145845</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>11780786058.6294</v>
+        <v>91080761.7830747</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>13151158267.105</v>
+        <v>56983735.5182564</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>26817771961.8888</v>
+        <v>110785940.643393</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>28186723652.9487</v>
+        <v>138125544.914312</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>28750466438.9384</v>
+        <v>158769868.754278</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>30813844490.6433</v>
+        <v>78662781.8982371</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>21438863436.6729</v>
+        <v>20245047.045999</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>20683143158.657</v>
+        <v>62929307.0975357</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>19776561279.8513</v>
+        <v>170974013.731845</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>16786641623.9979</v>
+        <v>121734592.637502</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>14732064324.7389</v>
+        <v>89987227.7938924</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>18380254460.9569</v>
+        <v>23387555.6828228</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>17331042052.6082</v>
+        <v>5409847.19871484</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>16504693640.2776</v>
+        <v>50887765.4967573</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>17086034167.65</v>
+        <v>65047041.2243098</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>20129116794.4962</v>
+        <v>88513645.6366225</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>18717110825.4814</v>
+        <v>22048584.187502</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>21692521204.6768</v>
+        <v>38897011.8559125</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>47933898990.5685</v>
+        <v>103588.065384156</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>46047462499.3524</v>
+        <v>3199.35713188218</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>19297940261.1242</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>8769599.0324</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>6649297.60787564</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>1162630.20119345</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5992,11 +6250,9 @@
       <c r="M15" t="s">
         <v>49</v>
       </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6008,79 +6264,55 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>6248306570.3</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>7562065596.71146</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>9290516448.99322</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>10267427381.1483</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="n">
-        <v>11087992007.9989</v>
+        <v>45593.2301275</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>17131952150.1098</v>
+        <v>2225619.83472067</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>18941260280.5738</v>
+        <v>28641618.3080734</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>16416113252.4659</v>
+        <v>771798845.125065</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>19863851363.527</v>
+        <v>582022997.587425</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>24482317869.2998</v>
+        <v>507718043.57542</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>16357417823.3263</v>
+        <v>4203993.98311961</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>17959545251.4207</v>
+        <v>187384.870395994</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>27173400808.3605</v>
+        <v>-234323.612993419</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>17535665940.1454</v>
+        <v>10351087.7757072</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>10613403627.2888</v>
-      </c>
-      <c r="AO15" s="3" t="n">
-        <v>7705479630.25479</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>6024692643.07542</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>7697954933.64744</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>8336416776.9088</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>6859548873.87943</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>5824956668.87249</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>6289168352.70277</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>12090182374.6482</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>10765479149.6722</v>
-      </c>
+        <v>-189293.655711995</v>
+      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6092,95 +6324,119 @@
       <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>40525916.2779576</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>79901634.3845067</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>3397543.56898634</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>542491.033741505</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>1475346.2543587</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>4177231.02529882</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>8237666.02876229</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>287557276.826411</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>458323447.287798</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>829006940.625955</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>21503508.8728704</v>
+        <v>5433101204.40388</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>33392766.4672176</v>
+        <v>6258537016.41026</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>55357739.3707342</v>
+        <v>8535448189.52495</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>40016337.7013611</v>
+        <v>12257728528.1046</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>31685145.9476787</v>
+        <v>13683908734.0102</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>144481575.099121</v>
+        <v>27902174318.5065</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>110106940.882842</v>
+        <v>29328562728.0812</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>19904857.1463634</v>
+        <v>29912045511.8652</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>248565321.984608</v>
+        <v>32061795783.7441</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>17512517.4922847</v>
+        <v>22305643865.5207</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>35472734.5791196</v>
+        <v>21948231449.0389</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>19617560.026333</v>
+        <v>20548151527.223</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>5292589.40346198</v>
+        <v>17404625472.3003</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>33312797.1076302</v>
+        <v>15474898405.6415</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>6588831.75794458</v>
+        <v>19110758515.2182</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>11552458.7155425</v>
+        <v>18023656588.3305</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>13719840.8015922</v>
+        <v>17188809528.7812</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>478198.288623103</v>
+        <v>17841251334.0823</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>-799793.168539358</v>
+        <v>20947521732.8455</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>-1037143.81273761</v>
+        <v>19519960390.6075</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>-316578.27944195</v>
+        <v>22695475920.5239</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>5517592.56322283</v>
+        <v>50061962053.6825</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>600000</v>
+        <v>48191953072.8542</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>3147534.65213655</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>20469867247.6984</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>19170053091.6372</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>9185747846.36754</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6192,95 +6448,113 @@
       <c r="M17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="R17" s="3" t="n">
+        <v>163643.153552095</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>119219.899342117</v>
+      </c>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="V17" s="3" t="n">
+        <v>-91310.7949286844</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>4502608388.20744</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>3647888235.12638</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>2071560662.04892</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>43935724.8367777</v>
+        <v>1648642013.78427</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>59966036.1599911</v>
+        <v>2132532771.12523</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>41338046.7358143</v>
+        <v>2726957676.37567</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>87536852.0491584</v>
+        <v>438841573.617228</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>54765209.1972334</v>
+        <v>1628749188.44035</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>106480307.186277</v>
+        <v>476582481.414809</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>132747949.496016</v>
+        <v>448773358.402175</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>152604333.971852</v>
+        <v>297394231.857379</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>75601021.8343038</v>
+        <v>191520684.095592</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>19458292.8838137</v>
+        <v>132988135.718774</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>60491864.1381131</v>
+        <v>215933441.773136</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>164310392.70846</v>
+        <v>245983536.350102</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>116964420.694749</v>
+        <v>363501772.126259</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>86453067.6172657</v>
+        <v>324370380.867629</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>22444244.8018541</v>
+        <v>378823441.458601</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>5199973.31457058</v>
+        <v>199946181.401781</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>48862380.0713627</v>
+        <v>387465829.173782</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>62277406.490921</v>
+        <v>285909724.582773</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>84638820.2776885</v>
+        <v>486753963.172601</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>21060689.113622</v>
+        <v>367723602.963459</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>37144047.5844355</v>
+        <v>321706477.634075</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>98996.5483353664</v>
+        <v>264965123.410622</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>3059.4</v>
+        <v>188586865.905069</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>8364429.29771075</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>271871345.1167</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>246206346.456022</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>173187883.888015</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6292,95 +6566,119 @@
       <c r="M18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>2068281.93722351</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>-273574.186156435</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>1587728.21601139</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>1330530.64065022</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>5264303.68032537</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>8768536.9164242</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>93457493.8133803</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>1651327.91762275</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>1667487.32072582</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>119739030.98682</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>1584465027.01412</v>
+        <v>6501387251.3256</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>2049498632.96462</v>
+        <v>7868438030.88632</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>2620645882.31333</v>
+        <v>9667405107.75268</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>421766453.757194</v>
+        <v>10683101865.5117</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>1565337709.49752</v>
+        <v>11537164073.2085</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>458060370.530178</v>
+        <v>17824699084.378</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>431301416.069357</v>
+        <v>19708567307.6387</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>285845475.816966</v>
+        <v>17079358617.9652</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>184066200.941615</v>
+        <v>20668315977.1674</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>127820008.884432</v>
+        <v>25472207660.6759</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>214519213.761501</v>
+        <v>17020178622.584</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>236992898.382963</v>
+        <v>18687982657.3671</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>296904404.033026</v>
+        <v>28280483914.3184</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>261790631.263964</v>
+        <v>18288474239.3141</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>236619988.117692</v>
+        <v>11060457304.8843</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>170208068.079142</v>
+        <v>8041033871.53416</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>341627307.833675</v>
+        <v>6286703568.54379</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>254459056.540714</v>
+        <v>8052504331.60732</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>392214148.755868</v>
+        <v>8715097247.24782</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>287742280.651883</v>
+        <v>7180374258.12978</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>282279554.591735</v>
+        <v>6195975197.07216</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>272280319.372809</v>
+        <v>6551728942.90419</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>178882072.5834</v>
+        <v>12646353047.5558</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>259570888.127425</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>11861283549.771</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>10855911045.3732</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>3408986464.45562</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6392,11 +6690,9 @@
       <c r="M19" t="s">
         <v>55</v>
       </c>
-      <c r="N19" t="s">
-        <v>55</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -6405,82 +6701,94 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>123143.104240805</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>1630829.83521386</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>12321752.3152095</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>45370376.7884092</v>
+        <v>22374484.4898246</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>65752533.0717767</v>
+        <v>34581518.3689334</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>19838239.444122</v>
+        <v>57603438.4400957</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>41295525.1731449</v>
+        <v>41636390.1178667</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>34603447.3077182</v>
+        <v>32968704.0916313</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>164753075.307686</v>
+        <v>150323826.310843</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>118914157.261851</v>
+        <v>114567353.137177</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>294488716.821283</v>
+        <v>20709055.0737423</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>338381569.423746</v>
+        <v>258631950.155311</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>394866262.007245</v>
+        <v>18220598.4173173</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>745069984.775513</v>
+        <v>36908353.2277737</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>323288597.100188</v>
+        <v>20413151.7309365</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>147083000.447621</v>
+        <v>11216778.7689492</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>76990982.6591199</v>
+        <v>34675348.4696555</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>175043278.867678</v>
+        <v>6865754.27171203</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>34470673.5202989</v>
+        <v>11355441.4643157</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>151040747.09613</v>
+        <v>14316290.387981</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>100780458.01593</v>
+        <v>3552361.21056951</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>44023518.4106834</v>
+        <v>8829518.42248148</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>113531427.440798</v>
+        <v>9583993.42356581</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>357499441.095493</v>
+        <v>-331518.759639358</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>2710129596.16143</v>
+        <v>5997296.31397562</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>193420513.1443</v>
+        <v>627447.956831179</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>216788054.016185</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>3300000</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>6676777.36384255</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>-354.17264757724</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6492,71 +6800,107 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" t="s">
-        <v>57</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="n">
+        <v>2746867.22033873</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>771320.474574038</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>7441330.90643597</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>47208053.2415105</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>68416456.4869774</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>20643017.8972137</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>42967365.2062558</v>
+      </c>
       <c r="AD20" s="3" t="n">
-        <v>43818.1660644235</v>
+        <v>36005225.1841402</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>2139122.36791629</v>
+        <v>171415024.093827</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>27526523.8073517</v>
+        <v>123731348.258276</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>741827461.621642</v>
+        <v>306386678.372201</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>559369148.744833</v>
+        <v>352085658.972016</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>487987325.676766</v>
+        <v>410831830.315945</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>633368.013795973</v>
+        <v>782491334.49027</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>180081.644984246</v>
+        <v>341648337.293576</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-225150.308914601</v>
+        <v>153161650.259822</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-756628.027138834</v>
+        <v>94016612.178689</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-181658.707983677</v>
+        <v>190259008.826239</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>-5.62540908958447</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>67189937.1137552</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>157509667.523698</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>105211149.592797</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>46075137.2012106</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>118856852.595379</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>374371153.164237</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>2835828969.7079</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>198156577.449298</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>225087806.4958</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>1195510794.96577</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>83602684.4767483</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6568,93 +6912,91 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>21651236733.6665</v>
+        <v>22530893399.8844</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>26227166146.2177</v>
+        <v>27290590861.9728</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>18106796731.9237</v>
+        <v>18840375174.2162</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>19300123614.8198</v>
+        <v>20082577572.1016</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>15442633771.9174</v>
+        <v>16068055004.8724</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>15015339183.8907</v>
+        <v>15623014029.6791</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>16566119779.7048</v>
+        <v>17235978603.4816</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>16383454141.1711</v>
+        <v>17061543547.6193</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>14295077561.1236</v>
+        <v>14889979611.9645</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>12656854970.7716</v>
+        <v>13216042346.7197</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>789493970.636724</v>
+        <v>821471542.400581</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>344123396.332007</v>
+        <v>358065343.970838</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>566790137.338196</v>
+        <v>589783129.79801</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>1046458270.72765</v>
+        <v>1088823898.05929</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>1319963846.81492</v>
+        <v>1373435285.70619</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>1065981586.90865</v>
+        <v>1109085575.86753</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>454842873.243877</v>
+        <v>473268475.747654</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>3519003.07922392</v>
+        <v>3661178.17558069</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>37347145.959579</v>
+        <v>38868041.3076946</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>34080133.2179992</v>
+        <v>35458090.0067788</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>852853.354736148</v>
+        <v>887369.221504061</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>-23449.9487579673</v>
+        <v>-24400.9632918937</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>56417.6471773755</v>
+        <v>52686.4290517541</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>1756486.36794642</v>
+        <v>1822794.85954747</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>7553818.53256489</v>
+        <v>12475.9428644892</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>13340828.956973</v>
+        <v>9061376.32641236</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>844467.796242034</v>
+        <v>677923.242403828</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>15068135.8086669</v>
+        <v>3984524.57647945</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -6674,7 +7016,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6718,6 +7066,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6871,115 +7221,115 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="4" t="n">
         <v>21060000</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="4" t="n">
         <v>37406000</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="4" t="n">
         <v>2963000</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="4" t="n">
         <v>244000</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="4" t="n">
         <v>2865000</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="4" t="n">
         <v>4434000</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="4" t="n">
         <v>52072000</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="4" t="n">
         <v>2674129062</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="4" t="n">
         <v>2187317165</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="4" t="n">
         <v>1332627861</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="4" t="n">
         <v>1598712225</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="4" t="n">
         <v>1950251110</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="4" t="n">
         <v>2453706466</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="4" t="n">
         <v>1537937968.2</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="4" t="n">
         <v>2359572844.28</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="4" t="n">
         <v>2281786766.95</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="4" t="n">
         <v>3084333702.33</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="4" t="n">
         <v>2683224380.25</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="4" t="n">
         <v>3837830269.16</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="4" t="n">
         <v>1610368591.89</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>1517218766.1628</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="4" t="n">
         <v>1382941978.1415</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="4" t="n">
         <v>1114566997.5758</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="4" t="n">
         <v>933732790.2203</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="4" t="n">
         <v>818535950.9229</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="4" t="n">
         <v>655986106.1738</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="4" t="n">
         <v>753481921.2797</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>774690757.5639</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="4" t="n">
         <v>929673402.36</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="4" t="n">
         <v>886690123.11</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="4" t="n">
         <v>3037069947.75</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="4" t="n">
         <v>31136299475.1</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="4" t="n">
         <v>28768751266.92</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="4" t="n">
         <v>2618371745.11</v>
       </c>
-      <c r="AX2" s="13" t="n">
+      <c r="AX2" s="4" t="n">
         <v>1338431505.3</v>
       </c>
-      <c r="AY2" s="13" t="n">
+      <c r="AY2" s="4" t="n">
         <v>388548670.46</v>
       </c>
-      <c r="AZ2" s="13"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6994,115 +7344,115 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="4" t="n">
         <v>-665000</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="4" t="n">
         <v>2141000</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="4" t="n">
         <v>-23000</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="4" t="n">
         <v>75000</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="4" t="n">
         <v>192000</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="4" t="n">
         <v>36000</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="4" t="n">
         <v>1740000</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="4" t="n">
         <v>3632198</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="4" t="n">
         <v>48953421</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="4" t="n">
         <v>108533418</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="4" t="n">
         <v>307681077.09</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="4" t="n">
         <v>348461644</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="4" t="n">
         <v>427869132.31</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="4" t="n">
         <v>777990920.63</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="4" t="n">
         <v>959844055.1</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="4" t="n">
         <v>1564435271.75</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="4" t="n">
         <v>1929237400.67</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="4" t="n">
         <v>2848479475.8</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="4" t="n">
         <v>3259018579.42</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="4" t="n">
         <v>2228682831.76</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>1645780523.1147</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="4" t="n">
         <v>1435866272.1331</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="4" t="n">
         <v>1230738448.4406</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="4" t="n">
         <v>1140369649.5738</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="4" t="n">
         <v>1287870537.6731</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="4" t="n">
         <v>1399759572.6978</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="4" t="n">
         <v>1296473981.2177</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>1321918170.5489</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="4" t="n">
         <v>1800678199.42</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="4" t="n">
         <v>1628137775.79</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="4" t="n">
         <v>1523306342.98</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="4" t="n">
         <v>1186115924.75</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="4" t="n">
         <v>1408904330.45</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="4" t="n">
         <v>2072209669.46</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="4" t="n">
         <v>2413298021.84</v>
       </c>
-      <c r="AY3" s="13" t="n">
+      <c r="AY3" s="4" t="n">
         <v>1152058287.63</v>
       </c>
-      <c r="AZ3" s="13"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7117,101 +7467,101 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>913295</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="4" t="n">
         <v>366332</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="4" t="n">
         <v>380077</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="4" t="n">
         <v>527371</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="4" t="n">
         <v>1137225</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="4" t="n">
         <v>56869623</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="4" t="n">
         <v>389317.7003</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="4" t="n">
         <v>1783936</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="4" t="n">
         <v>2559084</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="4" t="n">
         <v>4391024</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="4" t="n">
         <v>533453</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="4" t="n">
         <v>51786.0605</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="4" t="n">
         <v>53399.27</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>72495977.7688</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="4" t="n">
         <v>236501323.2642</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="4" t="n">
         <v>369192415.3956</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="4" t="n">
         <v>595334492.4775</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="4" t="n">
         <v>430511510.4199</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="4" t="n">
         <v>342322141.5123</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="4" t="n">
         <v>283920232.3311</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>388592826.8452</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="4" t="n">
         <v>524892499.6879</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="4" t="n">
         <v>221272913.7422</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="4" t="n">
         <v>240419448.1106</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="4" t="n">
         <v>342189843.2346</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="4" t="n">
         <v>260460252.073</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="4" t="n">
         <v>475703171.6093</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="4" t="n">
         <v>530515537.5617</v>
       </c>
-      <c r="AY4" s="13" t="n">
+      <c r="AY4" s="4" t="n">
         <v>250731011.14</v>
       </c>
-      <c r="AZ4" s="13"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7226,115 +7576,115 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="4" t="n">
         <v>199000</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="4" t="n">
         <v>189000</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="4" t="n">
         <v>116000</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="4" t="n">
         <v>521000</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="4" t="n">
         <v>578000</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="4" t="n">
         <v>2627000</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="4" t="n">
         <v>2885000</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="4" t="n">
         <v>8028971</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="4" t="n">
         <v>9799544</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="4" t="n">
         <v>22190554</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="4" t="n">
         <v>83567523</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="4" t="n">
         <v>118543525</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="4" t="n">
         <v>189875776.9702</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="4" t="n">
         <v>522166820.5005</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="4" t="n">
         <v>790503286.4706</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="4" t="n">
         <v>673812468.9155</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="4" t="n">
         <v>529692342.9485</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="4" t="n">
         <v>612686585.4741</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="4" t="n">
         <v>535205367.0442</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="4" t="n">
         <v>695208994.6451</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>778569109.4058</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="4" t="n">
         <v>541541477.1325</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="4" t="n">
         <v>441652698.1897</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="4" t="n">
         <v>249454015.7443</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="4" t="n">
         <v>247947587.1599</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="4" t="n">
         <v>208757868.436</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="4" t="n">
         <v>167165439.571</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>165406256.1792</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="4" t="n">
         <v>173710895.8635</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="4" t="n">
         <v>121857062.0622</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="4" t="n">
         <v>131794490.0948</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="4" t="n">
         <v>85288215.1159</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="4" t="n">
         <v>90457122.9833</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="4" t="n">
         <v>133750375.3453</v>
       </c>
-      <c r="AX5" s="13" t="n">
+      <c r="AX5" s="4" t="n">
         <v>93871332.5201</v>
       </c>
-      <c r="AY5" s="13" t="n">
+      <c r="AY5" s="4" t="n">
         <v>22080711.19</v>
       </c>
-      <c r="AZ5" s="13"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7349,101 +7699,101 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>7844883</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="4" t="n">
         <v>14512831</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="4" t="n">
         <v>34917484</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="4" t="n">
         <v>2781590840</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="4" t="n">
         <v>2460751560</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="4" t="n">
         <v>3201496880</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="4" t="n">
         <v>1747103476.0938</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="4" t="n">
         <v>1849361530.5703</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="4" t="n">
         <v>2758095613.4063</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="4" t="n">
         <v>2712588818.2207</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="4" t="n">
         <v>2264038913.7418</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="4" t="n">
         <v>1997100755.8897</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="4" t="n">
         <v>1324969517.325</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>1405777423.7046</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="4" t="n">
         <v>1980006279.3494</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="4" t="n">
         <v>1100547649.6283</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="4" t="n">
         <v>653280576.4857</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="4" t="n">
         <v>739649536.109</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="4" t="n">
         <v>487330508.2533</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="4" t="n">
         <v>757439668.8605</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>641445324.2484</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="4" t="n">
         <v>685980514.1633</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="4" t="n">
         <v>969085458.7044</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="4" t="n">
         <v>913549870.6599</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="4" t="n">
         <v>756118910.0536</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="4" t="n">
         <v>811597892.7403</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="4" t="n">
         <v>925160550.1679</v>
       </c>
-      <c r="AX6" s="13" t="n">
+      <c r="AX6" s="4" t="n">
         <v>923092254.72</v>
       </c>
-      <c r="AY6" s="13" t="n">
+      <c r="AY6" s="4" t="n">
         <v>479014505.41</v>
       </c>
-      <c r="AZ6" s="13"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7458,113 +7808,113 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="4" t="n">
         <v>140000</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="4" t="n">
         <v>1035000</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="4" t="n">
         <v>144000</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="4" t="n">
         <v>47000</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13" t="n">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="n">
         <v>52000</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="4" t="n">
         <v>36279917</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="4" t="n">
         <v>108096818</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="4" t="n">
         <v>296031736</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="4" t="n">
         <v>3780810535</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="4" t="n">
         <v>5299884728</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="4" t="n">
         <v>7012088763.9609</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="4" t="n">
         <v>10944337572.3016</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="4" t="n">
         <v>12341868071.5076</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="4" t="n">
         <v>24504381625.0343</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="4" t="n">
         <v>26356494847.5699</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="4" t="n">
         <v>25879685213.9251</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="4" t="n">
         <v>29467634293.5367</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="4" t="n">
         <v>29759353101.609</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>24019282427.6154</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="4" t="n">
         <v>24410864279.9094</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="4" t="n">
         <v>31096775272.6566</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="4" t="n">
         <v>23088193447.4896</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="4" t="n">
         <v>20815495827.719</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="4" t="n">
         <v>17971237842.9517</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="4" t="n">
         <v>16145579387.1198</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>18300033550.6743</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="4" t="n">
         <v>21251874763.298</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="4" t="n">
         <v>19386874893.827</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="4" t="n">
         <v>19751174229.1781</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="4" t="n">
         <v>19869230769.144</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="4" t="n">
         <v>27207167964.6115</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="4" t="n">
         <v>26614984036.4218</v>
       </c>
-      <c r="AX7" s="13" t="n">
+      <c r="AX7" s="4" t="n">
         <v>27022519991.07</v>
       </c>
-      <c r="AY7" s="13" t="n">
+      <c r="AY7" s="4" t="n">
         <v>11193043760.01</v>
       </c>
-      <c r="AZ7" s="13"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7579,87 +7929,87 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="4" t="n">
         <v>1835652</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="4" t="n">
         <v>15727114</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="4" t="n">
         <v>23775583</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="4" t="n">
         <v>83875629</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="4" t="n">
         <v>45834886</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="4" t="n">
         <v>50001518</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="4" t="n">
         <v>13249552</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="4" t="n">
         <v>13656582</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="4" t="n">
         <v>3430917</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="4" t="n">
         <v>3260143.8799</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="4" t="n">
         <v>3083682.3501</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="4" t="n">
         <v>3264314.3688</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="4" t="n">
         <v>218199.7002</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>15489.6504</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="4" t="n">
         <v>-430.86</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="4" t="n">
         <v>6413.4399</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="4" t="n">
         <v>14064.48</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="4" t="n">
         <v>18434.96</v>
       </c>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13" t="n">
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4" t="n">
         <v>21232.3105</v>
       </c>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13" t="n">
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13" t="n">
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4" t="n">
         <v>10115</v>
       </c>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7670,83 +8020,83 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="4" t="n">
         <v>10893531000</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="4" t="n">
         <v>13666534115</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="4" t="n">
         <v>9670953302</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="4" t="n">
         <v>10550468583</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="4" t="n">
         <v>8625703645</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="4" t="n">
         <v>8564693193</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="4" t="n">
         <v>9626845429</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="4" t="n">
         <v>9689825022</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="4" t="n">
         <v>8560246161</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="4" t="n">
         <v>7673714576</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13" t="n">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13" t="n">
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13" t="n">
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="13" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="13"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7761,115 +8111,115 @@
       <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="13" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="13" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="13"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8006,115 +8356,115 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="4" t="n">
         <v>43558017.5979272</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="4" t="n">
         <v>74695737.2800554</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="4" t="n">
         <v>5772317.4282721</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="4" t="n">
         <v>464448.463975183</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="4" t="n">
         <v>5336953.30648697</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="4" t="n">
         <v>8088140.77125544</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="4" t="n">
         <v>93230112.0299305</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="4" t="n">
         <v>4704293626.2176</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="4" t="n">
         <v>3800253437.89107</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="4" t="n">
         <v>2286993995.65249</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="4" t="n">
         <v>2687712453.13874</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="4" t="n">
         <v>3201118096.85697</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="4" t="n">
         <v>3965103897.24489</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="4" t="n">
         <v>2438447690.08369</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="4" t="n">
         <v>3651997681.16837</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="4" t="n">
         <v>3427312794.29204</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="4" t="n">
         <v>4487005302.02192</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="4" t="n">
         <v>3798900489.16176</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="4" t="n">
         <v>5323076250.04833</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="4" t="n">
         <v>2210973950.0547</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>2065197309.5184</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="4" t="n">
         <v>1845383989.72192</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="4" t="n">
         <v>1460760075.65184</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="4" t="n">
         <v>1201948346.12689</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="4" t="n">
         <v>1034783383.71036</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="4" t="n">
         <v>820789503.682924</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="4" t="n">
         <v>935301384.685293</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>945665007.939915</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="4" t="n">
         <v>1110205754.13188</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="4" t="n">
         <v>1039652899.55359</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="4" t="n">
         <v>3515076594.9262</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="4" t="n">
         <v>34837837551.9696</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="4" t="n">
         <v>30084823671.6889</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="4" t="n">
         <v>2618371745.11</v>
       </c>
-      <c r="AX14" s="13" t="n">
+      <c r="AX14" s="4" t="n">
         <v>1303617122.08111</v>
       </c>
-      <c r="AY14" s="13" t="n">
+      <c r="AY14" s="4" t="n">
         <v>370316491.293116</v>
       </c>
-      <c r="AZ14" s="13"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8129,115 +8479,115 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="4" t="n">
         <v>-1375407.48825364</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="4" t="n">
         <v>4275345.49314545</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="4" t="n">
         <v>-44807.0539487878</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="4" t="n">
         <v>142760.798353028</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="4" t="n">
         <v>357659.698026352</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="4" t="n">
         <v>65668.2606597194</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="4" t="n">
         <v>3115309.47403747</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="4" t="n">
         <v>6389716.24196061</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="4" t="n">
         <v>85051866.0158636</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="4" t="n">
         <v>186260007.431768</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="4" t="n">
         <v>517265239.833851</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="4" t="n">
         <v>571960640.837134</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="4" t="n">
         <v>691421564.698755</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="4" t="n">
         <v>1233528401.36762</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="4" t="n">
         <v>1485585949.17127</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="4" t="n">
         <v>2349829134.06825</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="4" t="n">
         <v>2806602424.09111</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="4" t="n">
         <v>4032868124.49715</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="4" t="n">
         <v>4520263581.7383</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="4" t="n">
         <v>3059895547.37422</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>2240192109.53363</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="4" t="n">
         <v>1916005640.04646</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="4" t="n">
         <v>1613015272.26447</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="4" t="n">
         <v>1467941823.00821</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="4" t="n">
         <v>1628110568.93918</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="4" t="n">
         <v>1751421187.3348</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="4" t="n">
         <v>1609320510.01559</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>1613665511.09903</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="4" t="n">
         <v>2150350104.95202</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="4" t="n">
         <v>1909007572.49421</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="4" t="n">
         <v>1763060635.82056</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="4" t="n">
         <v>1327123473.27241</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="4" t="n">
         <v>1473356905.85242</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="4" t="n">
         <v>2072209669.46</v>
       </c>
-      <c r="AX15" s="13" t="n">
+      <c r="AX15" s="4" t="n">
         <v>2350524931.2328</v>
       </c>
-      <c r="AY15" s="13" t="n">
+      <c r="AY15" s="4" t="n">
         <v>1097999337.72831</v>
       </c>
-      <c r="AZ15" s="13"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8252,101 +8602,101 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>1606656.8769658</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="4" t="n">
         <v>636466.656361429</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="4" t="n">
         <v>652270.481748251</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="4" t="n">
         <v>886602.092583755</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="4" t="n">
         <v>1866627.07639642</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="4" t="n">
         <v>91899323.2958892</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="4" t="n">
         <v>617275.122036506</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="4" t="n">
         <v>2761063.36413646</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="4" t="n">
         <v>3843821.6321991</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="4" t="n">
         <v>6387943.02783179</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="4" t="n">
         <v>755261.049937237</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="4" t="n">
         <v>71827.3423778719</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="4" t="n">
         <v>73315.1376129186</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="4" t="n">
         <v>98679571.8442665</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="4" t="n">
         <v>315585008.191247</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="4" t="n">
         <v>483866417.915075</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="4" t="n">
         <v>766344843.107412</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="4" t="n">
         <v>544247515.306173</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="4" t="n">
         <v>428323737.327927</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="4" t="n">
         <v>352431795.561121</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>474355263.821059</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="4" t="n">
         <v>626820851.252577</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="4" t="n">
         <v>259444669.979944</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="4" t="n">
         <v>278259239.845539</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="4" t="n">
         <v>382869974.001708</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="4" t="n">
         <v>272375421.664896</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="4" t="n">
         <v>475703171.6093</v>
       </c>
-      <c r="AX16" s="13" t="n">
+      <c r="AX16" s="4" t="n">
         <v>516716122.981938</v>
       </c>
-      <c r="AY16" s="13" t="n">
+      <c r="AY16" s="4" t="n">
         <v>238965759.923501</v>
       </c>
-      <c r="AZ16" s="13"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8361,115 +8711,115 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="13" t="n">
+      <c r="P17" s="4" t="n">
         <v>411588.105507479</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="4" t="n">
         <v>377412.563383694</v>
       </c>
-      <c r="R17" s="13" t="n">
+      <c r="R17" s="4" t="n">
         <v>225983.402524321</v>
       </c>
-      <c r="S17" s="13" t="n">
+      <c r="S17" s="4" t="n">
         <v>991711.679225699</v>
       </c>
-      <c r="T17" s="13" t="n">
+      <c r="T17" s="4" t="n">
         <v>1076704.7159335</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="4" t="n">
         <v>4791958.90980786</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="4" t="n">
         <v>5165326.34057362</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="4" t="n">
         <v>14124463.0399914</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="4" t="n">
         <v>17025766.2545088</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="4" t="n">
         <v>38082397.3769541</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="4" t="n">
         <v>140491496.050866</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="4" t="n">
         <v>194575878.560949</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="4" t="n">
         <v>306832619.830143</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="4" t="n">
         <v>827911465.621745</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="4" t="n">
         <v>1223491012.85217</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="4" t="n">
         <v>1012086724.80578</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="4" t="n">
         <v>770582103.179977</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="4" t="n">
         <v>867439706.642627</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="4" t="n">
         <v>742330634.344321</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="4" t="n">
         <v>954495129.093418</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>1059767296.50236</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="4" t="n">
         <v>722627548.708645</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="4" t="n">
         <v>578833421.609139</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="4" t="n">
         <v>321109898.676506</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="4" t="n">
         <v>313452381.578178</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="4" t="n">
         <v>261204110.286586</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="4" t="n">
         <v>207503408.756961</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>201911416.956737</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="4" t="n">
         <v>207443641.663293</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="4" t="n">
         <v>142878605.052795</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="4" t="n">
         <v>152537720.711923</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="4" t="n">
         <v>95427428.223489</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="4" t="n">
         <v>94595228.3278304</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="4" t="n">
         <v>133750375.3453</v>
       </c>
-      <c r="AX17" s="13" t="n">
+      <c r="AX17" s="4" t="n">
         <v>91429614.3367774</v>
       </c>
-      <c r="AY17" s="13" t="n">
+      <c r="AY17" s="4" t="n">
         <v>21044600.367457</v>
       </c>
-      <c r="AZ17" s="13"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8484,101 +8834,101 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>13800617.7860845</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="4" t="n">
         <v>25214649.6099399</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="4" t="n">
         <v>59923763.1062044</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="4" t="n">
         <v>4676336505.90534</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="4" t="n">
         <v>4039047233.556</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="4" t="n">
         <v>5173507072.58778</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="4" t="n">
         <v>2770086000.67548</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="4" t="n">
         <v>2862324864.28941</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="4" t="n">
         <v>4142743099.67339</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="4" t="n">
         <v>3946200892.71372</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="4" t="n">
         <v>3205419047.3976</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="4" t="n">
         <v>2769981697.22519</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="4" t="n">
         <v>1819132031.12336</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>1913506356.47551</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="4" t="n">
         <v>2642100641.39538</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="4" t="n">
         <v>1442386210.45314</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="4" t="n">
         <v>840935990.133268</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="4" t="n">
         <v>935056119.247675</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="4" t="n">
         <v>609762557.825876</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="4" t="n">
         <v>940214159.21646</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>783012307.460438</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="4" t="n">
         <v>819190386.767175</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="4" t="n">
         <v>1136262241.78913</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="4" t="n">
         <v>1057334148.99893</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="4" t="n">
         <v>846007656.737925</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="4" t="n">
         <v>848725732.613986</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="4" t="n">
         <v>925160550.1679</v>
       </c>
-      <c r="AX18" s="13" t="n">
+      <c r="AX18" s="4" t="n">
         <v>899081397.701949</v>
       </c>
-      <c r="AY18" s="13" t="n">
+      <c r="AY18" s="4" t="n">
         <v>456537325.715029</v>
       </c>
-      <c r="AZ18" s="13"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -8593,113 +8943,113 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" s="13" t="n">
+      <c r="Q19" s="4" t="n">
         <v>279564.8617657</v>
       </c>
-      <c r="R19" s="13" t="n">
+      <c r="R19" s="4" t="n">
         <v>2016317.42769545</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="4" t="n">
         <v>274100.732837813</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="4" t="n">
         <v>87552.1135793675</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13" t="n">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="n">
         <v>93101.2026723841</v>
       </c>
-      <c r="W19" s="13" t="n">
+      <c r="W19" s="4" t="n">
         <v>63823165.7282678</v>
       </c>
-      <c r="X19" s="13" t="n">
+      <c r="X19" s="4" t="n">
         <v>187807836.377302</v>
       </c>
-      <c r="Y19" s="13" t="n">
+      <c r="Y19" s="4" t="n">
         <v>508035906.022966</v>
       </c>
-      <c r="Z19" s="13" t="n">
+      <c r="Z19" s="4" t="n">
         <v>6356198069.27895</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="4" t="n">
         <v>8699165367.50834</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="4" t="n">
         <v>11331290385.0042</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="4" t="n">
         <v>17352581979.5643</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="4" t="n">
         <v>19101963174.2648</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="4" t="n">
         <v>36806322955.3891</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="4" t="n">
         <v>38342716300.2567</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="4" t="n">
         <v>36640375490.8385</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="4" t="n">
         <v>40871652275.3798</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="4" t="n">
         <v>40858443718.7231</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>32694400143.4472</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="4" t="n">
         <v>32573613954.4753</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="4" t="n">
         <v>40755672739.8299</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="4" t="n">
         <v>29720297091.3342</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="4" t="n">
         <v>26314701488.5909</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="4" t="n">
         <v>22486152146.9115</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="4" t="n">
         <v>20041599314.9142</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>22338850959.5994</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="4" t="n">
         <v>25378755150.3676</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="4" t="n">
         <v>22731301693.0375</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="4" t="n">
         <v>22859825901.1875</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="4" t="n">
         <v>22231319889.8795</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="4" t="n">
         <v>28451803250.9303</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="4" t="n">
         <v>26614984036.4218</v>
       </c>
-      <c r="AX19" s="13" t="n">
+      <c r="AX19" s="4" t="n">
         <v>26319628313.1739</v>
       </c>
-      <c r="AY19" s="13" t="n">
+      <c r="AY19" s="4" t="n">
         <v>10667823640.189</v>
       </c>
-      <c r="AZ19" s="13"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8714,87 +9064,87 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="13" t="n">
+      <c r="W20" s="4" t="n">
         <v>3229255.50836917</v>
       </c>
-      <c r="X20" s="13" t="n">
+      <c r="X20" s="4" t="n">
         <v>27324349.6658633</v>
       </c>
-      <c r="Y20" s="13" t="n">
+      <c r="Y20" s="4" t="n">
         <v>40802550.4759707</v>
       </c>
-      <c r="Z20" s="13" t="n">
+      <c r="Z20" s="4" t="n">
         <v>141009475.659789</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="4" t="n">
         <v>75232816.0664276</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="4" t="n">
         <v>80800705.6415202</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="4" t="n">
         <v>21007569.9651641</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="4" t="n">
         <v>21136794.2793494</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="4" t="n">
         <v>5153341.18883148</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="4" t="n">
         <v>4742769.19628216</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="4" t="n">
         <v>4365867.60109973</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="4" t="n">
         <v>4527608.84942782</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="4" t="n">
         <v>299579.770421217</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="4" t="n">
         <v>21084.0948219778</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="4" t="n">
         <v>-574.935288955583</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="4" t="n">
         <v>8405.50363853331</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="4" t="n">
         <v>18104.5141095948</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="4" t="n">
         <v>23305.2564958898</v>
       </c>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13" t="n">
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4" t="n">
         <v>25355.3917222716</v>
       </c>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13" t="n">
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13" t="n">
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4" t="n">
         <v>9851.89539967892</v>
       </c>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8805,83 +9155,83 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="4" t="n">
         <v>22530893399.8844</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="4" t="n">
         <v>27290590861.9728</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="4" t="n">
         <v>18840301145.1705</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="4" t="n">
         <v>20082577572.1016</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="4" t="n">
         <v>16068055004.8724</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="4" t="n">
         <v>15623014029.6791</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="4" t="n">
         <v>17235978603.4816</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="4" t="n">
         <v>17046216182.2758</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="4" t="n">
         <v>14872605319.0069</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="4" t="n">
         <v>13169272287.6841</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13" t="n">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="13" t="n">
+      <c r="AQ21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13" t="n">
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13" t="n">
+      <c r="AU21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13" t="n">
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="13" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="13"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -8890,43 +9240,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -440,18 +440,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,11 +489,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8884,7 +8884,7 @@
         <v>1913506356.47551</v>
       </c>
       <c r="AK18" s="4" t="n">
-        <v>2642100641.39538</v>
+        <v>2642100641.39539</v>
       </c>
       <c r="AL18" s="4" t="n">
         <v>1442386210.45314</v>
@@ -11093,7 +11093,7 @@
         <v>1913506356.47551</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>2642100641.39538</v>
+        <v>2642100641.39539</v>
       </c>
       <c r="AK18" s="5" t="n">
         <v>1442386210.45314</v>
